--- a/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/Argo Upg/LocalizationDef.xlsx
+++ b/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/Argo Upg/LocalizationDef.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="390">
   <si>
     <t>argoUpgrade_drive1.Description.Details</t>
   </si>
@@ -84,82 +84,82 @@
     <t>argoUpgrade_DropSlot.Description.Details</t>
   </si>
   <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Enables to Drop 1 additional Mech or Tank.&lt;/color&gt;&lt;/b&gt; \n\n So it turns out the docking cradles were salvaged for parts and scrap, but the mounting points are still intact. I can get my techs to work fabricating new 'Mech cradles commander, but it's gonna take a while to get everything rebuilt. I think there's enough pieces left behind to get one assembled quickly, though."</t>
-  </si>
-  <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Позволяет высадить 1 дополнительный мех или танк.&lt;/color&gt;&lt;/b&gt; \n\nПохоже, что док-станции были разобраны на запчасти, но места крепления остались невредимы. Я могу попросить моих техов поработать над изготовлением новых док-станций для мехов, командир, но потребуется время, чтобы всё воссоздать заново. Хотя, думаю, тут валяется достаточно частей, чтобы быстро собрать хотя бы одну из них."</t>
+    <t>"So it turns out the docking cradles were salvaged for parts and scrap, but the mounting points are still intact. I can get my techs to work fabricating new 'Mech cradles, Commander, but it's gonna take a while to get everything rebuilt. I think there's enough pieces left behind to get one assembled quickly, though."</t>
+  </si>
+  <si>
+    <t>"Похоже, что подвесные опоры кто-то свинтил, но места крепления остались невредимы. Я могу попросить моих техов поработать над изготовлением новых подвесных опор для мехов, командир, но потребуется время, чтобы всё воссоздать заново. Хотя, думаю, одну опору мы сможем собрать по-быстрому, из того, что здесь осталось."</t>
   </si>
   <si>
     <t>argoUpgrade_DropSlot.Description.Name</t>
   </si>
   <si>
-    <t>"Repaired Drop Bay 1"</t>
-  </si>
-  <si>
-    <t>"Отремонтированный отсек 1"</t>
+    <t>"Leopard: Drop Bay 1"</t>
+  </si>
+  <si>
+    <t>"«Леопард»: отсек 1"</t>
   </si>
   <si>
     <t>argoUpgrade_DropSlot1.Description.Details</t>
   </si>
   <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Enables to Drop 1 additional Mech or Tank.&lt;/color&gt;&lt;/b&gt; \n\n The first cradle turned out alright, Boss. There's enough scrap left lying around we should be able to construct the bones of a gantry for the next, but we're also gonna need to buy several complex components to get the next cradle ready for use."</t>
-  </si>
-  <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Позволяет высадить 1 дополнительный мех или танк.&lt;/color&gt;&lt;/b&gt; \n\nПервая док-станция в порядке, босс. Вокруг осталось достаточно металлолома, чтобы мы могли соорудить каркас для ещё одной, но нам точно нужно закупить ещё несколько сложных компонентов, чтобы подготовить док-станцию к использованию."</t>
+    <t>"The first cradle turned out alright, Boss. There's enough scrap left lying around we should be able to construct the bones of a gantry for the next, but we're also gonna need to buy several complex components to get the next cradle ready for use."</t>
+  </si>
+  <si>
+    <t>"Первая опора получилась добротной, босс. Вокруг осталось достаточно металлолома, чтобы мы смогли соорудить каркас для ещё одной, но нам точно понадобится закупить несколько сложных компонентов, прежде чем следующую подвесную опору можно будет использовать."</t>
   </si>
   <si>
     <t>argoUpgrade_DropSlot1.Description.Name</t>
   </si>
   <si>
-    <t>"Repaired Drop Bay 2"</t>
-  </si>
-  <si>
-    <t>"Отремонтированный отсек 2"</t>
+    <t>"Leopard: Drop Bay 2"</t>
+  </si>
+  <si>
+    <t>"«Леопард»: отсек 2"</t>
   </si>
   <si>
     <t>argoUpgrade_DropSlot2.Description.Details</t>
   </si>
   <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Enables to Drop 1 additional Mech or Tank.&lt;/color&gt;&lt;/b&gt; \n\n Half-done now, Boss. It's really starting to look like a proper dropship. I can get started on fabricating parts to assemble the final 2 cradles from scratch. Producing the parts in duplicate should save us a little time and money."</t>
-  </si>
-  <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Позволяет высаживать 1 дополнительный мех или танк.&lt;/color&gt;&lt;/b&gt; \n\nПол дела сделано, босс. Это действительно начинает походить на настоящий дропшип. Я могу приступить к изготовлению с нуля деталей для сборки последних двух подвесных опор. Хорошо, что детали абсолютно одинаковы, это сэкономит нам немного времени и денег."</t>
+    <t>"Half-done now, Boss. It's really starting to look like a proper dropship. I can get started on fabricating parts to assemble the final two cradles from scratch. Producing both sets of parts at the same time should save us a little time and money."</t>
+  </si>
+  <si>
+    <t>"Пол дела сделано, босс. Это действительно начинает походить на настоящий дропшип. Я могу приступить к изготовлению с нуля деталей для сборки последних двух подвесных опор. Хорошо, что они абсолютно одинаковы, сэкономит немного времени и денег."</t>
   </si>
   <si>
     <t>argoUpgrade_DropSlot2.Description.Name</t>
   </si>
   <si>
-    <t>"Repaired Drop Bay 3"</t>
-  </si>
-  <si>
-    <t>"Отремонтированный отсек 3"</t>
+    <t>"Leopard: Drop Bay 3"</t>
+  </si>
+  <si>
+    <t>"«Леопард»: отсек 3"</t>
   </si>
   <si>
     <t>argoUpgrade_DropSlot3.Description.Details</t>
   </si>
   <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Enables to Drop 1 additional Mech or Tank.&lt;/color&gt;&lt;/b&gt; \n\n There's more to dropping a lance of BattleMechs from orbit than strapping them to a wall, Commander. Several of the gyros and handling sensors around the ship are damaged or downright missing. If we try to insert the ship from orbit with anything less than an absolutely perfectly balanced load, there's a very real chance we could lose the shuttle and all aboard. We'll need to replace and recalibrate those systems through some test drops before we can make full use of the new Leopard, Commander."</t>
-  </si>
-  <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Позволяет высадить 1 дополнительный мех или танк.&lt;/color&gt;&lt;/b&gt; \n\nЧтобы высадить копье мехов с орбиты, недостаточно просто привязать их к стене. Несколько гироскопов и датчиков управления вокруг корабля повреждены или попросту отсутствуют. Если мы попытаемся вывести корабль с орбиты без абсолютно идеально сбалансированной развесовки нагрузки, есть очень даже реальный шанс, что мы потеряем и дропшип и все, что есть у него на борту. Нам нужно будет заменить и откалибровать эти системы при помощи нескольких тестовых высадок, прежде чем мы сможем в полной мере использовать новый «Леопард», командир."</t>
+    <t>"There's more to dropping a lance of BattleMechs from orbit than strapping them to a wall, Commander. Several of the gyros and handling sensors around the ship are damaged or downright missing. If we try to insert the ship from orbit with all four 'Mech cradles occupied, using anything less than an absolutely perfectly balanced load could lead to a very real chance of losing the shuttle and all aboard. We'll need to replace and recalibrate those systems through some test drops before we can make full use of the new Leopard, Commander."</t>
+  </si>
+  <si>
+    <t>"Чтобы высаживать копье мехов с орбиты, надо немного больше, чем просто привязывать их к стене. Несколько гироскопов и датчиков управления по всему кораблю повреждены или банально отсутствуют. Если мы попытаемся спустить корабль с орбиты без абсолютно идеально сбалансированной развесовки нагрузки, есть очень даже реальный шанс, что мы потеряем и дропшип и всё, что есть у него на борту. Нам нужно будет заменить и откалибровать эти системы при помощи нескольких тестовых высадок, прежде чем мы сможем в полной мере использовать новый «Леопард»."</t>
   </si>
   <si>
     <t>argoUpgrade_DropSlot3.Description.Name</t>
   </si>
   <si>
-    <t>"Repaired Drop Bay 4"</t>
-  </si>
-  <si>
-    <t>"Отремонтированный отсек 4"</t>
+    <t>"Leopard: Drop Bay 4"</t>
+  </si>
+  <si>
+    <t>"«Леопард»: отсек 4"</t>
   </si>
   <si>
     <t>argoUpgrade_JunkyardLeopard.Description.Details</t>
   </si>
   <si>
-    <t>"We managed to find someone selling a junked Leopard, Commander. The seller says it 'ran when parked'. If we can get it fully operational again, we'd be able to drop some Heavy Metal! &lt;b&gt;&lt;color=#F79232&gt;Allows you to drop 2 additional Battle Armor&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Нам удалось найти человека, который продает старый &lt;i&gt;«Леопард»&lt;/i&gt;, командир. Торговец утверждает, что он «работал, когда его парковали». Если нам удастся вернуть его в рабочее состояние, то со временем мы сможем бросать в бой серьёзные силы. &lt;b&gt;&lt;color=#F79232&gt;Позволяет высаживать дополнительно 2 Battle Armor&lt;/color&gt;&lt;/b&gt;"</t>
+    <t>"We managed to find someone selling a junked Leopard, Commander. The seller says it 'ran when parked'. If we can get it fully operational again, we'd be able to drop some Heavy Metal!"</t>
+  </si>
+  <si>
+    <t>"Нам удалось найти человека, который продает старый «Леопард», командир. Торговец утверждает, что «он работал, когда его парковали». Если нам удастся вернуть его в рабочее состояние, то со временем мы сможем бросать в бой серьёзные силы."</t>
   </si>
   <si>
     <t>argoUpgrade_JunkyardLeopard.Description.Name</t>
@@ -168,43 +168,43 @@
     <t>"Junkyard Leopard"</t>
   </si>
   <si>
-    <t>"Поддержанный «Леопард»"</t>
+    <t>"«Леопард» со свалки"</t>
   </si>
   <si>
     <t>argoUpgrade_LeopardStorage.Description.Details</t>
   </si>
   <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Reduces the monthly upkeep of all stored inventory items by 5%. This includes equipment, weapons, salvaged 'Mechs and stored 'Mechs.&lt;/color&gt;&lt;/b&gt; Further Repairs on the Leopard's Mechbays allows to store some Equipment on it"</t>
-  </si>
-  <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Сокращает ежемесячные расходы на хранение запасов на 5%. Включает в себя оборудование, оружие, разобранные и собранные мехи.&lt;/color&gt;&lt;/b&gt; Произведенный ремонт мехотсеков «Леопарда» позволит хранить там некоторую часть нашего оборудования."</t>
+    <t>"Further Repairs on the Leopard's Mechbays allows more efficient storage of units and equipment."</t>
+  </si>
+  <si>
+    <t>"Дальнейший ремонт мехотсеков «Леопарда» позволит более эффективно хранить там юниты и оборудование."</t>
   </si>
   <si>
     <t>argoUpgrade_LeopardStorage.Description.Name</t>
   </si>
   <si>
-    <t>"Leopard Stores"</t>
-  </si>
-  <si>
-    <t>"Склады «Леопарда»"</t>
+    <t>"Leopard: Utilize Storage Areas"</t>
+  </si>
+  <si>
+    <t>"«Леопард»: использование зон хранилища"</t>
   </si>
   <si>
     <t>argoUpgrade_LeopardStorage1.Description.Details</t>
   </si>
   <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Reduces the monthly upkeep of all stored inventory items by 5%. This includes equipment, weapons, salvaged 'Mechs and stored 'Mechs.&lt;/color&gt;&lt;/b&gt; Freed space on the Leopard allows to store munitions and replacement Parts easier"</t>
-  </si>
-  <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Сокращает ежемесячные расходы на хранение запасов на 5%. Включает в себя оборудование, оружие, разобранные и собранные мехи.&lt;/color&gt;&lt;/b&gt; Высвободившееся пространство на «Леопарде» позволит проще хранить боеприпасы и запасные части."</t>
+    <t>"Freed space on the Leopard allows to store munitions and replacement Parts easier."</t>
+  </si>
+  <si>
+    <t>"Высвободившееся пространство на «Леопарде» позволит проще хранить боеприпасы и запасные части."</t>
   </si>
   <si>
     <t>argoUpgrade_LeopardStorage1.Description.Name</t>
   </si>
   <si>
-    <t>"Leopard Munition Dump"</t>
-  </si>
-  <si>
-    <t>"Склад боеприпасов «Леопарда»"</t>
+    <t>"Leopard: Munition Dump"</t>
+  </si>
+  <si>
+    <t>"«Леопард»: склад боеприпасов"</t>
   </si>
   <si>
     <t>argoUpgrade_mechBay_automation1.Description.Details</t>
@@ -249,7 +249,7 @@
     <t>"Maintaining 'Mechs in the Succession War era is complicated by the relative rarity of precision-manufactured parts. The &lt;i&gt;Argo&lt;/i&gt;'s machine shop, once repaired and brought online, can help address this lack."</t>
   </si>
   <si>
-    <t>"Обслуживание мехов в эпоху Войн за Наследие осложняется относительной редкостью сложных в изготовлении деталей. Механический цех &lt;i&gt;«Арго»&lt;/i&gt;, как только будет отремонтирован и запущен, сможет помочь в устранении этого недостатка."</t>
+    <t>"Обслуживание мехов в эпоху войн за Наследие осложняется относительной редкостью сложных в изготовлении деталей. Механический цех &lt;i&gt;«Арго»&lt;/i&gt;, как только будет отремонтирован и запущен, сможет помочь в устранении этого недостатка."</t>
   </si>
   <si>
     <t>argoUpgrade_mechBay_machineShop.Description.Name</t>
@@ -321,7 +321,7 @@
     <t>"The repaired power conduits allow six more 'Mech cubicles to be powered up and made available. This also brings more of the Mech Bay's automated systems online, making Yang's job easier. \n\n &lt;b&gt;&lt;color=#F79232&gt;Enables second Repair bay, allows work on a second 'Mech's at 50% efficiency.&lt;/color&gt;&lt;/b&gt;"</t>
   </si>
   <si>
-    <t>"Отремонтированная проводка позволяет запустить еще 6 дополнительных платформ для мехов, а также ещё несколько автоматических систем, что серьезно разгрузит Яна.\n\n&lt;b&gt;&lt;color=#F79232&gt;Запускает второй ремонтный отсек, позволяет работать со вторым мехом с 50% эффективностью.&lt;/color&gt;&lt;/b&gt;"</t>
+    <t>"Отремонтированная проводка позволяет запустить еще 6 дополнительных платформ для мехов, а также ещё несколько автоматических систем, что серьезно разгрузит Яна.\r\n\r\n&lt;b&gt;&lt;color=#F79232&gt;Запускает второй ремонтный отсек, позволяет работать со вторым мехом с 50% эффективностью.&lt;/color&gt;&lt;/b&gt;"</t>
   </si>
   <si>
     <t>argoUpgrade_mechBay2.Description.Name</t>
@@ -339,7 +339,7 @@
     <t>"With the &lt;i&gt;Argo&lt;/i&gt;'s power systems fully online, and enough reinforcement to keep the active Bays from damaging the ship's spine, the final 6 'Mech cubicles can be powered up and put to work. \n\n &lt;b&gt;&lt;color=#F79232&gt;Enables third Repair bay, allows work on a third 'Mech at 33% efficiency.&lt;/color&gt;&lt;/b&gt;."</t>
   </si>
   <si>
-    <t>"После вывода систем энергонабжения на полную мощность и усиления «хребта» корабля, достаточного для безопасного функционирования активных мехотсеков, стал возможен ввод в эксплуатацию оставшихся 6 платформ для мехов.\n\n&lt;b&gt;&lt;color=#F79232&gt;Запускает третий ремонтный отсек, позволяя работать с третьим мехом с эффективностью 33%&lt;/color&gt;&lt;/b&gt;."</t>
+    <t>"После вывода систем энергонабжения на полную мощность и усиления «хребта» корабля, достаточного для безопасного функционирования активных мехотсеков, стал возможен ввод в эксплуатацию оставшихся 6 платформ для мехов.\r\n\r\n&lt;b&gt;&lt;color=#F79232&gt;Запускает третий ремонтный отсек, позволяя работать с третьим мехом с эффективностью 33%&lt;/color&gt;&lt;/b&gt;."</t>
   </si>
   <si>
     <t>argoUpgrade_mechBay3.Description.Name</t>
@@ -429,7 +429,7 @@
     <t>"Each of the three pods is meant to be a mostly self-sufficient habitation space. Alpha Pod, as its interior labeling designates it, is the only one of the three to have retained its pressure seal, making its interior (mostly) habitable."</t>
   </si>
   <si>
-    <t>"Каждый из трех отсеков подразумевался по большому счету как самодостаточное жилое пространство. Отсек «Альфа», как его обозначает внутренняя маркировка, единственный из трех сохранил герметичность, что делает его пригодным для жизни."</t>
+    <t>"Каждый из трех отсеков задумывался как самодостаточное жилое помещение. Отсек «Альфа», как его обозначает внутренняя маркировка, единственный из всех трёх сохранил герметичность, что делает его (по большей части) пригодным для жизни."</t>
   </si>
   <si>
     <t>argoUpgrade_pod1.Description.Name</t>
@@ -447,7 +447,7 @@
     <t>"Beta Pod, once repaired, includes what was clearly once a hydroponics facility near the spine of the &lt;i&gt;Argo&lt;/i&gt;, and a low-g gymnasium just above that. Neither survived exposure to hard vacuum and stellar radiation, but they're tantalizing indications of the luxuries the &lt;i&gt;Argo&lt;/i&gt; once included. \n\n &lt;b&gt;&lt;color=#F79232&gt;+10 Days before Affinities Decay. &lt;/color&gt;&lt;/b&gt;"</t>
   </si>
   <si>
-    <t>"В Отсеке «Бета» находится то, что похоже когда-то было гидропонным садом и спортивным залом с низкой гравитацией прямо над ним. Ни то ни другое не пережило воздействия открытого космоса и космической радиации, но, тем не менее они являются манящими атрибутами роскошной жизни, которая когда-то была на &lt;i&gt;«Арго»&lt;/i&gt;. \n\n &lt;b&gt;&lt;color=#F79232&gt;+10 дней до начала снижения Affinity. &lt;/color&gt;&lt;/b&gt;"</t>
+    <t>"В Отсеке «Бета» находится то, что похоже когда-то было гидропонным садом и спортивным залом с низкой гравитацией прямо над ним. Ни то ни другое не пережило воздействия открытого космоса и космической радиации, но, тем не менее они являются манящими атрибутами роскошной жизни, которая когда-то была на &lt;i&gt;«Арго»&lt;/i&gt;. \r\n\r\n &lt;b&gt;&lt;color=#F79232&gt;+10 дней до начала снижения Affinity. &lt;/color&gt;&lt;/b&gt;"</t>
   </si>
   <si>
     <t>argoUpgrade_pod2.Description.Name</t>
@@ -519,7 +519,7 @@
     <t>"The &lt;i&gt;Argo&lt;/i&gt; was intended to operate at a much higher total power throughput than the jury-rigged conduits can manage. With this upgrade we can bring some weapons online that should help us stave of some attackers."</t>
   </si>
   <si>
-    <t>"&lt;i&gt;«Арго»&lt;/i&gt; изначально был способен оперировать куда большими мощностями, нежели те, что могут выдержать аварийно-восстановленные кабели. Усиление проводки даст возможность запустить несколько орудий, которые помогут нам отбиваться от нападающих."</t>
+    <t>"&lt;i&gt;«Арго»&lt;/i&gt; изначально был способен оперировать куда большими мощностями, нежели те, что могут выдержать аварийно восстановленные кабели. Усиление проводки даст возможность запустить несколько орудий, которые помогут нам отбиваться от налётов пиратов."</t>
   </si>
   <si>
     <t>argoUpgrade_power3.Description.Name</t>
@@ -564,7 +564,7 @@
     <t>"Upgraded Arcade"</t>
   </si>
   <si>
-    <t>"Усовершенствованный зал игровых автоматов"</t>
+    <t>"Улучшенный зал игровых автоматов"</t>
   </si>
   <si>
     <t>argoUpgrade_rec_gym.Description.Details</t>
@@ -573,7 +573,7 @@
     <t>"MechWarriors have to maintain their physical condition, and doing so in their own quarters is claustrophobic and distracting. Luckily, the &lt;i&gt;Argo&lt;/i&gt; has a full gymnasium, needing only repair and power."</t>
   </si>
   <si>
-    <t>"Мехвоинам нужно поддерживать свою физическую форму, а заниматься спортом в собственной каюте неудобно и непрактично. К счастью на борту &lt;i&gt;«Арго»&lt;/i&gt; есть целый спортзал... нужны лишь ремонт и энергоснабжение."</t>
+    <t>"Мехвоинам нужно поддерживать свою физическую форму, а заниматься спортом в собственной каюте неудобно и непрактично. К счастью на борту &lt;i&gt;«Арго»&lt;/i&gt; есть целый спортзал... нужны лишь ремонт и питание."</t>
   </si>
   <si>
     <t>argoUpgrade_rec_gym.Description.Name</t>
@@ -768,10 +768,10 @@
     <t>argoUpgrade_storage.Description.Details</t>
   </si>
   <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Reduces the monthly upkeep of all stored inventory items by 5%. This includes equipment, weapons, salvaged 'Mechs and stored 'Mechs.&lt;/color&gt;&lt;/b&gt; \n\n The &lt;i&gt;Argo&lt;/i&gt;'s internal storage is just enough for day-to-day survival, but we'll need to develop an inventory system optimized for the  &lt;i&gt;Argo&lt;/i&gt; and not just a standard DropShip. This ship's layout and functions are so different from standard that a new unified inventory system needs to be developed from scratch."</t>
-  </si>
-  <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Сокращает ежемесячные расходы на хранение запасов на 5%. Включает в себя оборудование, оружие, разобранные и собранные мехи.&lt;/color&gt;&lt;/b&gt; \n\n Внутреннего хранилища &lt;i&gt;«Арго»&lt;/i&gt; вполне достаточно для повседневной жизни, но нам нужно разработать систему инвентаризации, оптимизированную именно под &lt;i&gt;«Арго»&lt;/i&gt;, а не просто под стандартный дропшип. Компоновка и функции этого корабля настолько отличаются от стандартных, что новую унифицированную систему инвентаризации нужно разрабатывать с нуля."</t>
+    <t>"The &lt;i&gt;Argo&lt;/i&gt;'s internal storage is just enough for day-to-day survival, but we'll need to develop an inventory system optimized for the  &lt;i&gt;Argo&lt;/i&gt; and not just a standard DropShip. This ship's layout and functions are so different from standard that a new unified inventory system needs to be developed from scratch."</t>
+  </si>
+  <si>
+    <t>"Внутреннего хранилища &lt;i&gt;«Арго»&lt;/i&gt; вполне достаточно для повседневной жизни, но нам нужно разработать систему инвентаризации, оптимизированную именно под &lt;i&gt;«Арго»&lt;/i&gt;, а не просто под стандартный дропшип. Компоновка и функции этого корабля настолько отличаются от стандартных, что новую унифицированную систему инвентаризации нужно разрабатывать с нуля."</t>
   </si>
   <si>
     <t>argoUpgrade_storage.Description.Name</t>
@@ -780,40 +780,52 @@
     <t>"Storage Space"</t>
   </si>
   <si>
-    <t>"Расширение склада"</t>
+    <t>"Склад"</t>
   </si>
   <si>
     <t>argoUpgrade_storage2.Description.Details</t>
   </si>
   <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Reduces the monthly upkeep of all stored inventory items by 5%. This includes equipment, weapons, salvaged 'Mechs and stored 'Mechs.&lt;/color&gt;&lt;/b&gt; \n\n An optimized inventory system for the &lt;i&gt;Argo&lt;/i&gt; is an excellent start, but we can cut storage costs further. If you're willing to front the cost for a few, rugged WorkMechs, we'd save a ton of labour and time managing our storage. This will translate into cheaper storage costs in the long run."</t>
-  </si>
-  <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Сокращает ежемесячные расходы на хранение запасов на 5%. Включает в себя оборудование, оружие, разобранные и собранные мехи.&lt;/color&gt;&lt;/b&gt; \n\n Оптимизированная система инвентаризации &lt;i&gt;«Арго»&lt;/i&gt; - прекрасное начало, но мы можем сократить расходы на хранение еще больше. Если вы готовы оплатить стоимость нескольких крепких рабочих мехов, мы сэкономим массу времени и сил на управление хранилищем. Это приведет к снижению затрат на хранение в долгосрочной перспективе."</t>
+    <t>"An optimized inventory system for the &lt;i&gt;Argo&lt;/i&gt; is an excellent start, but we can cut storage costs further. If you're willing to front the cost for a few, rugged WorkMechs, we'd save a ton of labour and time managing our storage. This will translate into cheaper storage costs in the long run."</t>
+  </si>
+  <si>
+    <t>"Оптимизированная система инвентаризации для «Арго» - это отличное начало, но мы можем еще больше сократить расходы на хранение. Если вы готовы взять на себя оплату нескольких прочных рабочих мехов, мы сэкономим кучу человеко-часов на управление складом. В конечном итоге это приведет к снижению затрат на хранение."</t>
   </si>
   <si>
     <t>argoUpgrade_storage2.Description.Name</t>
   </si>
   <si>
+    <t>"Mechanized Storage Space"</t>
+  </si>
+  <si>
+    <t>"Механизированное складское помещение"</t>
+  </si>
+  <si>
     <t>argoUpgrade_storage3.Description.Details</t>
   </si>
   <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Reduces the monthly upkeep of all stored inventory items by 5%. This includes equipment, weapons, salvaged 'Mechs and stored 'Mechs.&lt;/color&gt;&lt;/b&gt; \n\n Automating the &lt;i&gt;Argo&lt;/i&gt;'s internal storage is the future. One last upgrade to the storage cells would let us move to an automated drone inventory system with a few pressurized WorkMechs for special work. Depressurizing some of our inventory and making robots do the work will save us a lot of upkeep by letting us assign the labour and resources elsewhere"</t>
-  </si>
-  <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Сокращает ежемесячные расходы на хранение запасов на 5%. Включает в себя оборудование, оружие, разобранные и собранные мехи.&lt;/color&gt;&lt;/b&gt; \n\n За автоматизацией внутреннего хранилища &lt;i&gt;«Арго»&lt;/i&gt; будущее. Ещё одно, последнее улучшение ячеек хранения позволит нам перейти на инвентаризационную систему, использующую автоматические дроны в купе с парой герметичных рабочих мехов для особых работ. Разгерметизация некоторых отсеков хранилища и использование там роботов позволит сэкономить много ресурсов, которые мы сможем перераспределить куда-то ещё."</t>
+    <t>"Automating the &lt;i&gt;Argo&lt;/i&gt;'s internal storage is the future. One last upgrade to the storage cells would let us move to an automated drone inventory system with a few pressurized WorkMechs for special work. Depressurizing some of our inventory and making robots do the work will save us a lot of upkeep by letting us assign the labour and resources elsewhere"</t>
+  </si>
+  <si>
+    <t>"За автоматизацией внутреннего хранилища «Арго» будущее. Ещё одно, последнее улучшение ячеек хранения позволит нам перейти на инвентаризационную систему, использующую автоматические дроны в купе с парой герметичных рабочих мехов для особых работ. Разгерметизация некоторых отсеков хранилища и использование там роботов позволит сэкономить много ресурсов, которые мы сможем перераспределить куда-нибудь ещё."</t>
   </si>
   <si>
     <t>argoUpgrade_storage3.Description.Name</t>
   </si>
   <si>
+    <t>"Automated Storage Space"</t>
+  </si>
+  <si>
+    <t>"Автоматизация склада"</t>
+  </si>
+  <si>
     <t>argoUpgrade_trainingModule1.Description.Details</t>
   </si>
   <si>
     <t>"This set of networked Battle Pods allow MechWarriors to compete against one another in simulated 'Mech battles, generating experience for participating MechWarriors.  \n\n &lt;b&gt;&lt;color=#F79232&gt;Each MechWarrior with less than 200,000 total experience will gain 30 experience points per day. &lt;/color&gt;&lt;/b&gt; \n\n &lt;b&gt;&lt;color=#F79232&gt;Affinity decays to minimum 5 points&lt;/color&gt;&lt;/b&gt;"</t>
   </si>
   <si>
-    <t>"Этот набор соединённых локальной сетью боевых модулей позволит мехвоинам получить дополнительный опыт, проводя симуляции сражений друг с другом на мехах.\n\n&lt;b&gt;&lt;color=#F79232&gt;Каждый мехвоин с общим количеством опыта менее 200 000 будет получать по 30 очков опыта в день. &lt;/color&gt;&lt;/b&gt; \n\n&lt;b&gt;&lt;color=#F79232&gt;Affinity не опустится ниже 5 единиц.&lt;/color&gt;&lt;/b&gt;"</t>
+    <t>"Этот набор соединённых локальной сетью боевых модулей позволит мехвоинам получить дополнительный опыт, проводя симуляции сражений друг с другом на мехах.\r\n\r\n&lt;b&gt;&lt;color=#F79232&gt;Каждый мехвоин с общим количеством опыта менее 200 000 будет получать по 30 очков опыта в день. &lt;/color&gt;&lt;/b&gt; \r\n\r\n&lt;b&gt;&lt;color=#F79232&gt;Affinity не опустится ниже 5 единиц.&lt;/color&gt;&lt;/b&gt;"</t>
   </si>
   <si>
     <t>argoUpgrade_trainingModule1.Description.Name</t>
@@ -828,10 +840,10 @@
     <t>argoUpgrade_trainingModule2.Description.Details</t>
   </si>
   <si>
-    <t>"Adding more Battle Pods allows for full-lance training simulations, as well as raucous ship-wide tournaments. This increases the amount of experience gained by MechWarriors aboard the ship.  \n\n &lt;b&gt;&lt;color=#F79232&gt;Each MechWarrior with less than 500,000 total experience will gain 50 experience points per day. &lt;/color&gt;&lt;/b&gt; \n\n &lt;b&gt;&lt;color=#F79232&gt;Affinity decays to minimum 10 points &lt;/color&gt;&lt;/b&gt; \n\n &lt;b&gt;&lt;color=#F79232&gt;Shift-Click a pilot in the Barracks to Retrain.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Увеличение количества боевых капсул позволит проводить как полноценные тренировочные симуляции целым копьём, так и всеми любимые внутрикорабельные турниры. Это сильно повысит опыт, приобретаемый мехвоинами на борту корабля. \n\n &lt;b&gt;&lt;color=#F79232&gt; Каждый мехвоин с общим количеством опыта менее 500 000 будет получать по 50 очков опыта в день. &lt;/color&gt;&lt;/b&gt; \n\n &lt;b&gt;&lt;color=#F79232&gt;Affinity не опустится ниже 10 единиц.&lt;/color&gt;&lt;/b&gt;"</t>
+    <t>"Adding more Battle Pods allows for full-lance training simulations, as well as raucous ship-wide tournaments. This increases the amount of experience gained by MechWarriors aboard the ship.  \n\n &lt;b&gt;&lt;color=#F79232&gt;Each MechWarrior with less than 500,000 total experience will gain 50 experience points per day. &lt;/color&gt;&lt;/b&gt; \n\n &lt;b&gt;&lt;color=#F79232&gt;Affinity decays to minimum 10 points &lt;/color&gt;&lt;/b&gt;"</t>
+  </si>
+  <si>
+    <t>"Увеличение количества боевых капсул позволит проводить как полноценные тренировочные симуляции целым копьём, так и всеми любимые внутрикорабельные турниры. Это сильно повысит опыт, приобретаемый мехвоинами на борту корабля. \r\n\r\n &lt;b&gt;&lt;color=#F79232&gt; Каждый мехвоин с общим количеством опыта менее 500 000 будет получать по 50 очков опыта в день. &lt;/color&gt;&lt;/b&gt; \r\n\r\n &lt;b&gt;&lt;color=#F79232&gt;Affinity не опустится ниже 10 единиц.&lt;/color&gt;&lt;/b&gt;"</t>
   </si>
   <si>
     <t>argoUpgrade_trainingModule2.Description.Name</t>
@@ -849,7 +861,7 @@
     <t>"With a training space completely packed with Battle Pods, MechWarriors can engage in lance-versus-lance competition, and that inevitably means teams, logos, and pennants. Large-scale competition means even more experience for participating MechWarriors.  \n\n &lt;b&gt;&lt;color=#F79232&gt;Each MechWarrior with less than 800,000 total experience will gain 80 experience points per day.&lt;/color&gt;&lt;/b&gt; \n\n &lt;b&gt;&lt;color=#F79232&gt;Affinity decays to minimum 40 points &lt;/color&gt;&lt;/b&gt;"</t>
   </si>
   <si>
-    <t>"С тренировочным комплексом, полностью укомплектованным боевыми модулями, мехвоины смогут сражаться «копье на копье», что неминуемо приведет к возникновению команд, логотипов и вымпелов. Широкомасшабная конкуренция даст еще больше опыта участвующим мехвоинам.\n\n&lt;b&gt;&lt;color=#F79232&gt;Каждый мехвоин с общим количеством опыта менее 800,000 будет получать по 80 очков опыта в день.&lt;/color&gt;&lt;/b&gt; \n\n&lt;b&gt;&lt;color=#F79232&gt;Affinity не опустится ниже 40 единиц.&lt;/color&gt;&lt;/b&gt;"</t>
+    <t>"С тренировочным комплексом, полностью укомплектованным боевыми модулями, мехвоины смогут сражаться «копье на копье», что неминуемо приведет к возникновению команд, логотипов и вымпелов. Широкомасшабная конкуренция даст еще больше опыта участвующим мехвоинам.\r\n\r\n&lt;b&gt;&lt;color=#F79232&gt;Каждый мехвоин с общим количеством опыта менее 800,000 будет получать по 80 очков опыта в день.&lt;/color&gt;&lt;/b&gt; \r\n\r\n&lt;b&gt;&lt;color=#F79232&gt;Affinity не опустится ниже 40 единиц.&lt;/color&gt;&lt;/b&gt;"</t>
   </si>
   <si>
     <t>argoUpgrade_trainingModule3.Description.Name</t>
@@ -864,135 +876,183 @@
     <t>argoUpgrade_VehicleSlot.Description.Details</t>
   </si>
   <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Allows you to Drop an Additional Vehicle&lt;/color&gt;&lt;/b&gt; \n\n The Command and Control systems were never really intended to support a Light Company's worth of 'Mechs, Commander. If we want to maintain communications with our pilots, we'll need to upgrade our communication networks to deal with the additional bandwidth."</t>
-  </si>
-  <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Позволяет высаживать дополнительную единицу техники.&lt;/color&gt;&lt;/b&gt; \n\n Системы командования и управления никогда не предназначались для поддержки легкой роты мехов, командир. Если мы хотим поддерживать связь с нашими пилотами, нам придется модернизировать наши коммуникационные сети, чтобы справиться с дополнительной пропускной способностью."</t>
+    <t>"The Command and Control systems were never really intended to support a Light Company's worth of 'Mechs, Commander. If we want to maintain communications with our pilots, we'll need to upgrade our communication networks to deal with the additional bandwidth."</t>
+  </si>
+  <si>
+    <t>"Системы командования и управления никогда не предназначались для поддержки легкой роты мехов, командир. Если мы хотим поддерживать связь с нашими пилотами, нам придется модернизировать наши коммуникационные сети, чтобы повысить пропускную способность."</t>
   </si>
   <si>
     <t>argoUpgrade_VehicleSlot.Description.Name</t>
   </si>
   <si>
-    <t>"Vehicle Drop Bay 1"</t>
-  </si>
-  <si>
-    <t>"Отсек для техники 1"</t>
+    <t>"Leopard: Upgraded Communication Networks"</t>
+  </si>
+  <si>
+    <t>"«Леопард»: улучшенные системы связи"</t>
   </si>
   <si>
     <t>argoUpgrade_VehicleSlot1.Description.Details</t>
   </si>
   <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Allows you to Drop an Additional Vehicle&lt;/color&gt;&lt;/b&gt; \n\n The upgrades continue, Commander. Interfacing this Star League technology with our own C&amp;C systems is proving challenging, but there's no problem more money and time can't fix, right?"</t>
-  </si>
-  <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Позволяет высаживать дополнительную единицу техники.&lt;/color&gt;&lt;/b&gt; \n\n Модернизация продолжается, командир. Наладить взаимодействие между технологией Звёздной лиги и нашей системой управления и контроля будет сложной задачей, но нет таких проблем, которые бы не смогли решить время и деньги, верно?"</t>
+    <t>"The upgrades continue, Commander. Interfacing this Star League technology with our own Command &amp; Control systems is proving challenging, but there's no problem more money and time can't fix, right?"</t>
+  </si>
+  <si>
+    <t>"Модернизация продолжается, командир. Наладить взаимодействие между технологией Звёздной лиги и нашей системой управления и контроля будет сложной задачей, но нет таких проблем, которые бы не смогли решить время и деньги, верно?"</t>
   </si>
   <si>
     <t>argoUpgrade_VehicleSlot1.Description.Name</t>
   </si>
   <si>
+    <t>"Leopard: Command and Control System Integrations"</t>
+  </si>
+  <si>
+    <t>"«Леопард»: встраивание систем управления и контроля"</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimit.Description.Details</t>
   </si>
   <si>
-    <t>"The shuttle was allowed to go to rust sitting in the junkyard, Commander. Most parts of the Leopard's basic structure consist of little more than rust and hope. My 'techs can get to work repairing the worst of the damage, but I warn you now, to complete all of the work will be a long process. &lt;b&gt;&lt;color=#F79232&gt;Increases Drop Weight Limit by 50 tons&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Этот шаттл бросили ржаветь на свалке, командир. Большинство деталей каркаса &lt;i&gt;«Леопарда»&lt;/i&gt; держатся на ржавчине и честном слове. Мои техи могут приступить к починке самых проблемных участков, но должен предупредить, что на полный ремонт уйдёт очень много времени. &lt;b&gt;&lt;color=#F79232&gt;Увеличивает лимит тоннажа высадки на 50 тонн.&lt;/color&gt;&lt;/b&gt;"</t>
+    <t>"The shuttle was allowed to go to rust sitting in the junkyard, Commander. Most parts of the Leopard's basic structure consist of little more than rust and hope. My 'techs can get to work repairing the worst of the damage, but I warn you now, to complete all of the work will be a long process."</t>
+  </si>
+  <si>
+    <t>"Этот шаттл бросили ржаветь на свалке, командир. Большая часть каркаса этого «Леопарда» держится на ржавчине и честном слове. Мои техи могут приступить к починке самых проблемных участков, но должен предупредить, что до полного ремонта ещё очень далеко."</t>
   </si>
   <si>
     <t>argoUpgrade_WeightLimit.Description.Name</t>
   </si>
   <si>
-    <t>"Engine Repairs"</t>
-  </si>
-  <si>
-    <t>"Ремонт двигателя"</t>
+    <t>"Leopard: Critical Repairs"</t>
+  </si>
+  <si>
+    <t>"«Леопард»: ремонт наиболее повреждённых частей"</t>
   </si>
   <si>
     <t>argoUpgrade_WeightLimit1.Description.Details</t>
   </si>
   <si>
-    <t>"The good news is that the 'Mechs probably won't fall out of their cradles when the Leopard launches, so now we can get started on making sure they won't fall through the floor. &lt;b&gt;&lt;color=#F79232&gt;Increases Drop Weight Limit by 50 tons&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Хорошая новость заключается в том, что мехи теперь скорее всего не выпадут из своих подвесных опор при запуске &lt;i&gt;«Леопарда»&lt;/i&gt;, так что теперь мы можем заняться тем, чтобы они не проваливались сквозь пол. &lt;b&gt;&lt;color=#F79232&gt;Увеличивает лимит тоннажа высадки на 50 тонн.&lt;/color&gt;&lt;/b&gt;"</t>
+    <t>"The good news is that the 'Mechs probably won't fall out of their cradles when the Leopard launches, so now we can get started on making sure they won't fall through the floor."</t>
+  </si>
+  <si>
+    <t>"Хорошая новость заключается в том, что мехи теперь скорее всего не сорвутся со своих подвесных опор при запуске «Леопарда», так что теперь мы можем позаботиться о том, чтобы они не провалились сквозь пол."</t>
   </si>
   <si>
     <t>argoUpgrade_WeightLimit1.Description.Name</t>
   </si>
   <si>
+    <t>"Leopard: Floor Reinforcements"</t>
+  </si>
+  <si>
+    <t>"«Леопард»: ремонт напольного покрытия"</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimit2.Description.Details</t>
   </si>
   <si>
-    <t>"The interior of the ship is now more or less serviceable, but the underlying structure still needs a lot of work. &lt;b&gt;&lt;color=#F79232&gt;Increases Drop Weight Limit by 50 tons&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Внутренняя часть корабля теперь более или менее исправна, но над каркасом ещё работать и работать. &lt;b&gt;&lt;color=#F79232&gt;Увеличивает лимит тоннажа высадки на 50 тонн.&lt;/color&gt;&lt;/b&gt;"</t>
+    <t>"The interior of the ship is now more or less serviceable, but the underlying structure still needs a lot of work."</t>
+  </si>
+  <si>
+    <t>"Внутренняя часть корабля теперь более или менее исправна, но над каркасом ещё работать и работать."</t>
   </si>
   <si>
     <t>argoUpgrade_WeightLimit2.Description.Name</t>
   </si>
   <si>
+    <t>"Leopard: Basic Structural Repairs"</t>
+  </si>
+  <si>
+    <t>"«Леопард»: базовый ремонт каркаса"</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimit3.Description.Details</t>
   </si>
   <si>
-    <t>"Turns out the engine mounts are almost completely rusted away Commander. We're gonna need to rebuild them before we can start fixing the engines, otherwise they'll rip themselves out under too much stress. &lt;b&gt;&lt;color=#F79232&gt;Increases Drop Weight Limit by 50 tons&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Выяснилось, что крепления двигателей насквозь проржавели, командир. Нам нужно полностью заменить их прежде, чем приступать непосредственно к ремонту двигателей, иначе они точно оторвутся при большой нагрузке. &lt;b&gt;&lt;color=#F79232&gt;Увеличивает лимит тоннажа высадки на 50 тонн.&lt;/color&gt;&lt;/b&gt;"</t>
+    <t>"Turns out the engine mounts are almost completely rusted away Commander. We're gonna need to rebuild them before we can start fixing the engines, otherwise they'll rip themselves out under too much stress."</t>
+  </si>
+  <si>
+    <t>"Выяснилось, что крепления двигателей насквозь проржавели, командир. Нам нужно полностью заменить их прежде, чем приступать непосредственно к ремонту двигателей, иначе они точно оторвутся из-за нагрузки."</t>
   </si>
   <si>
     <t>argoUpgrade_WeightLimit3.Description.Name</t>
   </si>
   <si>
+    <t>"Leopard: Engine Mounts Replacement"</t>
+  </si>
+  <si>
+    <t>"«Леопард»: замена креплений двигателя"</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimit4.Description.Details</t>
   </si>
   <si>
-    <t>"The Leopard has lost a lot of engine power over the years rusting away. As it stands, getting down to the planet won't be a problem but it'd be a one way trip with the engines in their current state. I'll help Yang get started on repairing the worst of the damage. &lt;b&gt;&lt;color=#F79232&gt;Increases Drop Weight Limit by 50 tons&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"&lt;i&gt;«Леопард»&lt;/i&gt; потерял львиную долю мощности своих двигателей, ржавея годами. В текущем состоянии спуститься на планету не составит труда, но из-за состояния двигателей, это будет билет в один конец. Я помогу Янгу приступить к устранению самых серьезных повреждений. &lt;b&gt;&lt;color=#F79232&gt;Увеличивает лимит тоннажа высадки на 50 тонн.&lt;/color&gt;&lt;/b&gt;"</t>
+    <t>"The Leopard has lost a lot of engine power over the years rusting away. As it stands, getting down to the planet won't be a problem but it'd be a one way trip with the engines in their current state. I'll help Yang get started on repairing the worst of the damage."</t>
+  </si>
+  <si>
+    <t>"«Леопард» потерял львиную долю мощности своих двигателей, ржавея годами. В текущем состоянии спуститься на планету не составит труда, но из-за состояния двигателей, это будет билет в один конец. Я помогу Яну приступить к устранению самых серьезных повреждений."</t>
   </si>
   <si>
     <t>argoUpgrade_WeightLimit4.Description.Name</t>
   </si>
   <si>
+    <t>"Leopard: Engine Overhaul"</t>
+  </si>
+  <si>
+    <t>"«Леопард»: капитальный ремонт двигателей"</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimit5.Description.Details</t>
   </si>
   <si>
-    <t>"The engine work continues, Commander. We've almost got those engines back up to their rated output. A little more tweaking should do it. &lt;b&gt;&lt;color=#F79232&gt;Increases Drop Weight Limit by 50 tons&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Работа над двигателями продолжается, командир. Мы практически восстановили их до номинальной мощности. Небольшая доводка должна с этим помочь. &lt;b&gt;&lt;color=#F79232&gt;Увеличивает лимит тоннажа высадки на 50 тонн.&lt;/color&gt;&lt;/b&gt;"</t>
+    <t>"The engine work continues, Commander. We've almost got those engines back up to their rated output. A little more tweaking should do it."</t>
+  </si>
+  <si>
+    <t>"Работа над двигателями продолжается, командир. Мы практически восстановили их до номинальной мощности. Небольшая доводка и дело сделано."</t>
   </si>
   <si>
     <t>argoUpgrade_WeightLimit5.Description.Name</t>
   </si>
   <si>
+    <t>"Leopard: Improved Engine Tuning"</t>
+  </si>
+  <si>
+    <t>"«Леопард»: тюнинг двигателя"</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimit6.Description.Details</t>
   </si>
   <si>
-    <t>"Now that the engines and structure are back up to snuff, the next step is to recalibrate the control systems to correctly handle the balance and performance changes that our repairs have caused. We'll need to do a series of orbital drops to accurately gauge the handling characteristics and then punch them into the onboard flight systems. &lt;b&gt;&lt;color=#F79232&gt;Increases Drop Weight Limit by 50 tons&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Теперь, когда двигатели и структура корабля восстановлены, следующим шагом будет откалибровать системы управления, чтобы они учитывали изменения в балансе и производительности после нашего ремонта . Нам нужно совершить серию орбитальных высадок для точного измерения характеристик управляемости, а затем внести изменения в бортовые системы управления полетом.\n&lt;b&gt;&lt;color=#F79232&gt;Увеличивает лимит тоннажа высадки на 50 тонн.&lt;/color&gt;&lt;/b&gt;"</t>
+    <t>"Now that the engines and structure are back up to snuff, the next step is to recalibrate the control systems to correctly handle the balance and performance changes that our repairs have caused. We'll need to do a series of orbital drops to accurately gauge the handling characteristics and then punch them into the onboard flight systems."</t>
+  </si>
+  <si>
+    <t>"Теперь, когда двигатели и корпус корабля восстановлены, следующим шагом будет откалибровать системы управления, чтобы они учитывали изменения в балансе и производительности после нашего ремонта. Нам нужно совершить серию орбитальных высадок для точного измерения характеристик управляемости, а затем вбить их в бортовые системы управления полетом."</t>
   </si>
   <si>
     <t>argoUpgrade_WeightLimit6.Description.Name</t>
   </si>
   <si>
+    <t>"Leopard: Recalibrate Control Systems"</t>
+  </si>
+  <si>
+    <t>"«Леопард»: откалиброванные системы управления"</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimit7.Description.Details</t>
   </si>
   <si>
-    <t>"The good news is we're almost at the finish line. Frankly, I never thought we'd get this far, Boss. I've been putting this off so far because of the necessary time and money, but the spine of the ship was bent either during it's past service or while it was rotting away in the junkyard. We're going to have to completely tear down the ship to expose the structural skeleton to complete the work, but after this it will be as good as new! &lt;b&gt;&lt;color=#F79232&gt;Increases Drop Weight Limit by 50 tons&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Хорошая новость - мы почти на финишной прямой! Честно говоря, я никогда не думал, что мы продвинемся так далеко, босс. Я откладывал этот разговор до этого момента из-за хронического недостатка времени и денег, но хребет корабля погнут. Он погнулся либо во время со своей предыдущей службы, либо когда гнил на свалке. Нам придется полностью разобрать корабль до основания, чтобы починить его, зато потом он будет как новенький! \n&lt;b&gt;&lt;color=#F79232&gt;Увеличивает лимит тоннажа высадки на 50 тонн.&lt;/color&gt;&lt;/b&gt;"</t>
+    <t>"The good news is we're almost at the finish line. Frankly, I never thought we'd get this far, Boss. I've been putting this off so far because of the necessary time and money, but the spine of the ship was bent either during it's past service or while it was rotting away in the junkyard. We're going to have to completely tear down the ship to expose the structural skeleton to complete the work, but after this it will be as good as new!"</t>
+  </si>
+  <si>
+    <t>"Хорошая новость - мы почти на финишной прямой! Честно говоря, я никогда не думал, что мы продвинемся так далеко, босс. Я откладывал этот разговор до этого момента из-за хронического недостатка времени и денег, но хребет корабля погнут. Он погнулся либо во время со своей предыдущей службы, либо когда гнил на свалке. Нам придется полностью разобрать корабль до основания, чтобы починить его, зато потом он будет как новенький!"</t>
   </si>
   <si>
     <t>argoUpgrade_WeightLimit7.Description.Name</t>
   </si>
   <si>
+    <t>"Leopard: Strengthened Structural Frame"</t>
+  </si>
+  <si>
+    <t>"«Леопард»: выпрямление каркаса"</t>
+  </si>
+  <si>
     <t>argoUpgrade_DropInfo1.Description.Name</t>
   </si>
   <si>
@@ -1005,10 +1065,10 @@
     <t>argoUpgrade_DropInfo1.Description.Details</t>
   </si>
   <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Enables Map preview in the contract details screen.&lt;/color&gt;&lt;/b&gt; \n\nThe current sensor systems have lacked the capabilities to properly map the terrain in our mission drop zones. With some simple rewiring and adding the proper software to the Argo computers, we can adapt the general sensor array to support terrain scans."</t>
-  </si>
-  <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Активирует предпросмотр карты на экране подробностей контракта.&lt;/color&gt;&lt;/b&gt; \n\n Нашим сенсорным системам не достаёт возможностей для правильного отображения местности в зонах посадки. С помощью несложной перепрошивки и добавления соответствующего программного обеспечения в компьютеры Арго, мы сможем адаптировать наши датчики для сканирования местности."</t>
+    <t>"The current sensor systems have lacked the capabilities to properly map the terrain in our mission drop zones. With some simple rewiring and adding the proper software to the Argo computers, we can adapt the general sensor array to support terrain scans."</t>
+  </si>
+  <si>
+    <t>"Наши системы датчиков не позволяют должным образом отображать местность в зонах высадки. С помощью несложной перепрошивки и добавления некоторого программного обеспечения в компьютеры «Арго», мы сможем адаптировать наши датчики для сканирования местности."</t>
   </si>
   <si>
     <t>argoUpgrade_DropInfo2.Description.Name</t>
@@ -1023,10 +1083,10 @@
     <t>argoUpgrade_DropInfo2.Description.Details</t>
   </si>
   <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Enables Weather preview in the contract details screen.&lt;/color&gt;&lt;/b&gt; \n\nBy further upgrading our sensor systems and connect them to a series of autonomous satellites it would be possible to monitor weather systems and unusual geological characteristics in the whole star system."</t>
-  </si>
-  <si>
-    <t>"&lt;b&gt;&lt;color=#F79232&gt;Активирует предпросмотр погоды на экране подробностей контракта.&lt;/color&gt;&lt;/b&gt; \n\n Дальнейшая модернизация сенсоров и подключение их к серии автономных спутников позволит отслеживать погодные условия и геологические особенности всех планет системы."</t>
+    <t>"By further upgrading our sensor systems and connect them to a series of autonomous satellites it would be possible to monitor weather systems and unusual geological characteristics in the whole star system."</t>
+  </si>
+  <si>
+    <t>"Дальнейшая модернизация сенсоров и подключение их к серии автономных спутников позволит отслеживать погодные условия и геологические особенности всех планет системы."</t>
   </si>
   <si>
     <t>SimGameStatDesc_IBLS_CargoStorageModifier.Description.Details</t>
@@ -1035,7 +1095,7 @@
     <t>"Affects non-jump travel times - not shown"</t>
   </si>
   <si>
-    <t>"Влияет на время передвижения без прыжков - не показывается"</t>
+    <t>"Влияет на время передвижения (без прыжков) - не показывается"</t>
   </si>
   <si>
     <t>SimGameStatDesc_IBLS_MechbayUpkeepModifier.Description.Details</t>
@@ -1080,7 +1140,7 @@
     <t>"Minimum pilot's affinity to mech will decay to."</t>
   </si>
   <si>
-    <t>"Минимальное число Affinity пилота, до которой та может снизиться."</t>
+    <t>"Минимальное Affinity пилота к меху, до которой может снизиться."</t>
   </si>
   <si>
     <t>SimGameStatDesc_MaSimDaysDecayModulator.Description.Details</t>
@@ -1090,6 +1150,48 @@
   </si>
   <si>
     <t>"Количество дней, которое должно пройти, чтобы Affinity пилота начало снижаться."</t>
+  </si>
+  <si>
+    <t>argoUpgrade_MRBConsole.Description.Name</t>
+  </si>
+  <si>
+    <t>"MRB Contract Console"</t>
+  </si>
+  <si>
+    <t>"Консоль контрактов MRB"</t>
+  </si>
+  <si>
+    <t>argoUpgrade_MRBConsole.Description.Details</t>
+  </si>
+  <si>
+    <t>"Basic MRB Contract Console that allows bidding on all standard contracts and flashpoints."</t>
+  </si>
+  <si>
+    <t>"Базовая консоль MRB контрактов, позволяющая осуществлять торги по всем стандартным контрактам и флэшпоинтам."</t>
+  </si>
+  <si>
+    <t>SimGameStatDesc_BiggerDrops_LeopardEnabled.Description.Details</t>
+  </si>
+  <si>
+    <t>"Enables Leopard"</t>
+  </si>
+  <si>
+    <t>"Активирует «Леопард»"</t>
+  </si>
+  <si>
+    <t>SimGameStatDesc_BiggerDrops_MaxTonnage_Display.Description.Details</t>
+  </si>
+  <si>
+    <t>SimGameStatDesc_IBLS_CargoStorageModifier_Display.Description.Details</t>
+  </si>
+  <si>
+    <t>SimGameStatDesc_IBLS_MechbayUpkeepModifier_Display.Description.Details</t>
+  </si>
+  <si>
+    <t>SimGameStatDesc_Intel_Show_Minimap_Display.Description.Details</t>
+  </si>
+  <si>
+    <t>SimGameStatDesc_Intel_Show_Mood_Display.Description.Details</t>
   </si>
 </sst>
 </file>
@@ -1429,17 +1531,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="73.5703125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2892,10 +2994,10 @@
         <v>256</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D86" s="1">
         <v>86</v>
@@ -2906,13 +3008,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D87" s="1">
         <v>87</v>
@@ -2923,13 +3025,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D88" s="1">
         <v>88</v>
@@ -2940,13 +3042,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D89" s="1">
         <v>89</v>
@@ -2957,13 +3059,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D90" s="1">
         <v>90</v>
@@ -2974,13 +3076,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D91" s="1">
         <v>91</v>
@@ -2991,13 +3093,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D92" s="1">
         <v>92</v>
@@ -3008,13 +3110,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D93" s="1">
         <v>93</v>
@@ -3025,13 +3127,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D94" s="1">
         <v>94</v>
@@ -3042,13 +3144,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D95" s="1">
         <v>95</v>
@@ -3059,13 +3161,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D96" s="1">
         <v>96</v>
@@ -3076,13 +3178,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D97" s="1">
         <v>97</v>
@@ -3093,13 +3195,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="D98" s="1">
         <v>98</v>
@@ -3110,13 +3212,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D99" s="1">
         <v>99</v>
@@ -3127,13 +3229,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D100" s="1">
         <v>100</v>
@@ -3144,13 +3246,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D101" s="1">
         <v>101</v>
@@ -3161,13 +3263,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="D102" s="1">
         <v>102</v>
@@ -3178,13 +3280,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="D103" s="1">
         <v>103</v>
@@ -3195,13 +3297,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="D104" s="1">
         <v>104</v>
@@ -3212,13 +3314,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D105" s="1">
         <v>105</v>
@@ -3229,13 +3331,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="D106" s="1">
         <v>106</v>
@@ -3246,13 +3348,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="D107" s="1">
         <v>107</v>
@@ -3263,13 +3365,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="D108" s="1">
         <v>108</v>
@@ -3280,13 +3382,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="D109" s="1">
         <v>109</v>
@@ -3297,13 +3399,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="D110" s="1">
         <v>110</v>
@@ -3314,13 +3416,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="D111" s="1">
         <v>111</v>
@@ -3331,13 +3433,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="D112" s="1">
         <v>112</v>
@@ -3348,13 +3450,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="D113" s="1">
         <v>113</v>
@@ -3365,13 +3467,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="D114" s="1">
         <v>114</v>
@@ -3382,13 +3484,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="D115" s="1">
         <v>115</v>
@@ -3399,13 +3501,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="D116" s="1">
         <v>116</v>
@@ -3416,13 +3518,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="D117" s="1">
         <v>117</v>
@@ -3433,13 +3535,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="D118" s="1">
         <v>118</v>
@@ -3450,13 +3552,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="D119" s="1">
         <v>119</v>
@@ -3467,13 +3569,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="D120" s="1">
         <v>120</v>
@@ -3484,13 +3586,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="D121" s="1">
         <v>121</v>
@@ -3501,13 +3603,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="D122" s="1">
         <v>122</v>
@@ -3518,13 +3620,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="D123" s="1">
         <v>123</v>
@@ -3535,13 +3637,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="D124" s="1">
         <v>124</v>
@@ -3552,13 +3654,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="D125" s="1">
         <v>125</v>
@@ -3569,13 +3671,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="D126" s="1">
         <v>126</v>
@@ -3586,13 +3688,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="D127" s="1">
         <v>127</v>
@@ -3603,13 +3705,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="D128" s="1">
         <v>128</v>
@@ -3620,18 +3722,154 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="D129" s="1">
         <v>129</v>
       </c>
       <c r="E129" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D130" s="1">
+        <v>130</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D131" s="1">
+        <v>131</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D132" s="1">
+        <v>132</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D133" s="1">
+        <v>133</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D134" s="1">
+        <v>134</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D135" s="1">
+        <v>135</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D136" s="1">
+        <v>136</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D137" s="1">
+        <v>137</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/Argo Upg/LocalizationDef.xlsx
+++ b/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/Argo Upg/LocalizationDef.xlsx
@@ -1533,15 +1533,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="73.5703125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="9.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">

--- a/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/Argo Upg/LocalizationDef.xlsx
+++ b/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/Argo Upg/LocalizationDef.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SteamLibrary\steamapps\common\BATTLETECH\BT Mod Files\ENOVA LOCALIZATION\Localization - копия\RogueTech\RU\Argo Upg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SteamLibrary\steamapps\common\BATTLETECH\Mods\Core\CustomLocalization\Localization\RogueTech\RU\Argo Upg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="606">
   <si>
     <t>argoUpgrade_drive1.Description.Details</t>
   </si>
@@ -30,280 +30,421 @@
     <t>"The &lt;i&gt;Argo&lt;/i&gt;'s drive was enough to get it off the surface of a low-gravity moon, but much of the supporting infrastructure was damaged in the escape, and running the drive at full power requires extensive repairs. Once the repairs are complete, the drive can generate 1.5 g of thrust."</t>
   </si>
   <si>
+    <t>"Мощности &lt;i&gt;«Арго»&lt;/i&gt; было достаточно, чтобы оторвать его с поверхности луны с низкой гравитацией, но в процессе значительная часть вспомогательной инфраструктуры была повреждена. Чтобы запустить реактор на полную мощность, потребуется капитальный ремонт. После этого ускорители смогут выдавать стабильные 1.5 G тяги."</t>
+  </si>
+  <si>
     <t>argoUpgrade_drive1.Description.Name</t>
   </si>
   <si>
     <t>"Drive Repairs"</t>
   </si>
   <si>
+    <t>"Ремонт реактора"</t>
+  </si>
+  <si>
     <t>argoUpgrade_drive2.Description.Details</t>
   </si>
   <si>
     <t>"The &lt;i&gt;Argo&lt;/i&gt; can, in a pinch, generate quite a bit more thrust than it first seemed. By repairing a number of drive subsystems meant to increase thrust efficiency, it’s possible to get the &lt;i&gt;Argo&lt;/i&gt; up to an uncomfortable 2 g of sustained thrust."</t>
   </si>
   <si>
+    <t>"При крайней нужде &lt;i&gt;«Арго»&lt;/i&gt; может выдавать значительно больше ускорения, чем нам казалось. Подремонтировав ряд подсистем реактора ради повышения его эффективности, можно довести &lt;i&gt;«Арго»&lt;/i&gt; до некомфортных 2 G постоянной тяги."</t>
+  </si>
+  <si>
     <t>argoUpgrade_drive2.Description.Name</t>
   </si>
   <si>
     <t>"Drive Upgrades"</t>
   </si>
   <si>
+    <t>"Улучшение реактора"</t>
+  </si>
+  <si>
     <t>argoUpgrade_drive3.Description.Details</t>
   </si>
   <si>
     <t>"The &lt;i&gt;Argo&lt;/i&gt;'s drive can be upgraded to allow for a severe High-G burn, but it's gonna be a strain on the System and Structure, and your budget."</t>
   </si>
   <si>
+    <t>"Реактор &lt;i&gt;«Арго»&lt;/i&gt; можно модернизировать, чтобы тот помог ускорителям выдавать тягу высокой перегрузки, но это будет напрягать систему корабля, его каркас, а также ваш бюджет."</t>
+  </si>
+  <si>
     <t>argoUpgrade_drive3.Description.Name</t>
   </si>
   <si>
     <t>" High-G Burn Drive Upgrade"</t>
   </si>
   <si>
+    <t>"Повышение предела тяги"</t>
+  </si>
+  <si>
     <t>argoUpgrade_DropSlot.Description.Details</t>
   </si>
   <si>
     <t>"So it turns out the docking cradles were salvaged for parts and scrap, but the mounting points are still intact. I can get my techs to work fabricating new 'Mech cradles, Commander, but it's gonna take a while to get everything rebuilt. I think there's enough pieces left behind to get one assembled quickly, though."</t>
   </si>
   <si>
+    <t>"Похоже, что подвесные опоры кто-то свинтил, но места крепления остались невредимы. Я могу попросить моих техов поработать над изготовлением новых подвесных опор для мехов, командир, но потребуется время, чтобы всё воссоздать заново. Хотя, думаю, одну опору мы сможем собрать по-быстрому, из того, что здесь осталось."</t>
+  </si>
+  <si>
     <t>argoUpgrade_DropSlot.Description.Name</t>
   </si>
   <si>
     <t>"Leopard: Drop Bay 1"</t>
   </si>
   <si>
+    <t>"«Леопард»: отсек 1"</t>
+  </si>
+  <si>
     <t>argoUpgrade_DropSlot1.Description.Details</t>
   </si>
   <si>
     <t>"The first cradle turned out alright, Boss. There's enough scrap left lying around we should be able to construct the bones of a gantry for the next, but we're also gonna need to buy several complex components to get the next cradle ready for use."</t>
   </si>
   <si>
+    <t>"Первая опора получилась добротной, босс. Вокруг осталось достаточно металлолома, чтобы мы смогли соорудить каркас для ещё одной, но нам точно понадобится закупить несколько сложных компонентов, прежде чем следующую подвесную опору можно будет использовать."</t>
+  </si>
+  <si>
     <t>argoUpgrade_DropSlot1.Description.Name</t>
   </si>
   <si>
     <t>"Leopard: Drop Bay 2"</t>
   </si>
   <si>
+    <t>"«Леопард»: отсек 2"</t>
+  </si>
+  <si>
     <t>argoUpgrade_DropSlot2.Description.Details</t>
   </si>
   <si>
     <t>"Half-done now, Boss. It's really starting to look like a proper dropship. I can get started on fabricating parts to assemble the final two cradles from scratch. Producing both sets of parts at the same time should save us a little time and money."</t>
   </si>
   <si>
+    <t>"Пол дела сделано, босс. Это действительно начинает походить на настоящий дропшип. Я могу приступить к изготовлению с нуля деталей для сборки последних двух подвесных опор. Хорошо, что они абсолютно одинаковы, сэкономит немного времени и денег."</t>
+  </si>
+  <si>
     <t>argoUpgrade_DropSlot2.Description.Name</t>
   </si>
   <si>
     <t>"Leopard: Drop Bay 3"</t>
   </si>
   <si>
+    <t>"«Леопард»: отсек 3"</t>
+  </si>
+  <si>
     <t>argoUpgrade_DropSlot3.Description.Details</t>
   </si>
   <si>
     <t>"There's more to dropping a lance of BattleMechs from orbit than strapping them to a wall, Commander. Several of the gyros and handling sensors around the ship are damaged or downright missing. If we try to insert the ship from orbit with all four 'Mech cradles occupied, using anything less than an absolutely perfectly balanced load could lead to a very real chance of losing the shuttle and all aboard. We'll need to replace and recalibrate those systems through some test drops before we can make full use of the new Leopard, Commander."</t>
   </si>
   <si>
+    <t>"Чтобы высаживать копье мехов с орбиты, надо немного больше, чем просто привязывать их к стене. Несколько гироскопов и датчиков управления по всему кораблю повреждены или банально отсутствуют. Если мы попытаемся спустить корабль с орбиты без абсолютно идеально сбалансированной развесовки нагрузки, есть очень даже реальный шанс, что мы потеряем и дропшип и всё, что есть у него на борту. Нам нужно будет заменить и откалибровать эти системы при помощи нескольких тестовых высадок, прежде чем мы сможем в полной мере использовать новый «Леопард»."</t>
+  </si>
+  <si>
     <t>argoUpgrade_DropSlot3.Description.Name</t>
   </si>
   <si>
     <t>"Leopard: Drop Bay 4"</t>
   </si>
   <si>
+    <t>"«Леопард»: отсек 4"</t>
+  </si>
+  <si>
     <t>argoUpgrade_JunkyardLeopard.Description.Details</t>
   </si>
   <si>
     <t>"We managed to find someone selling a junked Leopard, Commander. The seller says it 'ran when parked'. If we can get it fully operational again, we'd be able to drop some Heavy Metal!"</t>
   </si>
   <si>
+    <t>"Нам удалось найти человека, который продает старый «Леопард», командир. Торговец утверждает, что «он работал, когда его парковали». Если нам удастся вернуть его в рабочее состояние, то со временем мы сможем бросать в бой серьёзные силы."</t>
+  </si>
+  <si>
     <t>argoUpgrade_JunkyardLeopard.Description.Name</t>
   </si>
   <si>
     <t>"Junkyard Leopard"</t>
   </si>
   <si>
+    <t>"«Леопард» со свалки"</t>
+  </si>
+  <si>
     <t>argoUpgrade_LeopardStorage.Description.Details</t>
   </si>
   <si>
     <t>"Further Repairs on the Leopard's Mechbays allows more efficient storage of units and equipment."</t>
   </si>
   <si>
+    <t>"Дальнейший ремонт мехотсеков «Леопарда» позволит более эффективно хранить там юниты и оборудование."</t>
+  </si>
+  <si>
     <t>argoUpgrade_LeopardStorage.Description.Name</t>
   </si>
   <si>
     <t>"Leopard: Utilize Storage Areas"</t>
   </si>
   <si>
+    <t>"«Леопард»: использование зон хранилища"</t>
+  </si>
+  <si>
     <t>argoUpgrade_LeopardStorage1.Description.Details</t>
   </si>
   <si>
     <t>"Freed space on the Leopard allows to store munitions and replacement Parts easier."</t>
   </si>
   <si>
+    <t>"Высвободившееся пространство на «Леопарде» позволит проще хранить боеприпасы и запасные части."</t>
+  </si>
+  <si>
     <t>argoUpgrade_LeopardStorage1.Description.Name</t>
   </si>
   <si>
     <t>"Leopard: Munition Dump"</t>
   </si>
   <si>
+    <t>"«Леопард»: склад боеприпасов"</t>
+  </si>
+  <si>
     <t>argoUpgrade_mechBay_automation1.Description.Details</t>
   </si>
   <si>
     <t>"Many of the &lt;i&gt;Argo&lt;/i&gt;'s Mech Bay systems were only meant to be used with sophisticated Star League–era automation. Bringing that automation even partially back online is a substantial force multiplier to Yang's skills. &lt;b&gt;&lt;color=#F79232&gt;Enables second Repair bay to work at 100% efficiency.&lt;/color&gt;&lt;/b&gt;"</t>
   </si>
   <si>
+    <t>"Множество систем мехотсека &lt;i&gt;«Арго»&lt;/i&gt; предназначались для использования в совокупности со сложной автоматикой времен Звёздной лиги. Перезапуск хотя бы части этой автоматики - это мощная прибавка к нашим техническим возможностям. \n&lt;b&gt;&lt;color=#F79232&gt;Позволяет второму ремонтному отсеку работать со 100% эффективностью.&lt;/color&gt;&lt;/b&gt;"</t>
+  </si>
+  <si>
     <t>argoUpgrade_mechBay_automation1.Description.Name</t>
   </si>
   <si>
     <t>"Automation"</t>
   </si>
   <si>
+    <t>"Автоматизация"</t>
+  </si>
+  <si>
     <t>argoUpgrade_mechBay_automation2.Description.Details</t>
   </si>
   <si>
     <t>"Repairs to the Mech Bay have unearthed a much more extensive system of 'Mech maintenance automation than Yang previously suspected. Once it's back online, many common tasks will become trivial. &lt;b&gt;&lt;color=#F79232&gt;Enables third Repair bay to work at 100% efficiency.&lt;/color&gt;&lt;/b&gt;"</t>
   </si>
   <si>
+    <t>"В ходе ремонта мехотсека была обнаружена гораздо более масштабная система автоматического обслуживания мехов, чем Ян предполагал. Если она снова заработает, многие рутинные задачи станут просто тривиальными.&lt;b&gt;&lt;color=#F79232&gt;Позволяет третьему ремонтному отсеку работать со 100% эффективностью.&lt;/color&gt;&lt;/b&gt;"</t>
+  </si>
+  <si>
     <t>argoUpgrade_mechBay_automation2.Description.Name</t>
   </si>
   <si>
     <t>"Improved Automation"</t>
   </si>
   <si>
+    <t>"Улучшенная автоматизация"</t>
+  </si>
+  <si>
     <t>argoUpgrade_mechBay_machineShop.Description.Details</t>
   </si>
   <si>
     <t>"Maintaining 'Mechs in the Succession War era is complicated by the relative rarity of precision-manufactured parts. The &lt;i&gt;Argo&lt;/i&gt;'s machine shop, once repaired and brought online, can help address this lack."</t>
   </si>
   <si>
+    <t>"Обслуживание мехов в эпоху войн за Наследие осложняется относительной редкостью сложных в изготовлении деталей. Механический цех &lt;i&gt;«Арго»&lt;/i&gt;, как только будет отремонтирован и запущен, сможет помочь в устранении этого недостатка."</t>
+  </si>
+  <si>
     <t>argoUpgrade_mechBay_machineShop.Description.Name</t>
   </si>
   <si>
     <t>"Machine Shop"</t>
   </si>
   <si>
+    <t>"Механический цех"</t>
+  </si>
+  <si>
     <t>argoUpgrade_mechBay_refitHarness.Description.Details</t>
   </si>
   <si>
     <t>"'Mechs were not really meant to bear their own weight while being refitted with new equipment. The &lt;i&gt;Argo&lt;/i&gt;'s Mech Bay includes harnesses meant to hoist the 'Mech up for easier access while refitting."</t>
   </si>
   <si>
+    <t>"По-хорошему, мехи в процессе обслуживания надо избавлять от давления собственного веса. И в мехотсеке &lt;i&gt;«Арго»&lt;/i&gt; как раз есть подвесные системы, чтобы закреплять мех для упрощения работ."</t>
+  </si>
+  <si>
     <t>argoUpgrade_mechBay_refitHarness.Description.Name</t>
   </si>
   <si>
     <t>"Refit Harness"</t>
   </si>
   <si>
+    <t>"Подвесные системы"</t>
+  </si>
+  <si>
     <t>argoUpgrade_mechBay_scaffolding.Description.Details</t>
   </si>
   <si>
     <t>"The &lt;i&gt;Argo&lt;/i&gt;'s 'Mech cubicles used to have a complex system of movable walkways and scaffolds for accessing any part of a damaged 'Mech. Those walkways, once brought online, make the job of repairing 'Mechs much simpler."</t>
   </si>
   <si>
+    <t>"В отдельных отсеках для мехов сооружена сложная система из подвижных подмостков и лесов, позволяющая добраться до любой части поврежденного меха. Если мы сможем отремонтировать саму систему, ремонт мехов станет гораздо проще."</t>
+  </si>
+  <si>
     <t>argoUpgrade_mechBay_scaffolding.Description.Name</t>
   </si>
   <si>
     <t>"Repair Scaffolding"</t>
   </si>
   <si>
+    <t>"Ремонт подмостков"</t>
+  </si>
+  <si>
     <t>argoUpgrade_mechBay1.Description.Details</t>
   </si>
   <si>
     <t>"The &lt;i&gt;Argo&lt;/i&gt;'s Mech Bay is vast, spacious, and meant to be entirely managed by complex automation. Currently, 6 of the 18 total 'Mech cubicles are powered and in working order, and almost none of the automation."</t>
   </si>
   <si>
+    <t>"Мехотсек &lt;i&gt;«Арго»&lt;/i&gt; огромен, просторен и должен полностью управляться сложной автоматикой. В настоящий момент задействовано 6 из 18 платформ для мехов, а автоматика практически не функционирует."</t>
+  </si>
+  <si>
     <t>argoUpgrade_mechBay1.Description.Name</t>
   </si>
   <si>
     <t>"Mech Bay 1"</t>
   </si>
   <si>
+    <t>"Мехотсек 1"</t>
+  </si>
+  <si>
     <t>argoUpgrade_mechBay2.Description.Details</t>
   </si>
   <si>
     <t>"The repaired power conduits allow six more 'Mech cubicles to be powered up and made available. This also brings more of the Mech Bay's automated systems online, making Yang's job easier. \n\n &lt;b&gt;&lt;color=#F79232&gt;Enables second Repair bay, allows work on a second 'Mech's at 50% efficiency.&lt;/color&gt;&lt;/b&gt;"</t>
   </si>
   <si>
+    <t>"Отремонтированная проводка позволяет запустить еще 6 дополнительных платформ для мехов, а также ещё несколько автоматических систем, что серьезно разгрузит Яна.\r\n\r\n&lt;b&gt;&lt;color=#F79232&gt;Запускает второй ремонтный отсек, позволяет работать со вторым мехом с 50% эффективностью.&lt;/color&gt;&lt;/b&gt;"</t>
+  </si>
+  <si>
     <t>argoUpgrade_mechBay2.Description.Name</t>
   </si>
   <si>
     <t>"Mech Bay 2"</t>
   </si>
   <si>
+    <t>"Мехотсек 2"</t>
+  </si>
+  <si>
     <t>argoUpgrade_mechBay3.Description.Details</t>
   </si>
   <si>
     <t>"With the &lt;i&gt;Argo&lt;/i&gt;'s power systems fully online, and enough reinforcement to keep the active Bays from damaging the ship's spine, the final 6 'Mech cubicles can be powered up and put to work. \n\n &lt;b&gt;&lt;color=#F79232&gt;Enables third Repair bay, allows work on a third 'Mech at 33% efficiency.&lt;/color&gt;&lt;/b&gt;."</t>
   </si>
   <si>
+    <t>"После вывода систем энергонабжения на полную мощность и усиления «хребта» корабля, достаточного для безопасного функционирования активных мехотсеков, стал возможен ввод в эксплуатацию оставшихся 6 платформ для мехов.\r\n\r\n&lt;b&gt;&lt;color=#F79232&gt;Запускает третий ремонтный отсек, позволяя работать с третьим мехом с эффективностью 33%&lt;/color&gt;&lt;/b&gt;."</t>
+  </si>
+  <si>
     <t>argoUpgrade_mechBay3.Description.Name</t>
   </si>
   <si>
     <t>"Mech Bay 3"</t>
   </si>
   <si>
+    <t>"Мехотсек 3"</t>
+  </si>
+  <si>
     <t>argoUpgrade_medBay_hospital.Description.Details</t>
   </si>
   <si>
     <t>"The original &lt;i&gt;Argo&lt;/i&gt; specifications had room and infrastructure for actual hospital facilities, rather than just simple Med Bays. With a full hospital's worth of equipment and connections to the ship's library and databases, the MedTechs are able to perform near-miracles of healing. All Med Bays will be converted into Hospital Bays."</t>
   </si>
   <si>
+    <t>"Изначальная конструкция &lt;i&gt;«Арго»&lt;/i&gt; предусматривала место и инфраструктуру для полноценного госпиталя, а не просто отдельные лазареты. Такой уровень оборудования и связь с библиотекой и базами данных корабля позволили бы нашим медтехникам творить настоящие чудеса. Все лазареты будут переделаны в госпитали."</t>
+  </si>
+  <si>
     <t>argoUpgrade_medBay_hospital.Description.Name</t>
   </si>
   <si>
     <t>"Hospital Bay"</t>
   </si>
   <si>
+    <t>"Госпиталь"</t>
+  </si>
+  <si>
     <t>argoUpgrade_medBay1.Description.Details</t>
   </si>
   <si>
     <t>"This field hospital has a small number of beds, surgical equipment, and medical supplies. The cost includes the salary of a skilled MedTech to treat your injured MechWarriors."</t>
   </si>
   <si>
+    <t>"Этот скромный полевой госпиталь вмещает несколько коек, кое-какое хирургическое оборудование и медикаменты. Услуги опытного медтехника включены в стоимость."</t>
+  </si>
+  <si>
     <t>argoUpgrade_medBay1.Description.Name</t>
   </si>
   <si>
     <t>"Med Bay 1"</t>
   </si>
   <si>
+    <t>"Медотсек 1"</t>
+  </si>
+  <si>
     <t>argoUpgrade_medBay2.Description.Details</t>
   </si>
   <si>
     <t>"This expanded field hospital allows for two MedTechs to work side by side, meaning more capacity to treat patients. The cost includes the salary of an additional skilled MedTech to treat your injured MechWarriors."</t>
   </si>
   <si>
+    <t>"Расширенный полевой госпиталь позволяет двум медтехникам работать бок о бок, что даёт больше возможностей для лечения пациентов. Услуги медтехников включены в стоимость."</t>
+  </si>
+  <si>
     <t>argoUpgrade_medBay2.Description.Name</t>
   </si>
   <si>
     <t>"Med Bay 2"</t>
   </si>
   <si>
+    <t>"Медотсек 2"</t>
+  </si>
+  <si>
     <t>argoUpgrade_medBay3.Description.Details</t>
   </si>
   <si>
     <t>"The fully upgraded field hospital has enough bed space, diagnostic equipment, and surgeries to allow fully half the company to be treated at once. The cost includes the salary of an additional skilled MedTech to treat your injured MechWarriors."</t>
   </si>
   <si>
+    <t>"В полностью улучшенном полевом госпитале достаточно коек, диагностического оборудования и операционных, чтобы единовременно заниматься шестью пилотами. Услуги медтехников включены в стоимость."</t>
+  </si>
+  <si>
     <t>argoUpgrade_medBay3.Description.Name</t>
   </si>
   <si>
     <t>"Med Bay 3"</t>
   </si>
   <si>
+    <t>"Медотсек 3"</t>
+  </si>
+  <si>
     <t>argoUpgrade_pod1.Description.Details</t>
   </si>
   <si>
     <t>"Each of the three pods is meant to be a mostly self-sufficient habitation space. Alpha Pod, as its interior labeling designates it, is the only one of the three to have retained its pressure seal, making its interior (mostly) habitable."</t>
   </si>
   <si>
+    <t>"Каждый из трех отсеков задумывался как самодостаточное жилое помещение. Отсек «Альфа», как его обозначает внутренняя маркировка, единственный из всех трёх сохранил герметичность, что делает его (по большей части) пригодным для жизни."</t>
+  </si>
+  <si>
     <t>argoUpgrade_pod1.Description.Name</t>
   </si>
   <si>
     <t>"Alpha Pod"</t>
   </si>
   <si>
+    <t>"Отсек «Альфа»"</t>
+  </si>
+  <si>
     <t>argoUpgrade_pod2.Description.Details</t>
   </si>
   <si>
-    <t>"Beta Pod, once repaired, includes what was clearly once a hydroponics facility near the spine of the &lt;i&gt;Argo&lt;/i&gt;, and a low-g gymnasium just above that. Neither survived exposure to hard vacuum and stellar radiation, but they're tantalizing indications of the luxuries the &lt;i&gt;Argo&lt;/i&gt; once included. \n\n &lt;b&gt;&lt;color=#F79232&gt;+10 Days before Affinities Decay. &lt;/color&gt;&lt;/b&gt;"</t>
+    <t>"&lt;b&gt;&lt;color=#FF0000&gt;MUST FIRST PURCHASE UPGRADE APPOINTMENT FROM MANUFACTURING PLANET and ACCEPT WORK ORDER QUOTE.&lt;/color&gt;&lt;/b&gt; \n\nBeta Pod, once repaired, includes what was clearly once a hydroponics facility near the spine of the &lt;i&gt;Argo&lt;/i&gt;, and a low-g gymnasium just above that. Neither survived exposure to hard vacuum and stellar radiation, but they're tantalizing indications of the luxuries the &lt;i&gt;Argo&lt;/i&gt; once included.\n\n &lt;b&gt;&lt;color=#F79232&gt;+10 Days before Affinities Decay. &lt;/color&gt;&lt;/b&gt;"</t>
+  </si>
+  <si>
+    <t>"&lt;b&gt;&lt;color=#FF0000&gt;СПЕРВА НЕОБХОДИМО ПРИОБРЕСТИ ЗАЯВКУ НА МОДЕРНИЗЦИЮ НА ПРОМЫШЛЕННОЙ ПЛАНЕТЕ И СОГЛАСИТЬСЯ С УСЛОВИЯМИ ВЫПОЛНЕНИЯ РАБОТ.&lt;/color&gt;&lt;/b&gt; \n\nВ отсеке «Бета» находится то, что похоже когда-то было гидропонным садом и спортивным залом с низкой гравитацией прямо над ним. Ни то ни другое не пережило воздействия открытого космоса и космической радиации, но, тем не менее они являются манящими атрибутами роскошной жизни, которая когда-то была на &lt;i&gt;«Арго»&lt;/i&gt;.\n\n &lt;b&gt;&lt;color=#F79232&gt;+10 дней до начала снижения Affinity. &lt;/color&gt;&lt;/b&gt;"</t>
   </si>
   <si>
     <t>argoUpgrade_pod2.Description.Name</t>
@@ -312,10 +453,16 @@
     <t>"Beta Pod"</t>
   </si>
   <si>
+    <t>"Отсек «Бета»"</t>
+  </si>
+  <si>
     <t>argoUpgrade_pod3.Description.Details</t>
   </si>
   <si>
-    <t>"Gamma Pod is very much a blank slate, as only its internal support structures survived intact. Rebuilding the habitation decks of the pod still leaves plenty of space for other facilities. \n\n &lt;b&gt;&lt;color=#F79232&gt;+10 Days before Affinities Decay. &lt;/color&gt;&lt;/b&gt;"</t>
+    <t>"&lt;b&gt;&lt;color=#FF0000&gt;MUST FIRST PURCHASE UPGRADE APPOINTMENT FROM MANUFACTURING PLANET and ACCEPT WORK ORDER QUOTE.&lt;/color&gt;&lt;/b&gt; \n\nGamma Pod is very much a blank slate, as only its internal support structures survived intact. Rebuilding the habitation decks of the pod still leaves plenty of space for other facilities. \n\n &lt;b&gt;&lt;color=#F79232&gt;+10 Days before Affinities Decay. &lt;/color&gt;&lt;/b&gt;"</t>
+  </si>
+  <si>
+    <t>"&lt;b&gt;&lt;color=#FF0000&gt;СПЕРВА НЕОБХОДИМО ПРИОБРЕСТИ ЗАЯВКУ НА МОДЕРНИЗЦИЮ НА ПРОМЫШЛЕННОЙ ПЛАНЕТЕ И СОГЛАСИТЬСЯ С УСЛОВИЯМИ ВЫПОЛНЕНИЯ РАБОТ.&lt;/color&gt;&lt;/b&gt; \n\nОтсек «Гамма» - по большому счёту - чистый лист, т.к. в нём уцелели только его внутренние несущие конструкции. После восстановления жилых палуб отсека останется ещё много свободного места и для других строений. \n\n &lt;b&gt;&lt;color=#F79232&gt;+10 дней до начала снижения Affinity. &lt;/color&gt;&lt;/b&gt;"</t>
   </si>
   <si>
     <t>argoUpgrade_pod3.Description.Name</t>
@@ -324,420 +471,630 @@
     <t>"Gamma Pod"</t>
   </si>
   <si>
+    <t>"Отсек «Гамма»"</t>
+  </si>
+  <si>
     <t>argoUpgrade_power1.Description.Details</t>
   </si>
   <si>
     <t>"The &lt;i&gt;Argo&lt;/i&gt;'s power system is a wreck, and getting a minimal level of power to the ship's systems without constant tripped breakers and brownouts is a minor miracle."</t>
   </si>
   <si>
+    <t>"Система энергоснабжения &lt;i&gt;«Арго»&lt;/i&gt; в ужасном состоянии. Просто чудо, что удалось запитать хоть какие-то системы так, что ежесекундно не выбивает предохранители."</t>
+  </si>
+  <si>
     <t>argoUpgrade_power1.Description.Name</t>
   </si>
   <si>
     <t>"Repaired Power Conduits"</t>
   </si>
   <si>
+    <t>"Отремонтированная проводка"</t>
+  </si>
+  <si>
     <t>argoUpgrade_power2.Description.Details</t>
   </si>
   <si>
     <t>"Running power through patched-together conduits isn’t reliable or safe. Upgrading all the conduits throughout the &lt;i&gt;Argo&lt;/i&gt; is a monumental task, but necessary for anything that places a significant load on the system."</t>
   </si>
   <si>
+    <t>"Залатанная на скорую руку проводка ненадёжна и, честно говоря, небезопасна. Заменить проводку по всему &lt;i&gt;«Арго»&lt;/i&gt; - титанический труд, но без этого мы не сможем подключить к системе ничего мало-мальски энергозатратного."</t>
+  </si>
+  <si>
     <t>argoUpgrade_power2.Description.Name</t>
   </si>
   <si>
     <t>"Improved Power Conduits"</t>
   </si>
   <si>
+    <t>"Улучшенная проводка"</t>
+  </si>
+  <si>
     <t>argoUpgrade_power3.Description.Details</t>
   </si>
   <si>
     <t>"The &lt;i&gt;Argo&lt;/i&gt; was intended to operate at a much higher total power throughput than the jury-rigged conduits can manage. With this upgrade we can bring some weapons online that should help us stave of some attackers."</t>
   </si>
   <si>
+    <t>"&lt;i&gt;«Арго»&lt;/i&gt; изначально был способен оперировать куда большими мощностями, нежели те, что могут выдержать аварийно восстановленные кабели. Усиление проводки даст возможность запустить несколько орудий, которые помогут нам отбиваться от налётов пиратов."</t>
+  </si>
+  <si>
     <t>argoUpgrade_power3.Description.Name</t>
   </si>
   <si>
     <t>"High-Capacity Power Conduits"</t>
   </si>
   <si>
+    <t>"Проводка повышенной мощности"</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_arcade.Description.Details</t>
   </si>
   <si>
     <t>"That empty storage space in Gamma Pod, with some additional power conduits, could easily support a handful of 2-D and 3-D game systems. It's no replacement for the training units, but it's more fun."</t>
   </si>
   <si>
+    <t>"Если прокинуть дополнительное питание в пустующее складское пространство в отсеке «Гамма», то туда легко можно поставить несколько 2-D и 3-D игровых автоматов. Тренировок это не заменит, зато будет весело."</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_arcade.Description.Name</t>
   </si>
   <si>
     <t>"Arcade"</t>
   </si>
   <si>
+    <t>"Зал игровых автоматов"</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_arcade2.Description.Details</t>
   </si>
   <si>
     <t>"With some more refurbishment the Arcade can be easily upgraded to give more opportunities to relax and unwind."</t>
   </si>
   <si>
+    <t>"После небольшого переоборудования зал игровых автоматов сможет предоставить больше возможностей для того, чтобы отдохнуть и развеяться."</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_arcade2.Description.Name</t>
   </si>
   <si>
     <t>"Upgraded Arcade"</t>
   </si>
   <si>
+    <t>"Улучшенный зал игровых автоматов"</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_gym.Description.Details</t>
   </si>
   <si>
     <t>"MechWarriors have to maintain their physical condition, and doing so in their own quarters is claustrophobic and distracting. Luckily, the &lt;i&gt;Argo&lt;/i&gt; has a full gymnasium, needing only repair and power."</t>
   </si>
   <si>
+    <t>"Мехвоинам нужно поддерживать свою физическую форму, а заниматься спортом в собственной каюте неудобно и непрактично. К счастью на борту &lt;i&gt;«Арго»&lt;/i&gt; есть целый спортзал... нужны лишь ремонт и питание."</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_gym.Description.Name</t>
   </si>
   <si>
     <t>"Gymnasium"</t>
   </si>
   <si>
+    <t>"Спортзал"</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_gym2.Description.Details</t>
   </si>
   <si>
     <t>"Now that we got the &lt;i&gt;Argo&lt;/i&gt; gymnasium working, we can add some better Equipment and Showers."</t>
   </si>
   <si>
+    <t>"Теперь, когда у нас на &lt;i&gt;Арго&lt;/i&gt; заработал спортзал, мы можем найти снаряжение получше и установить душевые кабины."</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_gym2.Description.Name</t>
   </si>
   <si>
     <t>"Upgraded Gymnasium"</t>
   </si>
   <si>
+    <t>"Усовершенствованный спортзал"</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_hydroponics.Description.Details</t>
   </si>
   <si>
     <t>"Near the spine, the spin of the pods isn't sufficient to generate any real apparent gravity. This makes those areas bad for living in, but excellent for growing hydroponic crops. They freshen the air and add variety to mealtimes."</t>
   </si>
   <si>
+    <t>"Ближе к центру корабля его вращения недостаточно, чтобы поддерживать сколь-нибудь внятную искуственную гравитацию. В результате эта облать не очень годится для обитания, зато прекрасна для выращивания гидропонных культур! Растения улучшат воздух и добавят разнообразия в меню."</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_hydroponics.Description.Name</t>
   </si>
   <si>
     <t>"Hydroponic Garden"</t>
   </si>
   <si>
+    <t>"Гидропонный сад"</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_hydroponics2.Description.Details</t>
   </si>
   <si>
     <t>"More hydroponic crops means not only even fresher air, along with an greater variety to our mealtimes, but it would also reduce our monthly costs even further!"</t>
   </si>
   <si>
+    <t>"Большее количество гидропонных растений обеспечивает не только более чистый воздух, но и большее разнообразие продуктов питания, что также влияет на сокращение наших ежемесячных расходов!"</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_hydroponics2.Description.Name</t>
   </si>
   <si>
     <t>"Enhanced Hydroponic Gardens"</t>
   </si>
   <si>
+    <t>"Улучшенный гидропонный сад"</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_library1.Description.Details</t>
   </si>
   <si>
     <t>"A library is more than just a database and a stack of e-readers. It requires a dedicated space for quiet study and learning, as far from the raucous lounge as possible."</t>
   </si>
   <si>
+    <t>"Библиотека - не просто база данных и стопка электронных книг. Она требует отдельного пространства для чтения и обучения в тишине, и настолько далеко от шумной гостинной, насколько это возможно."</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_library1.Description.Name</t>
   </si>
   <si>
     <t>"Library"</t>
   </si>
   <si>
+    <t>"Библиотека"</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_library2.Description.Details</t>
   </si>
   <si>
     <t>"Active subscriptions to a variety of e-book services, periodicals, and tri-vid channels make the library even more appealing to everyone."</t>
   </si>
   <si>
+    <t>"Активная подписка на различные сервисы электронных книг, периодические издания и развлекательные головид-каналы сделает библиотеку ещё более привлекательной для всех."</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_library2.Description.Name</t>
   </si>
   <si>
     <t>"Improved Library"</t>
   </si>
   <si>
+    <t>"Улучшенная библиотека"</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_lounge1.Description.Details</t>
   </si>
   <si>
     <t>"A shared social space outside the barracks allows the MechWarriors to bond as a team."</t>
   </si>
   <si>
+    <t>"Общее пространство для социализации за пределами казарм позволит сплотить мехвоинов как команду."</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_lounge1.Description.Name</t>
   </si>
   <si>
     <t>"Lounge"</t>
   </si>
   <si>
+    <t>"Гостинная"</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_lounge2.Description.Details</t>
   </si>
   <si>
     <t>"A few couches and a table don't make for much of a social space. Drinks, 2-D video screens, and a sound system, on the other hand…"</t>
   </si>
   <si>
+    <t>"Пара диванов и стол не особо добавляют уюта. А вот выпивка, 2-D экраны и звуковая система..."</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_lounge2.Description.Name</t>
   </si>
   <si>
     <t>"Upgraded Lounge"</t>
   </si>
   <si>
+    <t>"Улучшенная гостинная"</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_lounge3.Description.Details</t>
   </si>
   <si>
     <t>"A nice Bar and choice selection of drinks for the Lounge."</t>
   </si>
   <si>
+    <t>"Отличный бар и ассортимент напитков для гостинной."</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_lounge3.Description.Name</t>
   </si>
   <si>
     <t>"Bar"</t>
   </si>
   <si>
+    <t>"Бар"</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_pool.Description.Details</t>
   </si>
   <si>
     <t>"When you have a large space with nothing critical in it, where the gravity is too low for living quarters, the obvious choice is to fill it with chlorinated water."</t>
   </si>
   <si>
+    <t>"Если у вас осталось много ничем не занятого места, гравитация в котором слишком низкая, чтобы поставить койки, остаётся единственный выбор: наполнить его хлорированной водой."</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_pool.Description.Name</t>
   </si>
   <si>
     <t>"Low-G Pool"</t>
   </si>
   <si>
+    <t>"Бассейн с низкой гравитацией"</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_pool2.Description.Details</t>
   </si>
   <si>
     <t>"Upgraded Low-G Pool with better opportunities for swimming, training and leisure activities."</t>
   </si>
   <si>
+    <t>"Усовершенствованный бассейн с низкой гравитацией даёт больше возможностей для плавания, тренировок и отдыха."</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_pool2.Description.Name</t>
   </si>
   <si>
     <t>"Upgraded Low-G Pool"</t>
   </si>
   <si>
+    <t>"Улучшенный бассейн с низкой гравитацией"</t>
+  </si>
+  <si>
     <t>argoUpgrade_storage.Description.Details</t>
   </si>
   <si>
     <t>"The &lt;i&gt;Argo&lt;/i&gt;'s internal storage is just enough for day-to-day survival, but we'll need to develop an inventory system optimized for the  &lt;i&gt;Argo&lt;/i&gt; and not just a standard DropShip. This ship's layout and functions are so different from standard that a new unified inventory system needs to be developed from scratch."</t>
   </si>
   <si>
+    <t>"Внутреннего хранилища &lt;i&gt;«Арго»&lt;/i&gt; вполне достаточно для повседневной жизни, но нам нужно разработать систему инвентаризации, оптимизированную именно под &lt;i&gt;«Арго»&lt;/i&gt;, а не просто под стандартный дропшип. Компоновка и функции этого корабля настолько отличаются от стандартных, что новую унифицированную систему инвентаризации нужно разрабатывать с нуля."</t>
+  </si>
+  <si>
     <t>argoUpgrade_storage.Description.Name</t>
   </si>
   <si>
     <t>"Storage Space"</t>
   </si>
   <si>
+    <t>"Склад"</t>
+  </si>
+  <si>
     <t>argoUpgrade_storage2.Description.Details</t>
   </si>
   <si>
     <t>"An optimized inventory system for the &lt;i&gt;Argo&lt;/i&gt; is an excellent start, but we can cut storage costs further. If you're willing to front the cost for a few, rugged WorkMechs, we'd save a ton of labour and time managing our storage. This will translate into cheaper storage costs in the long run."</t>
   </si>
   <si>
+    <t>"Оптимизированная система инвентаризации для «Арго» - это отличное начало, но мы можем еще больше сократить расходы на хранение. Если вы готовы взять на себя оплату нескольких прочных рабочих мехов, мы сэкономим кучу человеко-часов на управление складом. В конечном итоге это приведет к снижению затрат на хранение."</t>
+  </si>
+  <si>
     <t>argoUpgrade_storage2.Description.Name</t>
   </si>
   <si>
     <t>"Mechanized Storage Space"</t>
   </si>
   <si>
+    <t>"Механизированное складское помещение"</t>
+  </si>
+  <si>
     <t>argoUpgrade_storage3.Description.Details</t>
   </si>
   <si>
     <t>"Automating the &lt;i&gt;Argo&lt;/i&gt;'s internal storage is the future. One last upgrade to the storage cells would let us move to an automated drone inventory system with a few pressurized WorkMechs for special work. Depressurizing some of our inventory and making robots do the work will save us a lot of upkeep by letting us assign the labour and resources elsewhere"</t>
   </si>
   <si>
+    <t>"За автоматизацией внутреннего хранилища «Арго» будущее. Ещё одно, последнее улучшение ячеек хранения позволит нам перейти на инвентаризационную систему, использующую автоматические дроны в купе с парой герметичных рабочих мехов для особых работ. Разгерметизация некоторых отсеков хранилища и использование там роботов позволит сэкономить много ресурсов, которые мы сможем перераспределить куда-нибудь ещё."</t>
+  </si>
+  <si>
     <t>argoUpgrade_storage3.Description.Name</t>
   </si>
   <si>
     <t>"Automated Storage Space"</t>
   </si>
   <si>
+    <t>"Автоматизация склада"</t>
+  </si>
+  <si>
     <t>argoUpgrade_trainingModule1.Description.Details</t>
   </si>
   <si>
     <t>"This set of networked Battle Pods allow MechWarriors to compete against one another in simulated 'Mech battles, generating experience for participating MechWarriors.  \n\n &lt;b&gt;&lt;color=#F79232&gt;Each MechWarrior with less than 200,000 total experience will gain 30 experience points per day. &lt;/color&gt;&lt;/b&gt; \n\n &lt;b&gt;&lt;color=#F79232&gt;Affinity decays to minimum 5 points&lt;/color&gt;&lt;/b&gt;"</t>
   </si>
   <si>
+    <t>"Этот набор соединённых локальной сетью боевых модулей позволит мехвоинам получить дополнительный опыт, проводя симуляции сражений друг с другом на мехах.\r\n\r\n&lt;b&gt;&lt;color=#F79232&gt;Каждый мехвоин с общим количеством опыта менее 200 000 будет получать по 30 очков опыта в день. &lt;/color&gt;&lt;/b&gt; \r\n\r\n&lt;b&gt;&lt;color=#F79232&gt;Affinity не опустится ниже 5 единиц.&lt;/color&gt;&lt;/b&gt;"</t>
+  </si>
+  <si>
     <t>argoUpgrade_trainingModule1.Description.Name</t>
   </si>
   <si>
     <t>"Training Module 1"</t>
   </si>
   <si>
+    <t>"Обучающий модуль 1"</t>
+  </si>
+  <si>
     <t>argoUpgrade_trainingModule2.Description.Details</t>
   </si>
   <si>
     <t>"Adding more Battle Pods allows for full-lance training simulations, as well as raucous ship-wide tournaments. This increases the amount of experience gained by MechWarriors aboard the ship.  \n\n &lt;b&gt;&lt;color=#F79232&gt;Each MechWarrior with less than 500,000 total experience will gain 50 experience points per day. &lt;/color&gt;&lt;/b&gt; \n\n &lt;b&gt;&lt;color=#F79232&gt;Affinity decays to minimum 10 points &lt;/color&gt;&lt;/b&gt;"</t>
   </si>
   <si>
+    <t>"Увеличение количества боевых капсул позволит проводить как полноценные тренировочные симуляции целым копьём, так и всеми любимые внутрикорабельные турниры. Это сильно повысит опыт, приобретаемый мехвоинами на борту корабля. \r\n\r\n &lt;b&gt;&lt;color=#F79232&gt; Каждый мехвоин с общим количеством опыта менее 500 000 будет получать по 50 очков опыта в день. &lt;/color&gt;&lt;/b&gt; \r\n\r\n &lt;b&gt;&lt;color=#F79232&gt;Affinity не опустится ниже 10 единиц.&lt;/color&gt;&lt;/b&gt;"</t>
+  </si>
+  <si>
     <t>argoUpgrade_trainingModule2.Description.Name</t>
   </si>
   <si>
     <t>"Training Module 2"</t>
   </si>
   <si>
+    <t>"Обучающий модуль 2"</t>
+  </si>
+  <si>
     <t>argoUpgrade_trainingModule3.Description.Details</t>
   </si>
   <si>
     <t>"With a training space completely packed with Battle Pods, MechWarriors can engage in lance-versus-lance competition, and that inevitably means teams, logos, and pennants. Large-scale competition means even more experience for participating MechWarriors.  \n\n &lt;b&gt;&lt;color=#F79232&gt;Each MechWarrior with less than 800,000 total experience will gain 80 experience points per day.&lt;/color&gt;&lt;/b&gt; \n\n &lt;b&gt;&lt;color=#F79232&gt;Affinity decays to minimum 40 points &lt;/color&gt;&lt;/b&gt;"</t>
   </si>
   <si>
+    <t>"С тренировочным комплексом, полностью укомплектованным боевыми модулями, мехвоины смогут сражаться «копье на копье», что неминуемо приведет к возникновению команд, логотипов и вымпелов. Широкомасшабная конкуренция даст еще больше опыта участвующим мехвоинам.\r\n\r\n&lt;b&gt;&lt;color=#F79232&gt;Каждый мехвоин с общим количеством опыта менее 800,000 будет получать по 80 очков опыта в день.&lt;/color&gt;&lt;/b&gt; \r\n\r\n&lt;b&gt;&lt;color=#F79232&gt;Affinity не опустится ниже 40 единиц.&lt;/color&gt;&lt;/b&gt;"</t>
+  </si>
+  <si>
     <t>argoUpgrade_trainingModule3.Description.Name</t>
   </si>
   <si>
     <t>"Training Module 3"</t>
   </si>
   <si>
+    <t>"Обучающий модуль 3"</t>
+  </si>
+  <si>
     <t>argoUpgrade_VehicleSlot.Description.Details</t>
   </si>
   <si>
     <t>"The Command and Control systems were never really intended to support a Light Company's worth of 'Mechs, Commander. If we want to maintain communications with our pilots, we'll need to upgrade our communication networks to deal with the additional bandwidth."</t>
   </si>
   <si>
+    <t>"Системы командования и управления никогда не предназначались для поддержки легкой роты мехов, командир. Если мы хотим поддерживать связь с нашими пилотами, нам придется модернизировать наши коммуникационные сети, чтобы повысить пропускную способность."</t>
+  </si>
+  <si>
     <t>argoUpgrade_VehicleSlot.Description.Name</t>
   </si>
   <si>
     <t>"Leopard: Upgraded Communication Networks"</t>
   </si>
   <si>
+    <t>"«Леопард»: улучшенные системы связи"</t>
+  </si>
+  <si>
     <t>argoUpgrade_VehicleSlot1.Description.Details</t>
   </si>
   <si>
     <t>"The upgrades continue, Commander. Interfacing this Star League technology with our own Command &amp; Control systems is proving challenging, but there's no problem more money and time can't fix, right?"</t>
   </si>
   <si>
+    <t>"Модернизация продолжается, командир. Наладить взаимодействие между технологией Звёздной лиги и нашей системой управления и контроля будет сложной задачей, но нет таких проблем, которые бы не смогли решить время и деньги, верно?"</t>
+  </si>
+  <si>
     <t>argoUpgrade_VehicleSlot1.Description.Name</t>
   </si>
   <si>
     <t>"Leopard: Command and Control System Integrations"</t>
   </si>
   <si>
+    <t>"«Леопард»: встраивание систем управления и контроля"</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimit.Description.Details</t>
   </si>
   <si>
     <t>"The shuttle was allowed to go to rust sitting in the junkyard, Commander. Most parts of the Leopard's basic structure consist of little more than rust and hope. My 'techs can get to work repairing the worst of the damage, but I warn you now, to complete all of the work will be a long process."</t>
   </si>
   <si>
+    <t>"Этот шаттл бросили ржаветь на свалке, командир. Большая часть каркаса этого «Леопарда» держится на ржавчине и честном слове. Мои техи могут приступить к починке самых проблемных участков, но должен предупредить, что до полного ремонта ещё очень далеко."</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimit.Description.Name</t>
   </si>
   <si>
     <t>"Leopard: Critical Repairs"</t>
   </si>
   <si>
+    <t>"«Леопард»: ремонт наиболее повреждённых частей"</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimit1.Description.Details</t>
   </si>
   <si>
     <t>"The good news is that the 'Mechs probably won't fall out of their cradles when the Leopard launches, so now we can get started on making sure they won't fall through the floor."</t>
   </si>
   <si>
+    <t>"Хорошая новость заключается в том, что мехи теперь скорее всего не сорвутся со своих подвесных опор при запуске «Леопарда», так что теперь мы можем позаботиться о том, чтобы они не провалились сквозь пол."</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimit1.Description.Name</t>
   </si>
   <si>
     <t>"Leopard: Floor Reinforcements"</t>
   </si>
   <si>
+    <t>"«Леопард»: ремонт напольного покрытия"</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimit2.Description.Details</t>
   </si>
   <si>
     <t>"The interior of the ship is now more or less serviceable, but the underlying structure still needs a lot of work."</t>
   </si>
   <si>
+    <t>"Внутренняя часть корабля теперь более или менее исправна, но над каркасом ещё работать и работать."</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimit2.Description.Name</t>
   </si>
   <si>
     <t>"Leopard: Basic Structural Repairs"</t>
   </si>
   <si>
+    <t>"«Леопард»: базовый ремонт каркаса"</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimit3.Description.Details</t>
   </si>
   <si>
     <t>"Turns out the engine mounts are almost completely rusted away Commander. We're gonna need to rebuild them before we can start fixing the engines, otherwise they'll rip themselves out under too much stress."</t>
   </si>
   <si>
+    <t>"Выяснилось, что крепления двигателей насквозь проржавели, командир. Нам нужно полностью заменить их прежде, чем приступать непосредственно к ремонту двигателей, иначе они точно оторвутся из-за нагрузки."</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimit3.Description.Name</t>
   </si>
   <si>
     <t>"Leopard: Engine Mounts Replacement"</t>
   </si>
   <si>
+    <t>"«Леопард»: замена креплений двигателя"</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimit4.Description.Details</t>
   </si>
   <si>
     <t>"The Leopard has lost a lot of engine power over the years rusting away. As it stands, getting down to the planet won't be a problem but it'd be a one way trip with the engines in their current state. I'll help Yang get started on repairing the worst of the damage."</t>
   </si>
   <si>
+    <t>"«Леопард» потерял львиную долю мощности своих двигателей, ржавея годами. В текущем состоянии спуститься на планету не составит труда, но из-за состояния двигателей, это будет билет в один конец. Я помогу Яну приступить к устранению самых серьезных повреждений."</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimit4.Description.Name</t>
   </si>
   <si>
     <t>"Leopard: Engine Overhaul"</t>
   </si>
   <si>
+    <t>"«Леопард»: капитальный ремонт двигателей"</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimit5.Description.Details</t>
   </si>
   <si>
     <t>"The engine work continues, Commander. We've almost got those engines back up to their rated output. A little more tweaking should do it."</t>
   </si>
   <si>
+    <t>"Работа над двигателями продолжается, командир. Мы практически восстановили их до номинальной мощности. Небольшая доводка и дело сделано."</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimit5.Description.Name</t>
   </si>
   <si>
     <t>"Leopard: Improved Engine Tuning"</t>
   </si>
   <si>
+    <t>"«Леопард»: тюнинг двигателя"</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimit6.Description.Details</t>
   </si>
   <si>
     <t>"Now that the engines and structure are back up to snuff, the next step is to recalibrate the control systems to correctly handle the balance and performance changes that our repairs have caused. We'll need to do a series of orbital drops to accurately gauge the handling characteristics and then punch them into the onboard flight systems."</t>
   </si>
   <si>
+    <t>"Теперь, когда двигатели и корпус корабля восстановлены, следующим шагом будет откалибровать системы управления, чтобы они учитывали изменения в балансе и производительности после нашего ремонта. Нам нужно совершить серию орбитальных высадок для точного измерения характеристик управляемости, а затем вбить их в бортовые системы управления полетом."</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimit6.Description.Name</t>
   </si>
   <si>
     <t>"Leopard: Recalibrate Control Systems"</t>
   </si>
   <si>
+    <t>"«Леопард»: откалиброванные системы управления"</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimit7.Description.Details</t>
   </si>
   <si>
     <t>"The good news is we're almost at the finish line. Frankly, I never thought we'd get this far, Boss. I've been putting this off so far because of the necessary time and money, but the spine of the ship was bent either during it's past service or while it was rotting away in the junkyard. We're going to have to completely tear down the ship to expose the structural skeleton to complete the work, but after this it will be as good as new!"</t>
   </si>
   <si>
+    <t>"Хорошая новость - мы почти на финишной прямой! Честно говоря, я никогда не думал, что мы продвинемся так далеко, босс. Я откладывал этот разговор до этого момента из-за хронического недостатка времени и денег, но хребет корабля погнут. Он погнулся либо во время со своей предыдущей службы, либо когда гнил на свалке. Нам придется полностью разобрать корабль до основания, чтобы починить его, зато потом он будет как новенький!"</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimit7.Description.Name</t>
   </si>
   <si>
     <t>"Leopard: Strengthened Structural Frame"</t>
   </si>
   <si>
+    <t>"«Леопард»: выпрямление каркаса"</t>
+  </si>
+  <si>
     <t>argoUpgrade_DropInfo1.Description.Name</t>
   </si>
   <si>
     <t>"Terrain Mapping Sensors"</t>
   </si>
   <si>
+    <t>"Картографические датчики"</t>
+  </si>
+  <si>
     <t>argoUpgrade_DropInfo1.Description.Details</t>
   </si>
   <si>
     <t>"The current sensor systems have lacked the capabilities to properly map the terrain in our mission drop zones. With some simple rewiring and adding the proper software to the Argo computers, we can adapt the general sensor array to support terrain scans."</t>
   </si>
   <si>
+    <t>"Наши системы датчиков не позволяют должным образом отображать местность в зонах высадки. С помощью несложной перепрошивки и добавления некоторого программного обеспечения в компьютеры «Арго», мы сможем адаптировать наши датчики для сканирования местности."</t>
+  </si>
+  <si>
     <t>argoUpgrade_DropInfo2.Description.Name</t>
   </si>
   <si>
     <t>"Weather Monitoring Systems"</t>
   </si>
   <si>
+    <t>"Системы мониторинга погоды"</t>
+  </si>
+  <si>
     <t>argoUpgrade_DropInfo2.Description.Details</t>
   </si>
   <si>
     <t>"By further upgrading our sensor systems and connect them to a series of autonomous satellites it would be possible to monitor weather systems and unusual geological characteristics in the whole star system."</t>
   </si>
   <si>
+    <t>"Дальнейшая модернизация сенсоров и подключение их к серии автономных спутников позволит отслеживать погодные условия и геологические особенности всех планет системы."</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_IBLS_CargoStorageModifier.Description.Details</t>
   </si>
   <si>
     <t>"Affects non-jump travel times - not shown"</t>
   </si>
   <si>
+    <t>"Влияет на время передвижения (без прыжков) - не показывается"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_IBLS_MechbayUpkeepModifier.Description.Details</t>
   </si>
   <si>
@@ -762,42 +1119,63 @@
     <t>"Enables pre-mission terrain map"</t>
   </si>
   <si>
+    <t>"Включает карту местности перед миссией"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_Intel_Show_Mood.Description.Details</t>
   </si>
   <si>
     <t>"Enables pre-mission weather information"</t>
   </si>
   <si>
+    <t>"Включает погодные данные перед миссией"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_MaLowestDecay.Description.Details</t>
   </si>
   <si>
     <t>"Minimum pilot's affinity to mech will decay to."</t>
   </si>
   <si>
+    <t>"Минимальное Affinity пилота к меху, до которой может снизиться."</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_MaSimDaysDecayModulator.Description.Details</t>
   </si>
   <si>
     <t>"Number of days that can elapse before a pilot's affinities begin to decay."</t>
   </si>
   <si>
+    <t>"Количество дней, которое должно пройти, чтобы Affinity пилота начало снижаться."</t>
+  </si>
+  <si>
     <t>argoUpgrade_MRBConsole.Description.Name</t>
   </si>
   <si>
     <t>"MRB Contract Console"</t>
   </si>
   <si>
+    <t>"Консоль контрактов MRB"</t>
+  </si>
+  <si>
     <t>argoUpgrade_MRBConsole.Description.Details</t>
   </si>
   <si>
     <t>"Basic MRB Contract Console that allows bidding on all standard contracts and flashpoints."</t>
   </si>
   <si>
+    <t>"Базовая консоль MRB контрактов, позволяющая осуществлять торги по всем стандартным контрактам и флэшпоинтам."</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_BiggerDrops_LeopardEnabled.Description.Details</t>
   </si>
   <si>
     <t>"Enables Leopard"</t>
   </si>
   <si>
+    <t>"Активирует «Леопард»"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_BiggerDrops_MaxTonnage_Display.Description.Details</t>
   </si>
   <si>
@@ -819,24 +1197,36 @@
     <t>"Employee of the Week"</t>
   </si>
   <si>
+    <t>"Работник недели"</t>
+  </si>
+  <si>
     <t>argoUpgrade_rec_employee.Description.Details</t>
   </si>
   <si>
     <t>"Introduce an award for the Employee of the week, which involves putting their picture on the wall with a golden frame and a small monetary gift. It's the perfect way to boost egos, just don't tell them it's a fake award that everyone will get it over time."</t>
   </si>
   <si>
+    <t>"Введите награду для сотрудника недели, которая состоит в том, чтобы повесить его фотографию на стену в золотой рамке и вручить небольшой денежный подарок. Это идеальный способ потешить их самолюбие, только не говорите им, что это фальшивая награда, что со временем её получат все."</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimitUltimate.Description.Name</t>
   </si>
   <si>
     <t>"Leopard: Hull Expansion"</t>
   </si>
   <si>
+    <t>"«Леопард»: расширение корпуса"</t>
+  </si>
+  <si>
     <t>argoUpgrade_WeightLimitUltimate.Description.Details</t>
   </si>
   <si>
     <t>"A full reconstruction of the Leopard, adding several new compartments by expanding its hull. Includes modifying the internal frame, improving the internal wiring and upgrading the engines. The reconstruction will take considerable time and has a very high cost, but once done allows bringing almost anything to away missions."</t>
   </si>
   <si>
+    <t>"Полная реконструкция «Леопарда», добавляющая несколько новых отсеков за счет расширения корпуса. Включает модификацию внутреннего каркаса, улучшение внутренней проводки и модернизацию двигателей. Реконструкция займет немало времени и имеет очень высокую стоимость, но после её завершения позволит доставлять на поле боя практически всё, что угодно."</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_CommanderVTOL.Description.Details</t>
   </si>
   <si>
@@ -855,12 +1245,18 @@
     <t>"Stat for ROI Showing VTOL Pilot Training"</t>
   </si>
   <si>
+    <t>"Стата предмета, вызывающего ивент, показывающая обучение пилота VTOL"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_CommanderLAM.Description.Details</t>
   </si>
   <si>
     <t>"Stat for ROI Allowing ONE LAM Commander Training"</t>
   </si>
   <si>
+    <t>"Стата про предмет, вызывающий ивент, который позволяет вызвать одно обучение LAM командира"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_LAMPilotEnrolled.Description.Details</t>
   </si>
   <si>
@@ -873,66 +1269,99 @@
     <t>"Stat for ROI Showing LAM Pilot Training"</t>
   </si>
   <si>
+    <t>"Стата предмета, вызывающего ивент, показывающая обучение пилота LAM"</t>
+  </si>
+  <si>
     <t>argoUpgrade_MRBConsole1.Description.Name</t>
   </si>
   <si>
     <t>"MRB Console: Epsilon Authorization"</t>
   </si>
   <si>
+    <t>"Консоль MRB: код доступа Epsilon"</t>
+  </si>
+  <si>
     <t>argoUpgrade_MRBConsole1.Description.Details</t>
   </si>
   <si>
     <t>"&lt;color=#0033FF&gt;Unlocked through Event.&lt;/color&gt;\n\nMRB Console upgrade required to take on Epsilon classified contracts, enabling access to superheavy contracts. These type of contracts are generally considerably harder and allows total drop tonnage of up to 1025 tons depending on contract difficulty."</t>
   </si>
   <si>
+    <t>"&lt;color=#0033FF&gt;Открывается через ивент.&lt;/color&gt;\n\nАпгрейд консоли MRB, необходимый для выполнения контрактов класса Epsilon, открывает доступ к контрактам со сверхтяжёлыми мехами. Эти контракты, как правило, значительно сложнее и позволяют бросать в бой до 1025 тонн в зависимости от сложности контракта."</t>
+  </si>
+  <si>
     <t>argoUpgrade_MRBConsole2.Description.Name</t>
   </si>
   <si>
     <t>"MRB Console: Omega Authorization"</t>
   </si>
   <si>
+    <t>"Консоль MRB: код доступа Omega"</t>
+  </si>
+  <si>
     <t>argoUpgrade_MRBConsole2.Description.Details</t>
   </si>
   <si>
     <t>"&lt;color=#0033FF&gt;Unlocked through Event.&lt;/color&gt;\n\nMRB Console upgrade required to take on Omega classified contracts, enabling access to difficult superheavy contracts. These type contracts are much harder and allows total drop tonnage of up to 1225 tons depending on contract difficulty."</t>
   </si>
   <si>
+    <t>"&lt;color=#0033FF&gt;Открывается через ивент.&lt;/color&gt;\n\nАпгрейд консоли MRB, необходимый для выполнения контрактов класса Omega, открывает доступ к сложным контрактам со сверхтяжёлыми мехами. Эти контракты невероятно сложные и позволяют бросать в бой до 1225 тонн в зависимости от сложности контракта."</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_DelayAssessment.Description.Details</t>
   </si>
   <si>
     <t>"Delay MRB Assessment"</t>
   </si>
   <si>
+    <t>"Отсрочка оценки MRB"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_SuperheavyContractsEnabled.Description.Details</t>
   </si>
   <si>
     <t>"Enables Superheavy Contracts"</t>
   </si>
   <si>
+    <t>"Разблокирует контракты сверхтяжей"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_SuperheavyHuntsEnabled.Description.Details</t>
   </si>
   <si>
     <t>"Enables Superheavy Hunt Contracts"</t>
   </si>
   <si>
+    <t>"Разблокирует контракты на охоту на сверхтяжей"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_Bearing.Description.Details</t>
   </si>
   <si>
     <t>"Counter for Bearing NOT available in Hiring Hall"</t>
   </si>
   <si>
+    <t>"Счетчик, сколько Bearing ещё недоступен в зале найма"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_BearingBanacek.Description.Details</t>
   </si>
   <si>
     <t>"Counter for BABearing Banacek as available in Hiring Hall"</t>
   </si>
   <si>
+    <t>"Счетчик, сколько BABearing Banacek ещё доступен в Зале найма"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_BearingBearingovich.Description.Details</t>
   </si>
   <si>
     <t>"Counter for BABearing Bearingovich as available in Hiring Hall"</t>
   </si>
   <si>
+    <t>"Счетчик, сколько BABearing Bearingovich ещё доступен в Зале найма"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_HireBABanacek.Description.Details</t>
   </si>
   <si>
@@ -951,24 +1380,36 @@
     <t>"Chassis for Baracas RBR-BAB"</t>
   </si>
   <si>
+    <t>"Шасси для Baracas RBR-BAB"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_Item.MechDef.chassisdef_rogue_bear_RBR-BAB_U.Description.Details</t>
   </si>
   <si>
     <t>"Chassis for Baracas RBR-BAB Unlocked"</t>
   </si>
   <si>
+    <t>"Шасси для Baracas RBR-BAB разблокировано"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_AlphaCount.Description.Details</t>
   </si>
   <si>
     <t>"Counter for number of Alpha Contracts completed"</t>
   </si>
   <si>
+    <t>"Счетчик количества завершенных Альфа-контрактов"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_BetaCount.Description.Details</t>
   </si>
   <si>
     <t>"Counter for number of Beta Contracts completed"</t>
   </si>
   <si>
+    <t>"Счетчик количества завершенных Бета-контрактов"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_STBContract.Description.Details</t>
   </si>
   <si>
@@ -981,168 +1422,252 @@
     <t>"Chassis for Khaos Theory KDK-DK"</t>
   </si>
   <si>
+    <t>"Шасси для Khaos Theory KDK-DK"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_Item.MechDef.chassisdef_kodiak_KDK-DK_U.Description.Details</t>
   </si>
   <si>
     <t>"Chassis for Khaos Theory KDK-DK Unlocked"</t>
   </si>
   <si>
+    <t>"Шасси для Khaos Theory KDK-DK разблокировано"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_Item.UpgradeDef.Gear_Cockpit_EnhancedImaging.Description.Details</t>
   </si>
   <si>
     <t>"Enhanced Imaging Cockpit for Khaos Theory KDK-DK Unlocked"</t>
   </si>
   <si>
+    <t>"Кабина с улучшенной визуализацией разблокирована для Khaos Theory KDK-DK"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_Item.WeaponDef.Weapon_Gauss_Light_Ultra.Description.Details</t>
   </si>
   <si>
     <t>"Ultra Light Gauss for Khaos Theory KDK-DK Unlocked"</t>
   </si>
   <si>
+    <t>"Ультралегкий Гаусс для KDK-DK Khaos Theory разблокирован"</t>
+  </si>
+  <si>
     <t>argoUpgrade_driveKFConsole.Description.Name</t>
   </si>
   <si>
     <t>"Pirate Kerby-Fu-Cheatah Console"</t>
   </si>
   <si>
+    <t>"Пиратская консоль Керби-Фучитак"</t>
+  </si>
+  <si>
     <t>argoUpgrade_driveKFConsole.Description.Details</t>
   </si>
   <si>
     <t>"&lt;color=#0033FF&gt;Unlocked through Event by collecting lootbox components from Pirate Sponsored Contracts.&lt;/color&gt;\n\nSo those crazy pirates have built a console to calculate &lt;i&gt;Pirate Points&lt;/i&gt;.  It gets power from the Pirate Drive Harness and then overrides a jumpships NavCom to allow the console operator to substitute new coordinates closer to the target planet.  KF Consoles have 3 main parts: [[DM.UpgradeDefs[Gear_KerbyInjectors],Kerby Injectors]], [[DM.UpgradeDefs[Gear_FuCapacitor],Fu Capacitor]]s and a [[DM.UpgradeDefs[Gear_CheatahNavComputer],Cheatah Nav Computer]].  Blueprints are also needed for assembly.  Doing specific Ambush, Rescue and Escort missions for Pirates will be rewarded with one of these parts."</t>
   </si>
   <si>
+    <t>"&lt;color=#0033FF&gt;Открывается через ивент посредством сбора компонентов из лутбоксов из контрактов, спонсируемых пиратами.&lt;/color&gt;\n\nИтак, эти полоумные пираты собрали консоль для расчёта пиратских точек. Она запитывается от пиратского двигателя, а затем берёт под своё управление НавКомп и позволяет оператору консоли заменить координаты на новые, ближе к целевой планете. КФ-консоли имеют 3 главные детали: [[DM.UpgradeDefs[Gear_KerbyInjectors],Инжектор Керби]], [[DM.UpgradeDefs[Gear_FuCapacitor],Конденсатор Фу]] и [[DM.UpgradeDefs[Gear_CheatahNavComputer],Навигационный компьютер Читак]]. Схемы и чертежи также пригодятся для финальной сборки. Выполняя определенные задания для пиратов по засаде, спасению и сопровождению, вы получите в награду одну из этих частей."</t>
+  </si>
+  <si>
     <t>argoUpgrade_drivePirateHarness.Description.Name</t>
   </si>
   <si>
     <t>"Pirate Drive Harness Upgrade"</t>
   </si>
   <si>
+    <t>"Улучшение пиратского двигателя"</t>
+  </si>
+  <si>
     <t>argoUpgrade_drivePirateHarness.Description.Details</t>
   </si>
   <si>
     <t>"Some crazy pirate astech has rerouted the wiring of a dropship drive engine, overclocking several computer cores to eek out a slight boost in power.  It is technically compatible with the &lt;i&gt;Argo&lt;/i&gt;'s drive to potentially shave a some time of system transits."</t>
   </si>
   <si>
+    <t>"Какой-то сумасшедший пиратский аэрокосмический тех перераспределил проводку двигателя дропшипа и разогнал несколько ядер компьютера, чтобы получить небольшое увеличение мощности. Двигатель технически совместим с «Арго», и потенциально позволит сократить время зарядки и перемещения между системами."</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_ConsoleBuilt.Description.Details</t>
   </si>
   <si>
     <t>"Stat for KF Console Built on ARGO"</t>
   </si>
   <si>
+    <t>"Статус построенной КФ-консоли на «Арго»"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_ConsoleDelayed.Description.Details</t>
   </si>
   <si>
     <t>"Stat for KF Console Delayed on ARGO"</t>
   </si>
   <si>
+    <t>"Статус задержанной КФ-консоли на «Арго»"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_ConsoleInstalled.Description.Details</t>
   </si>
   <si>
     <t>"Stat for KF Console installed on ARGO"</t>
   </si>
   <si>
+    <t>"Статус установленной КФ-консоли на «Арго»"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_JumpShipCost_override.Description.Details</t>
   </si>
   <si>
     <t>"Overrides the base cost of jumpship travel between systems"</t>
   </si>
   <si>
+    <t>"Переопределяет базовую стоимость путешествия на прыжковом корабле между системами"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_MisjumpCount.Description.Details</t>
   </si>
   <si>
     <t>"Misjump counter for number of misjumps and possibly MRB fines"</t>
   </si>
   <si>
+    <t>"Счетчик кривых прыжков и, возможно, штрафов от MRB"</t>
+  </si>
+  <si>
     <t>Gear_CheatahNavComputer.Description.UIName</t>
   </si>
   <si>
     <t>"Cheatah Navigation Computer"</t>
   </si>
   <si>
+    <t>"Навигационный компьютер Читак"</t>
+  </si>
+  <si>
     <t>Gear_CheatahNavComputer.Description.Details</t>
   </si>
   <si>
     <t>"This computer, when coupled with [[DM.UpgradeDefs[Gear_FuCapacitor],Fu Capacitor]]s, [[DM.UpgradeDefs[Gear_KerbyInjectors],Kerby Injectors]] and using a set of KFC Blueprints allows for the installation of a Kerby-Fucheatah Console.  The KF Console will allow for the calculation of &lt;i&gt;Pirate Jump Points&lt;/i&gt; to allow for quicker travel to other systems, with the added risk of possible misjumps.\r\n\r\n&lt;color=#FF0000&gt;&lt;i&gt;This item is for Argo upgrade only, it will not install in mechs&lt;/i&gt;&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"Этот компьютер, собранный вместе с [[DM.UpgradeDefs[Gear_FuCapacitor],конденсаторами Фу]], [[DM.UpgradeDefs[Gear_KerbyInjectors],инжекторами Керби]] и при помощи KFC-чертежей, позволяет установить консоль Керби-Фучитак. КФ-консоль даст возможность расчитывать пиратские точки прыжка, которые позволяют прыгать ближе к целевой планете, сокращая время на перелёт, правда, с риском кривого прыжка.\r\n\r\n&lt;color=#FF0000&gt;&lt;i&gt;Этот предмет только для модернизации «Арго», он не ставится в мехи&lt;/i&gt;&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>Gear_FuCapacitor.Description.UIName</t>
   </si>
   <si>
     <t>"Fu Capacitor"</t>
   </si>
   <si>
+    <t>"Конденсатор Фу"</t>
+  </si>
+  <si>
     <t>Gear_FuCapacitor.Description.Details</t>
   </si>
   <si>
     <t>"The [[DM.UpgradeDefs[Gear_FuCapacitor],Fu Capacitor]], when coupled with a Cheatah Navigation Computer, [[DM.UpgradeDefs[Gear_KerbyInjectors],Kerby Injectors]] and using a set of KFC Blueprints allows for the installation of a Kerby-Fucheatah Console.  The KF Console will allow for the calculation of &lt;i&gt;Pirate Jump Points&lt;/i&gt; to allow for quicker travel to other systems, with the added risk of possible misjumps.\r\n\r\n&lt;color=#FF0000&gt;&lt;i&gt;This item is for Argo upgrade only, it will not install in mechs&lt;/i&gt;&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"[[DM.UpgradeDefs[Gear_FuCapacitor],Конденсатор Фу]], собранный вместе с навигационным компьютером Читак, [[DM.UpgradeDefs[Gear_KerbyInjectors],инжекторами Керби]] и при помощи KFC-чертежей, позволяет установить консоль Керби-Фучитак. КФ-консоль даст возможность расчитывать пиратские точки прыжка, которые позволяют прыгать ближе к целевой планете, сокращая время на перелёт, правда, с риском кривого прыжка.\r\n\r\n&lt;color=#FF0000&gt;&lt;i&gt;Этот предмет только для модернизации «Арго», он не ставится в мехи&lt;/i&gt;&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>Gear_KerbyInjectors.Description.UIName</t>
   </si>
   <si>
     <t>"Kerby Injectors"</t>
   </si>
   <si>
+    <t>"Инжекторы Керби"</t>
+  </si>
+  <si>
     <t>Gear_KerbyInjectors.Description.Details</t>
   </si>
   <si>
     <t>"[[DM.UpgradeDefs[Gear_KerbyInjectors],Kerby Injectors]], when coupled with [[DM.UpgradeDefs[Gear_FuCapacitor],Fu Capacitor]]s, a Cheath Navigation Computer and using a set of KFC Blueprints allows for the installation of a Kerby-Fucheatah Console.  The KF Console will allow for the calculation of &lt;i&gt;Pirate Jump Points&lt;/i&gt; to allow for quicker travel to other systems, with the added risk of possible misjumps.\r\n\r\n&lt;color=#FF0000&gt;&lt;i&gt;This item is for Argo upgrade only, it will not install in mechs&lt;/i&gt;&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"[[DM.UpgradeDefs[Gear_KerbyInjectors],Инжекторы Керби]], если идут в паре с [[DM.UpgradeDefs[Gear_FuCapacitor],конденсаторами Фу]], с навигационным компьютером Читак и набором схем KFC позволяют установить Керби-Фучитак консоль. КФ-консоль позволит расчитывать прыжки через пиратские точки, и позволит тем самым путешествовать ещё быстрее, правда, с риском кривого прыжка.\r\n\r\n&lt;color=#FF0000&gt;&lt;i&gt;Этот предмет - только для улучшения «Арго» он не ставится в мехи&lt;/i&gt;&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>Gear_KFCBlueprints.Description.UIName</t>
   </si>
   <si>
     <t>"KFC Blueprints"</t>
   </si>
   <si>
+    <t>"Чертежи KFC"</t>
+  </si>
+  <si>
     <t>Gear_KFCBlueprints.Description.Details</t>
   </si>
   <si>
     <t>"KF Console Blueprints will allow for the installation of [[DM.UpgradeDefs[Gear_KerbyInjectors],Kerby Injectors]], [[DM.UpgradeDefs[Gear_FuCapacitor],Fu Capacitor]]s and a Cheatah Navigation Computer to create a Kerby-Fucheatah Console.  The KF Console will allow for the calculation of &lt;i&gt;Pirate Jump Points&lt;/i&gt; to allow for quicker travel to other systems, with the added risk of possible misjumps.\r\n\r\n&lt;color=#FF0000&gt;&lt;i&gt;This item is for Argo upgrade only, it will not install in mechs&lt;/i&gt;&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"Чертежи КФ-консоли позволят установить [[DM.UpgradeDefs[Gear_KerbyInjectors],Инжекторы Керби]], [[DM.UpgradeDefs[Gear_FuCapacitor],Конденсаторы Фу]] и навигационный компьютер Читак, чтобы получить консоль Керби-Фучитак. КФ-консоль позволит расчитывать пиратские точки прыжка, которые сокращают время перелёта к планетам другой системы, правда с риском кривого прыжка.\r\n\r\n&lt;color=#FF0000&gt;&lt;i&gt;Этот предмет только для модернизации «Арго», он не ставится в мехи&lt;/i&gt;&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>MechEngineer.ROI_KFC.Short</t>
   </si>
   <si>
     <t>"ROI_KFC"</t>
   </si>
   <si>
+    <t>"Ивент_KFC"</t>
+  </si>
+  <si>
     <t>MechEngineer.KFC_KerbyInjectors.Short</t>
   </si>
   <si>
     <t>"KFC_KerbyInjectors"</t>
   </si>
   <si>
+    <t>"ИнжекторыКерби_KFC"</t>
+  </si>
+  <si>
     <t>MechEngineer.KFC_FuCapacitor.Short</t>
   </si>
   <si>
     <t>"KFC_FuCapacitor"</t>
   </si>
   <si>
+    <t>"KFC_Фу-Конденсатор"</t>
+  </si>
+  <si>
     <t>MechEngineer.KFC_CheatahNavCom.Short</t>
   </si>
   <si>
     <t>"KFC_CheatahNavCom"</t>
   </si>
   <si>
+    <t>"НавКомпЧитак_KFC"</t>
+  </si>
+  <si>
     <t>MechEngineer.KFC_Blueprints.Short</t>
   </si>
   <si>
     <t>"KFC_Blueprints"</t>
   </si>
   <si>
+    <t>"Чертежи_KFC"</t>
+  </si>
+  <si>
     <t>MechEngineer.ROI_KFC.Long</t>
   </si>
   <si>
     <t>"Result Oriented Item for Misjump Event"</t>
   </si>
   <si>
+    <t>"Предмет, ориентированный на результат ивента кривого прыжка"</t>
+  </si>
+  <si>
     <t>MechEngineer.KFC_KerbyInjectors.Long</t>
   </si>
   <si>
     <t>"Collectible part for the KFC Drive Assembly and Repairs"</t>
   </si>
   <si>
+    <t>"Коллекционная деталь для сборки и ремонта привода KFC"</t>
+  </si>
+  <si>
     <t>MechEngineer.KFC_FuCapacitor.Long</t>
   </si>
   <si>
@@ -1158,36 +1683,54 @@
     <t>"This is not an installable item. It will appear in your inventory, but only to trigger an event action"</t>
   </si>
   <si>
+    <t>"Это не устанавливаемый предмет. Он появится в вашем инвентаре, но только для того, чтобы вызвать ивент."</t>
+  </si>
+  <si>
     <t>MechEngineer.KFC_KerbyInjectors.Full</t>
   </si>
   <si>
     <t>"Requires Fu Capacitor, Cheatah NavComputer and KFC Blueprints to build KF Console"</t>
   </si>
   <si>
+    <t>"Для создания КФ-консоли требуется конденсатор Фу, навигационный компьютер Читак и чертежи KFC"</t>
+  </si>
+  <si>
     <t>MechEngineer.KFC_FuCapacitor.Full</t>
   </si>
   <si>
     <t>"Requires Kerby Injectors, Cheatah NavComputer and KFC Blueprints to build KF Console"</t>
   </si>
   <si>
+    <t>"Для создания КФ-консоли требуются инжекторы Керби, навигационный компьютер Читак и чертежи KFC"</t>
+  </si>
+  <si>
     <t>MechEngineer.KFC_CheatahNavCom.Full</t>
   </si>
   <si>
     <t>"Requires Kerby Injectors, Fu Capacitors and KFC Blueprints to build KF Console"</t>
   </si>
   <si>
+    <t>"Для создания КФ-консоли требуются инжекторы Керби, конденсаторы Фу и чертежи KFC"</t>
+  </si>
+  <si>
     <t>MechEngineer.KFC_Blueprints.Full</t>
   </si>
   <si>
     <t>"Requires Kerby Injectors, Fu Capacitors and Cheatah NavComputer to build KF Console"</t>
   </si>
   <si>
+    <t>"Для создания КФ-консоли требуются инжекторы Керби, конденсаторы Фу и навигационный компьютер Читак"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_KrakenBodyCount.Description.Details</t>
   </si>
   <si>
     <t>"Death counter for number of pilots fed into Kraken"</t>
   </si>
   <si>
+    <t>"Счетчик смертей для количества пилотов, скормленных Кракену"</t>
+  </si>
+  <si>
     <t>SimGameStatDesc_KrakenChampionCount.Description.Details</t>
   </si>
   <si>
@@ -1200,517 +1743,103 @@
     <t>"Counter for number of Rigs by Player"</t>
   </si>
   <si>
-    <t>"Мощности &lt;i&gt;«Арго»&lt;/i&gt; было достаточно, чтобы оторвать его с поверхности луны с низкой гравитацией, но в процессе значительная часть вспомогательной инфраструктуры была повреждена. Чтобы запустить реактор на полную мощность, потребуется капитальный ремонт. После этого ускорители смогут выдавать стабильные 1.5 G тяги."</t>
-  </si>
-  <si>
-    <t>"Ремонт реактора"</t>
-  </si>
-  <si>
-    <t>"При крайней нужде &lt;i&gt;«Арго»&lt;/i&gt; может выдавать значительно больше ускорения, чем нам казалось. Подремонтировав ряд подсистем реактора ради повышения его эффективности, можно довести &lt;i&gt;«Арго»&lt;/i&gt; до некомфортных 2 G постоянной тяги."</t>
-  </si>
-  <si>
-    <t>"Улучшение реактора"</t>
-  </si>
-  <si>
-    <t>"Реактор &lt;i&gt;«Арго»&lt;/i&gt; можно модернизировать, чтобы тот помог ускорителям выдавать тягу высокой перегрузки, но это будет напрягать систему корабля, его каркас, а также ваш бюджет."</t>
-  </si>
-  <si>
-    <t>"Повышение предела тяги"</t>
-  </si>
-  <si>
-    <t>"Похоже, что подвесные опоры кто-то свинтил, но места крепления остались невредимы. Я могу попросить моих техов поработать над изготовлением новых подвесных опор для мехов, командир, но потребуется время, чтобы всё воссоздать заново. Хотя, думаю, одну опору мы сможем собрать по-быстрому, из того, что здесь осталось."</t>
-  </si>
-  <si>
-    <t>"«Леопард»: отсек 1"</t>
-  </si>
-  <si>
-    <t>"Первая опора получилась добротной, босс. Вокруг осталось достаточно металлолома, чтобы мы смогли соорудить каркас для ещё одной, но нам точно понадобится закупить несколько сложных компонентов, прежде чем следующую подвесную опору можно будет использовать."</t>
-  </si>
-  <si>
-    <t>"«Леопард»: отсек 2"</t>
-  </si>
-  <si>
-    <t>"Пол дела сделано, босс. Это действительно начинает походить на настоящий дропшип. Я могу приступить к изготовлению с нуля деталей для сборки последних двух подвесных опор. Хорошо, что они абсолютно одинаковы, сэкономит немного времени и денег."</t>
-  </si>
-  <si>
-    <t>"«Леопард»: отсек 3"</t>
-  </si>
-  <si>
-    <t>"Чтобы высаживать копье мехов с орбиты, надо немного больше, чем просто привязывать их к стене. Несколько гироскопов и датчиков управления по всему кораблю повреждены или банально отсутствуют. Если мы попытаемся спустить корабль с орбиты без абсолютно идеально сбалансированной развесовки нагрузки, есть очень даже реальный шанс, что мы потеряем и дропшип и всё, что есть у него на борту. Нам нужно будет заменить и откалибровать эти системы при помощи нескольких тестовых высадок, прежде чем мы сможем в полной мере использовать новый «Леопард»."</t>
-  </si>
-  <si>
-    <t>"«Леопард»: отсек 4"</t>
-  </si>
-  <si>
-    <t>"Нам удалось найти человека, который продает старый «Леопард», командир. Торговец утверждает, что «он работал, когда его парковали». Если нам удастся вернуть его в рабочее состояние, то со временем мы сможем бросать в бой серьёзные силы."</t>
-  </si>
-  <si>
-    <t>"«Леопард» со свалки"</t>
-  </si>
-  <si>
-    <t>"Дальнейший ремонт мехотсеков «Леопарда» позволит более эффективно хранить там юниты и оборудование."</t>
-  </si>
-  <si>
-    <t>"«Леопард»: использование зон хранилища"</t>
-  </si>
-  <si>
-    <t>"Высвободившееся пространство на «Леопарде» позволит проще хранить боеприпасы и запасные части."</t>
-  </si>
-  <si>
-    <t>"«Леопард»: склад боеприпасов"</t>
-  </si>
-  <si>
-    <t>"Множество систем мехотсека &lt;i&gt;«Арго»&lt;/i&gt; предназначались для использования в совокупности со сложной автоматикой времен Звёздной лиги. Перезапуск хотя бы части этой автоматики - это мощная прибавка к нашим техническим возможностям. \n&lt;b&gt;&lt;color=#F79232&gt;Позволяет второму ремонтному отсеку работать со 100% эффективностью.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Автоматизация"</t>
-  </si>
-  <si>
-    <t>"В ходе ремонта мехотсека была обнаружена гораздо более масштабная система автоматического обслуживания мехов, чем Ян предполагал. Если она снова заработает, многие рутинные задачи станут просто тривиальными.&lt;b&gt;&lt;color=#F79232&gt;Позволяет третьему ремонтному отсеку работать со 100% эффективностью.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Улучшенная автоматизация"</t>
-  </si>
-  <si>
-    <t>"Обслуживание мехов в эпоху войн за Наследие осложняется относительной редкостью сложных в изготовлении деталей. Механический цех &lt;i&gt;«Арго»&lt;/i&gt;, как только будет отремонтирован и запущен, сможет помочь в устранении этого недостатка."</t>
-  </si>
-  <si>
-    <t>"Механический цех"</t>
-  </si>
-  <si>
-    <t>"По-хорошему, мехи в процессе обслуживания надо избавлять от давления собственного веса. И в мехотсеке &lt;i&gt;«Арго»&lt;/i&gt; как раз есть подвесные системы, чтобы закреплять мех для упрощения работ."</t>
-  </si>
-  <si>
-    <t>"Подвесные системы"</t>
-  </si>
-  <si>
-    <t>"В отдельных отсеках для мехов сооружена сложная система из подвижных подмостков и лесов, позволяющая добраться до любой части поврежденного меха. Если мы сможем отремонтировать саму систему, ремонт мехов станет гораздо проще."</t>
-  </si>
-  <si>
-    <t>"Ремонт подмостков"</t>
-  </si>
-  <si>
-    <t>"Мехотсек &lt;i&gt;«Арго»&lt;/i&gt; огромен, просторен и должен полностью управляться сложной автоматикой. В настоящий момент задействовано 6 из 18 платформ для мехов, а автоматика практически не функционирует."</t>
-  </si>
-  <si>
-    <t>"Мехотсек 1"</t>
-  </si>
-  <si>
-    <t>"Отремонтированная проводка позволяет запустить еще 6 дополнительных платформ для мехов, а также ещё несколько автоматических систем, что серьезно разгрузит Яна.\r\n\r\n&lt;b&gt;&lt;color=#F79232&gt;Запускает второй ремонтный отсек, позволяет работать со вторым мехом с 50% эффективностью.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Мехотсек 2"</t>
-  </si>
-  <si>
-    <t>"После вывода систем энергонабжения на полную мощность и усиления «хребта» корабля, достаточного для безопасного функционирования активных мехотсеков, стал возможен ввод в эксплуатацию оставшихся 6 платформ для мехов.\r\n\r\n&lt;b&gt;&lt;color=#F79232&gt;Запускает третий ремонтный отсек, позволяя работать с третьим мехом с эффективностью 33%&lt;/color&gt;&lt;/b&gt;."</t>
-  </si>
-  <si>
-    <t>"Мехотсек 3"</t>
-  </si>
-  <si>
-    <t>"Изначальная конструкция &lt;i&gt;«Арго»&lt;/i&gt; предусматривала место и инфраструктуру для полноценного госпиталя, а не просто отдельные лазареты. Такой уровень оборудования и связь с библиотекой и базами данных корабля позволили бы нашим медтехникам творить настоящие чудеса. Все лазареты будут переделаны в госпитали."</t>
-  </si>
-  <si>
-    <t>"Госпиталь"</t>
-  </si>
-  <si>
-    <t>"Этот скромный полевой госпиталь вмещает несколько коек, кое-какое хирургическое оборудование и медикаменты. Услуги опытного медтехника включены в стоимость."</t>
-  </si>
-  <si>
-    <t>"Медотсек 1"</t>
-  </si>
-  <si>
-    <t>"Расширенный полевой госпиталь позволяет двум медтехникам работать бок о бок, что даёт больше возможностей для лечения пациентов. Услуги медтехников включены в стоимость."</t>
-  </si>
-  <si>
-    <t>"Медотсек 2"</t>
-  </si>
-  <si>
-    <t>"В полностью улучшенном полевом госпитале достаточно коек, диагностического оборудования и операционных, чтобы единовременно заниматься шестью пилотами. Услуги медтехников включены в стоимость."</t>
-  </si>
-  <si>
-    <t>"Медотсек 3"</t>
-  </si>
-  <si>
-    <t>"Каждый из трех отсеков задумывался как самодостаточное жилое помещение. Отсек «Альфа», как его обозначает внутренняя маркировка, единственный из всех трёх сохранил герметичность, что делает его (по большей части) пригодным для жизни."</t>
-  </si>
-  <si>
-    <t>"Отсек «Альфа»"</t>
-  </si>
-  <si>
-    <t>"В Отсеке «Бета» находится то, что похоже когда-то было гидропонным садом и спортивным залом с низкой гравитацией прямо над ним. Ни то ни другое не пережило воздействия открытого космоса и космической радиации, но, тем не менее они являются манящими атрибутами роскошной жизни, которая когда-то была на &lt;i&gt;«Арго»&lt;/i&gt;. \r\n\r\n &lt;b&gt;&lt;color=#F79232&gt;+10 дней до начала снижения Affinity. &lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Отсек «Бета»"</t>
-  </si>
-  <si>
-    <t>"Отсек «Гамма» - по большому счету - чистый лист, только его внутренние несущие конструкции остались нетронутыми. Восстановление жилых палуб отсека оставит в нем много свободного пространства для других строений. \n&lt;b&gt;&lt;color=#F79232&gt;+10 дней до начала снижения Affinity. &lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Отсек «Гамма»"</t>
-  </si>
-  <si>
-    <t>"Система энергоснабжения &lt;i&gt;«Арго»&lt;/i&gt; в ужасном состоянии. Просто чудо, что удалось запитать хоть какие-то системы так, что ежесекундно не выбивает предохранители."</t>
-  </si>
-  <si>
-    <t>"Отремонтированная проводка"</t>
-  </si>
-  <si>
-    <t>"Залатанная на скорую руку проводка ненадёжна и, честно говоря, небезопасна. Заменить проводку по всему &lt;i&gt;«Арго»&lt;/i&gt; - титанический труд, но без этого мы не сможем подключить к системе ничего мало-мальски энергозатратного."</t>
-  </si>
-  <si>
-    <t>"Улучшенная проводка"</t>
-  </si>
-  <si>
-    <t>"&lt;i&gt;«Арго»&lt;/i&gt; изначально был способен оперировать куда большими мощностями, нежели те, что могут выдержать аварийно восстановленные кабели. Усиление проводки даст возможность запустить несколько орудий, которые помогут нам отбиваться от налётов пиратов."</t>
-  </si>
-  <si>
-    <t>"Проводка повышенной мощности"</t>
-  </si>
-  <si>
-    <t>"Если прокинуть дополнительное питание в пустующее складское пространство в отсеке «Гамма», то туда легко можно поставить несколько 2-D и 3-D игровых автоматов. Тренировок это не заменит, зато будет весело."</t>
-  </si>
-  <si>
-    <t>"Зал игровых автоматов"</t>
-  </si>
-  <si>
-    <t>"После небольшого переоборудования зал игровых автоматов сможет предоставить больше возможностей для того, чтобы отдохнуть и развеяться."</t>
-  </si>
-  <si>
-    <t>"Улучшенный зал игровых автоматов"</t>
-  </si>
-  <si>
-    <t>"Мехвоинам нужно поддерживать свою физическую форму, а заниматься спортом в собственной каюте неудобно и непрактично. К счастью на борту &lt;i&gt;«Арго»&lt;/i&gt; есть целый спортзал... нужны лишь ремонт и питание."</t>
-  </si>
-  <si>
-    <t>"Спортзал"</t>
-  </si>
-  <si>
-    <t>"Теперь, когда у нас на &lt;i&gt;Арго&lt;/i&gt; заработал спортзал, мы можем найти снаряжение получше и установить душевые кабины."</t>
-  </si>
-  <si>
-    <t>"Усовершенствованный спортзал"</t>
-  </si>
-  <si>
-    <t>"Ближе к центру корабля его вращения недостаточно, чтобы поддерживать сколь-нибудь внятную искуственную гравитацию. В результате эта облать не очень годится для обитания, зато прекрасна для выращивания гидропонных культур! Растения улучшат воздух и добавят разнообразия в меню."</t>
-  </si>
-  <si>
-    <t>"Гидропонный сад"</t>
-  </si>
-  <si>
-    <t>"Большее количество гидропонных растений обеспечивает не только более чистый воздух, но и большее разнообразие продуктов питания, что также влияет на сокращение наших ежемесячных расходов!"</t>
-  </si>
-  <si>
-    <t>"Улучшенный гидропонный сад"</t>
-  </si>
-  <si>
-    <t>"Библиотека - не просто база данных и стопка электронных книг. Она требует отдельного пространства для чтения и обучения в тишине, и настолько далеко от шумной гостинной, насколько это возможно."</t>
-  </si>
-  <si>
-    <t>"Библиотека"</t>
-  </si>
-  <si>
-    <t>"Активная подписка на различные сервисы электронных книг, периодические издания и развлекательные головид-каналы сделает библиотеку ещё более привлекательной для всех."</t>
-  </si>
-  <si>
-    <t>"Улучшенная библиотека"</t>
-  </si>
-  <si>
-    <t>"Общее пространство для социализации за пределами казарм позволит сплотить мехвоинов как команду."</t>
-  </si>
-  <si>
-    <t>"Гостинная"</t>
-  </si>
-  <si>
-    <t>"Пара диванов и стол не особо добавляют уюта. А вот выпивка, 2-D экраны и звуковая система..."</t>
-  </si>
-  <si>
-    <t>"Улучшенная гостинная"</t>
-  </si>
-  <si>
-    <t>"Отличный бар и ассортимент напитков для гостинной."</t>
-  </si>
-  <si>
-    <t>"Бар"</t>
-  </si>
-  <si>
-    <t>"Если у вас осталось много ничем не занятого места, гравитация в котором слишком низкая, чтобы поставить койки, остаётся единственный выбор: наполнить его хлорированной водой."</t>
-  </si>
-  <si>
-    <t>"Бассейн с низкой гравитацией"</t>
-  </si>
-  <si>
-    <t>"Усовершенствованный бассейн с низкой гравитацией даёт больше возможностей для плавания, тренировок и отдыха."</t>
-  </si>
-  <si>
-    <t>"Улучшенный бассейн с низкой гравитацией"</t>
-  </si>
-  <si>
-    <t>"Внутреннего хранилища &lt;i&gt;«Арго»&lt;/i&gt; вполне достаточно для повседневной жизни, но нам нужно разработать систему инвентаризации, оптимизированную именно под &lt;i&gt;«Арго»&lt;/i&gt;, а не просто под стандартный дропшип. Компоновка и функции этого корабля настолько отличаются от стандартных, что новую унифицированную систему инвентаризации нужно разрабатывать с нуля."</t>
-  </si>
-  <si>
-    <t>"Склад"</t>
-  </si>
-  <si>
-    <t>"Оптимизированная система инвентаризации для «Арго» - это отличное начало, но мы можем еще больше сократить расходы на хранение. Если вы готовы взять на себя оплату нескольких прочных рабочих мехов, мы сэкономим кучу человеко-часов на управление складом. В конечном итоге это приведет к снижению затрат на хранение."</t>
-  </si>
-  <si>
-    <t>"Механизированное складское помещение"</t>
-  </si>
-  <si>
-    <t>"За автоматизацией внутреннего хранилища «Арго» будущее. Ещё одно, последнее улучшение ячеек хранения позволит нам перейти на инвентаризационную систему, использующую автоматические дроны в купе с парой герметичных рабочих мехов для особых работ. Разгерметизация некоторых отсеков хранилища и использование там роботов позволит сэкономить много ресурсов, которые мы сможем перераспределить куда-нибудь ещё."</t>
-  </si>
-  <si>
-    <t>"Автоматизация склада"</t>
-  </si>
-  <si>
-    <t>"Этот набор соединённых локальной сетью боевых модулей позволит мехвоинам получить дополнительный опыт, проводя симуляции сражений друг с другом на мехах.\r\n\r\n&lt;b&gt;&lt;color=#F79232&gt;Каждый мехвоин с общим количеством опыта менее 200 000 будет получать по 30 очков опыта в день. &lt;/color&gt;&lt;/b&gt; \r\n\r\n&lt;b&gt;&lt;color=#F79232&gt;Affinity не опустится ниже 5 единиц.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Обучающий модуль 1"</t>
-  </si>
-  <si>
-    <t>"Увеличение количества боевых капсул позволит проводить как полноценные тренировочные симуляции целым копьём, так и всеми любимые внутрикорабельные турниры. Это сильно повысит опыт, приобретаемый мехвоинами на борту корабля. \r\n\r\n &lt;b&gt;&lt;color=#F79232&gt; Каждый мехвоин с общим количеством опыта менее 500 000 будет получать по 50 очков опыта в день. &lt;/color&gt;&lt;/b&gt; \r\n\r\n &lt;b&gt;&lt;color=#F79232&gt;Affinity не опустится ниже 10 единиц.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Обучающий модуль 2"</t>
-  </si>
-  <si>
-    <t>"С тренировочным комплексом, полностью укомплектованным боевыми модулями, мехвоины смогут сражаться «копье на копье», что неминуемо приведет к возникновению команд, логотипов и вымпелов. Широкомасшабная конкуренция даст еще больше опыта участвующим мехвоинам.\r\n\r\n&lt;b&gt;&lt;color=#F79232&gt;Каждый мехвоин с общим количеством опыта менее 800,000 будет получать по 80 очков опыта в день.&lt;/color&gt;&lt;/b&gt; \r\n\r\n&lt;b&gt;&lt;color=#F79232&gt;Affinity не опустится ниже 40 единиц.&lt;/color&gt;&lt;/b&gt;"</t>
-  </si>
-  <si>
-    <t>"Обучающий модуль 3"</t>
-  </si>
-  <si>
-    <t>"Системы командования и управления никогда не предназначались для поддержки легкой роты мехов, командир. Если мы хотим поддерживать связь с нашими пилотами, нам придется модернизировать наши коммуникационные сети, чтобы повысить пропускную способность."</t>
-  </si>
-  <si>
-    <t>"«Леопард»: улучшенные системы связи"</t>
-  </si>
-  <si>
-    <t>"Модернизация продолжается, командир. Наладить взаимодействие между технологией Звёздной лиги и нашей системой управления и контроля будет сложной задачей, но нет таких проблем, которые бы не смогли решить время и деньги, верно?"</t>
-  </si>
-  <si>
-    <t>"«Леопард»: встраивание систем управления и контроля"</t>
-  </si>
-  <si>
-    <t>"Этот шаттл бросили ржаветь на свалке, командир. Большая часть каркаса этого «Леопарда» держится на ржавчине и честном слове. Мои техи могут приступить к починке самых проблемных участков, но должен предупредить, что до полного ремонта ещё очень далеко."</t>
-  </si>
-  <si>
-    <t>"«Леопард»: ремонт наиболее повреждённых частей"</t>
-  </si>
-  <si>
-    <t>"Хорошая новость заключается в том, что мехи теперь скорее всего не сорвутся со своих подвесных опор при запуске «Леопарда», так что теперь мы можем позаботиться о том, чтобы они не провалились сквозь пол."</t>
-  </si>
-  <si>
-    <t>"«Леопард»: ремонт напольного покрытия"</t>
-  </si>
-  <si>
-    <t>"Внутренняя часть корабля теперь более или менее исправна, но над каркасом ещё работать и работать."</t>
-  </si>
-  <si>
-    <t>"«Леопард»: базовый ремонт каркаса"</t>
-  </si>
-  <si>
-    <t>"Выяснилось, что крепления двигателей насквозь проржавели, командир. Нам нужно полностью заменить их прежде, чем приступать непосредственно к ремонту двигателей, иначе они точно оторвутся из-за нагрузки."</t>
-  </si>
-  <si>
-    <t>"«Леопард»: замена креплений двигателя"</t>
-  </si>
-  <si>
-    <t>"«Леопард» потерял львиную долю мощности своих двигателей, ржавея годами. В текущем состоянии спуститься на планету не составит труда, но из-за состояния двигателей, это будет билет в один конец. Я помогу Яну приступить к устранению самых серьезных повреждений."</t>
-  </si>
-  <si>
-    <t>"«Леопард»: капитальный ремонт двигателей"</t>
-  </si>
-  <si>
-    <t>"Работа над двигателями продолжается, командир. Мы практически восстановили их до номинальной мощности. Небольшая доводка и дело сделано."</t>
-  </si>
-  <si>
-    <t>"«Леопард»: тюнинг двигателя"</t>
-  </si>
-  <si>
-    <t>"Теперь, когда двигатели и корпус корабля восстановлены, следующим шагом будет откалибровать системы управления, чтобы они учитывали изменения в балансе и производительности после нашего ремонта. Нам нужно совершить серию орбитальных высадок для точного измерения характеристик управляемости, а затем вбить их в бортовые системы управления полетом."</t>
-  </si>
-  <si>
-    <t>"«Леопард»: откалиброванные системы управления"</t>
-  </si>
-  <si>
-    <t>"Хорошая новость - мы почти на финишной прямой! Честно говоря, я никогда не думал, что мы продвинемся так далеко, босс. Я откладывал этот разговор до этого момента из-за хронического недостатка времени и денег, но хребет корабля погнут. Он погнулся либо во время со своей предыдущей службы, либо когда гнил на свалке. Нам придется полностью разобрать корабль до основания, чтобы починить его, зато потом он будет как новенький!"</t>
-  </si>
-  <si>
-    <t>"«Леопард»: выпрямление каркаса"</t>
-  </si>
-  <si>
-    <t>"Картографические датчики"</t>
-  </si>
-  <si>
-    <t>"Наши системы датчиков не позволяют должным образом отображать местность в зонах высадки. С помощью несложной перепрошивки и добавления некоторого программного обеспечения в компьютеры «Арго», мы сможем адаптировать наши датчики для сканирования местности."</t>
-  </si>
-  <si>
-    <t>"Системы мониторинга погоды"</t>
-  </si>
-  <si>
-    <t>"Дальнейшая модернизация сенсоров и подключение их к серии автономных спутников позволит отслеживать погодные условия и геологические особенности всех планет системы."</t>
-  </si>
-  <si>
-    <t>"Влияет на время передвижения (без прыжков) - не показывается"</t>
-  </si>
-  <si>
-    <t>"Включает карту местности перед миссией"</t>
-  </si>
-  <si>
-    <t>"Включает погодные данные перед миссией"</t>
-  </si>
-  <si>
-    <t>"Минимальное Affinity пилота к меху, до которой может снизиться."</t>
-  </si>
-  <si>
-    <t>"Количество дней, которое должно пройти, чтобы Affinity пилота начало снижаться."</t>
-  </si>
-  <si>
-    <t>"Консоль контрактов MRB"</t>
-  </si>
-  <si>
-    <t>"Базовая консоль MRB контрактов, позволяющая осуществлять торги по всем стандартным контрактам и флэшпоинтам."</t>
-  </si>
-  <si>
-    <t>"Активирует «Леопард»"</t>
-  </si>
-  <si>
-    <t>"Работник недели"</t>
-  </si>
-  <si>
-    <t>"Введите награду для сотрудника недели, которая состоит в том, чтобы повесить его фотографию на стену в золотой рамке и вручить небольшой денежный подарок. Это идеальный способ потешить их самолюбие, только не говорите им, что это фальшивая награда, что со временем её получат все."</t>
-  </si>
-  <si>
-    <t>"«Леопард»: расширение корпуса"</t>
-  </si>
-  <si>
-    <t>"Полная реконструкция «Леопарда», добавляющая несколько новых отсеков за счет расширения корпуса. Включает модификацию внутреннего каркаса, улучшение внутренней проводки и модернизацию двигателей. Реконструкция займет немало времени и имеет очень высокую стоимость, но после её завершения позволит доставлять на поле боя практически всё, что угодно."</t>
-  </si>
-  <si>
-    <t>"Консоль MRB: код доступа Epsilon"</t>
-  </si>
-  <si>
-    <t>"&lt;color=#0033FF&gt;Открывается через ивент.&lt;/color&gt;\n\nАпгрейд консоли MRB, необходимый для выполнения контрактов класса Epsilon, открывает доступ к контрактам со сверхтяжёлыми мехами. Эти контракты, как правило, значительно сложнее и позволяют бросать в бой до 1025 тонн в зависимости от сложности контракта."</t>
-  </si>
-  <si>
-    <t>"Консоль MRB: код доступа Omega"</t>
-  </si>
-  <si>
-    <t>"&lt;color=#0033FF&gt;Открывается через ивент.&lt;/color&gt;\n\nАпгрейд консоли MRB, необходимый для выполнения контрактов класса Omega, открывает доступ к сложным контрактам со сверхтяжёлыми мехами. Эти контракты невероятно сложные и позволяют бросать в бой до 1225 тонн в зависимости от сложности контракта."</t>
-  </si>
-  <si>
-    <t>"Разблокирует контракты сверхтяжей"</t>
-  </si>
-  <si>
-    <t>"Разблокирует контракты на охоту на сверхтяжей"</t>
-  </si>
-  <si>
-    <t>"Шасси для Baracas RBR-BAB"</t>
-  </si>
-  <si>
-    <t>"Шасси для Baracas RBR-BAB разблокировано"</t>
-  </si>
-  <si>
-    <t>"Шасси для Khaos Theory KDK-DK"</t>
-  </si>
-  <si>
-    <t>"Шасси для Khaos Theory KDK-DK разблокировано"</t>
-  </si>
-  <si>
-    <t>"Кабина с улучшенной визуализацией разблокирована для Khaos Theory KDK-DK"</t>
-  </si>
-  <si>
-    <t>"Пиратская консоль Керби-Фучитак"</t>
-  </si>
-  <si>
-    <t>"&lt;color=#0033FF&gt;Открывается через ивент посредством сбора компонентов из лутбоксов из контрактов, спонсируемых пиратами.&lt;/color&gt;\n\nИтак, эти полоумные пираты собрали консоль для расчёта пиратских точек. Она запитывается от пиратского двигателя, а затем берёт под своё управление НавКомп и позволяет оператору консоли заменить координаты на новые, ближе к целевой планете. КФ-консоли имеют 3 главные детали: [[DM.UpgradeDefs[Gear_KerbyInjectors],Инжектор Керби]], [[DM.UpgradeDefs[Gear_FuCapacitor],Конденсатор Фу]] и [[DM.UpgradeDefs[Gear_CheatahNavComputer],Навигационный компьютер Читак]]. Схемы и чертежи также пригодятся для финальной сборки. Выполняя определенные задания для пиратов по засаде, спасению и сопровождению, вы получите в награду одну из этих частей."</t>
-  </si>
-  <si>
-    <t>"Улучшение пиратского двигателя"</t>
-  </si>
-  <si>
-    <t>"Какой-то сумасшедший пиратский аэрокосмический тех перераспределил проводку двигателя дропшипа и разогнал несколько ядер компьютера, чтобы получить небольшое увеличение мощности. Двигатель технически совместим с «Арго», и потенциально позволит сократить время зарядки и перемещения между системами."</t>
-  </si>
-  <si>
-    <t>"Статус построенной КФ-консоли на «Арго»"</t>
-  </si>
-  <si>
-    <t>"Статус задержанной КФ-консоли на «Арго»"</t>
-  </si>
-  <si>
-    <t>"Статус установленной КФ-консоли на «Арго»"</t>
-  </si>
-  <si>
-    <t>"Переопределяет базовую стоимость путешествия на прыжковом корабле между системами"</t>
-  </si>
-  <si>
-    <t>"Счетчик кривых прыжков и, возможно, штрафов от MRB"</t>
-  </si>
-  <si>
-    <t>"Навигационный компьютер Читак"</t>
-  </si>
-  <si>
-    <t>"Этот компьютер, собранный вместе с [[DM.UpgradeDefs[Gear_FuCapacitor],конденсаторами Фу]], [[DM.UpgradeDefs[Gear_KerbyInjectors],инжекторами Керби]] и при помощи KFC-чертежей, позволяет установить консоль Керби-Фучитак. КФ-консоль даст возможность расчитывать пиратские точки прыжка, которые позволяют прыгать ближе к целевой планете, сокращая время на перелёт, правда, с риском кривого прыжка.\r\n\r\n&lt;color=#FF0000&gt;&lt;i&gt;Этот предмет только для модернизации «Арго», он не ставится в мехи&lt;/i&gt;&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"Конденсатор Фу"</t>
-  </si>
-  <si>
-    <t>"[[DM.UpgradeDefs[Gear_FuCapacitor],Конденсатор Фу]], собранный вместе с навигационным компьютером Читак, [[DM.UpgradeDefs[Gear_KerbyInjectors],инжекторами Керби]] и при помощи KFC-чертежей, позволяет установить консоль Керби-Фучитак. КФ-консоль даст возможность расчитывать пиратские точки прыжка, которые позволяют прыгать ближе к целевой планете, сокращая время на перелёт, правда, с риском кривого прыжка.\r\n\r\n&lt;color=#FF0000&gt;&lt;i&gt;Этот предмет только для модернизации «Арго», он не ставится в мехи&lt;/i&gt;&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"Инжекторы Керби"</t>
-  </si>
-  <si>
-    <t>"[[DM.UpgradeDefs[Gear_KerbyInjectors],Инжекторы Керби]], если идут в паре с [[DM.UpgradeDefs[Gear_FuCapacitor],конденсаторами Фу]], с навигационным компьютером Читак и набором схем KFC позволяют установить Керби-Фучитак консоль. КФ-консоль позволит расчитывать прыжки через пиратские точки, и позволит тем самым путешествовать ещё быстрее, правда, с риском кривого прыжка.\r\n\r\n&lt;color=#FF0000&gt;&lt;i&gt;Этот предмет - только для улучшения «Арго» он не ставится в мехи&lt;/i&gt;&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"Чертежи KFC"</t>
-  </si>
-  <si>
-    <t>"Чертежи КФ-консоли позволят установить [[DM.UpgradeDefs[Gear_KerbyInjectors],Инжекторы Керби]], [[DM.UpgradeDefs[Gear_FuCapacitor],Конденсаторы Фу]] и навигационный компьютер Читак, чтобы получить консоль Керби-Фучитак. КФ-консоль позволит расчитывать пиратские точки прыжка, которые сокращают время перелёта к планетам другой системы, правда с риском кривого прыжка.\r\n\r\n&lt;color=#FF0000&gt;&lt;i&gt;Этот предмет только для модернизации «Арго», он не ставится в мехи&lt;/i&gt;&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"ПОР_KFC"</t>
-  </si>
-  <si>
-    <t>"ИнжекторыКерби_KFC"</t>
-  </si>
-  <si>
-    <t>"KFC_Фу-Конденсатор"</t>
-  </si>
-  <si>
-    <t>"НавКомпЧитак_KFC"</t>
-  </si>
-  <si>
-    <t>"Чертежи_KFC"</t>
-  </si>
-  <si>
-    <t>"Предмет, ориентированный на результат ивента кривого прыжка"</t>
-  </si>
-  <si>
-    <t>"Коллекционная деталь для сборки и ремонта привода KFC"</t>
-  </si>
-  <si>
-    <t>"Это не устанавливаемый предмет. Он появится в вашем инвентаре, но только для того, чтобы вызвать ивент."</t>
-  </si>
-  <si>
-    <t>"Для создания КФ-консоли требуется конденсатор Фу, навигационный компьютер Читак и чертежи KFC"</t>
-  </si>
-  <si>
-    <t>"Для создания КФ-консоли требуются инжекторы Керби, навигационный компьютер Читак и чертежи KFC"</t>
-  </si>
-  <si>
-    <t>"Для создания КФ-консоли требуются инжекторы Керби, конденсаторы Фу и чертежи KFC"</t>
-  </si>
-  <si>
-    <t>"Для создания КФ-консоли требуются инжекторы Керби, конденсаторы Фу и навигационный компьютер Читак"</t>
-  </si>
-  <si>
-    <t>"Счетчик смертей для количества пилотов, скормленных Кракену"</t>
+    <t>SimGameStatDesc_MT_MechTechMultiplier_Extravagant.Description.Details</t>
+  </si>
+  <si>
+    <t>"Affects upkeep-state multiplier value - not shown"</t>
+  </si>
+  <si>
+    <t>SimGameStatDesc_MT_MechTechMultiplier_Extravagant_Display.Description.Details</t>
+  </si>
+  <si>
+    <t>SimGameStatDesc_MT_MechTechMultiplier_Generous.Description.Details</t>
+  </si>
+  <si>
+    <t>SimGameStatDesc_MT_MechTechMultiplier_Generous_Display.Description.Details</t>
+  </si>
+  <si>
+    <t>SimGameStatDesc_MT_MechTechMultiplier_Restrictive.Description.Details</t>
+  </si>
+  <si>
+    <t>SimGameStatDesc_MT_MechTechMultiplier_Restrictive_Display.Description.Details</t>
+  </si>
+  <si>
+    <t>SimGameStatDesc_MT_MechTechMultiplier_Spartan.Description.Details</t>
+  </si>
+  <si>
+    <t>SimGameStatDesc_MT_MechTechMultiplier_Spartan_Display.Description.Details</t>
+  </si>
+  <si>
+    <t>SimGameStatDesc_MT_MedTechMultiplier_Extravagant.Description.Details</t>
+  </si>
+  <si>
+    <t>SimGameStatDesc_MT_MedTechMultiplier_Extravagant_Display.Description.Details</t>
+  </si>
+  <si>
+    <t>SimGameStatDesc_MT_MedTechMultiplier_Generous.Description.Details</t>
+  </si>
+  <si>
+    <t>SimGameStatDesc_MT_MedTechMultiplier_Generous_Display.Description.Details</t>
+  </si>
+  <si>
+    <t>SimGameStatDesc_MT_MedTechMultiplier_Restrictive.Description.Details</t>
+  </si>
+  <si>
+    <t>SimGameStatDesc_MT_MedTechMultiplier_Restrictive_Display.Description.Details</t>
+  </si>
+  <si>
+    <t>SimGameStatDesc_MT_MedTechMultiplier_Spartan.Description.Details</t>
+  </si>
+  <si>
+    <t>SimGameStatDesc_MT_MedTechMultiplier_Spartan_Display.Description.Details</t>
+  </si>
+  <si>
+    <t>SimGameStatDesc_26_Alpha.Description.Details</t>
+  </si>
+  <si>
+    <t>"Tracker for 26A events"</t>
+  </si>
+  <si>
+    <t>Gear_Habitats_Galore_Appointment.Description.UIName</t>
+  </si>
+  <si>
+    <t>"Habitats Galore Argo Pod Upgrade"</t>
+  </si>
+  <si>
+    <t>"Модернизация отсека Argo для жилых помещений"</t>
+  </si>
+  <si>
+    <t>Gear_Habitats_Galore_Appointment.Description.Details</t>
+  </si>
+  <si>
+    <t>"This appointment will send one of our trusted &lt;i&gt;Habitats Galore, a Boeing Interstellar Subsidiary,&lt;/i&gt; sales representatives who will happily come to you and discuss the various options for upgrading your dropship to include cozy living quarters for your future additional crew.  All we ask for is a small deposit to cover our travel costs to you in orbit.  Our minimum install rate is currently ¢400,000 for our Cost Saver package.\r\n\r\n&lt;color=#FF0000&gt;&lt;i&gt;This item is for Argo upgrade only, it will not install in mechs&lt;/i&gt;&lt;/color&gt;"</t>
+  </si>
+  <si>
+    <t>"Это предложение предусматривает отправку одного из наших надежных торговых представителей Habitats Galore, дочерней компании Boeing Interstellar, который с удовольствием посетит вас и обсудит различные варианты модернизации вашего дропшипа уютными жилыми каютами для вашей будущей дополнительной команды. Все, что мы просим, — это небольшой залог для покрытия наших расходов на поездку к вам на орбиту. Наша минимальная стоимость установки в настоящее время составляет ¢400,000 за Эконом-пакет.\r\n\r\n&lt;color=#FF0000&gt;&lt;i&gt;Этот предмет предназначен только для модернизации Argo, он не устанавливается в мехи&lt;/i&gt;&lt;/color&gt;"</t>
+  </si>
+  <si>
+    <t>MechEngineer.ROI_HabitatsGalore.Short</t>
+  </si>
+  <si>
+    <t>"ROI_HabitatsGalore"</t>
+  </si>
+  <si>
+    <t>MechEngineer.ROI_HabitatsGalore.Long</t>
+  </si>
+  <si>
+    <t>"Result Oriented Item for Habitats Galore Beta/Gamma Pod Upgrade Appointment"</t>
+  </si>
+  <si>
+    <t>MechEngineer.ROI_HabitatsGalore.Full</t>
+  </si>
+  <si>
+    <t>SimGameStatDesc_26_Beta.Description.Details</t>
+  </si>
+  <si>
+    <t>"Tracker for 26B events"</t>
+  </si>
+  <si>
+    <t>"Предмет, вызывающий ивент Habitats Galore модернизации отсеков «Бета»/«Гамма»"</t>
   </si>
 </sst>
 </file>
@@ -2050,17 +2179,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D203"/>
+  <dimension ref="A1:D226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="C206" sqref="C206"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="73.5703125" style="1" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2071,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1">
         <v>1</v>
@@ -2079,13 +2208,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>393</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -2093,13 +2222,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>394</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
@@ -2107,13 +2236,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>395</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>4</v>
@@ -2121,13 +2250,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>396</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>5</v>
@@ -2135,13 +2264,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>397</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
         <v>6</v>
@@ -2149,13 +2278,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>398</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>7</v>
@@ -2163,13 +2292,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>399</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
@@ -2177,13 +2306,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>400</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1">
         <v>9</v>
@@ -2191,13 +2320,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>401</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1">
         <v>10</v>
@@ -2205,13 +2334,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>402</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1">
         <v>11</v>
@@ -2219,13 +2348,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>403</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1">
         <v>12</v>
@@ -2233,13 +2362,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>404</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1">
         <v>13</v>
@@ -2247,13 +2376,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>405</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1">
         <v>14</v>
@@ -2261,13 +2390,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>406</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1">
         <v>15</v>
@@ -2275,13 +2404,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>407</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1">
         <v>16</v>
@@ -2289,13 +2418,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>408</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1">
         <v>17</v>
@@ -2303,13 +2432,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>409</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1">
         <v>18</v>
@@ -2317,13 +2446,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>410</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1">
         <v>19</v>
@@ -2331,13 +2460,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>411</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1">
         <v>20</v>
@@ -2345,13 +2474,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>412</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1">
         <v>21</v>
@@ -2359,13 +2488,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>413</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1">
         <v>22</v>
@@ -2373,13 +2502,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>414</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1">
         <v>23</v>
@@ -2387,13 +2516,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>415</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1">
         <v>24</v>
@@ -2401,13 +2530,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>416</v>
+        <v>74</v>
       </c>
       <c r="D25" s="1">
         <v>25</v>
@@ -2415,13 +2544,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1">
         <v>26</v>
@@ -2429,13 +2558,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="D27" s="1">
         <v>27</v>
@@ -2443,13 +2572,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>419</v>
+        <v>83</v>
       </c>
       <c r="D28" s="1">
         <v>28</v>
@@ -2457,13 +2586,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>420</v>
+        <v>86</v>
       </c>
       <c r="D29" s="1">
         <v>29</v>
@@ -2471,13 +2600,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>421</v>
+        <v>89</v>
       </c>
       <c r="D30" s="1">
         <v>30</v>
@@ -2485,13 +2614,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>422</v>
+        <v>92</v>
       </c>
       <c r="D31" s="1">
         <v>31</v>
@@ -2499,13 +2628,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>423</v>
+        <v>95</v>
       </c>
       <c r="D32" s="1">
         <v>32</v>
@@ -2513,13 +2642,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>424</v>
+        <v>98</v>
       </c>
       <c r="D33" s="1">
         <v>33</v>
@@ -2527,13 +2656,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>425</v>
+        <v>101</v>
       </c>
       <c r="D34" s="1">
         <v>34</v>
@@ -2541,13 +2670,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>426</v>
+        <v>104</v>
       </c>
       <c r="D35" s="1">
         <v>35</v>
@@ -2555,13 +2684,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>427</v>
+        <v>107</v>
       </c>
       <c r="D36" s="1">
         <v>36</v>
@@ -2569,13 +2698,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>428</v>
+        <v>110</v>
       </c>
       <c r="D37" s="1">
         <v>37</v>
@@ -2583,13 +2712,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>429</v>
+        <v>113</v>
       </c>
       <c r="D38" s="1">
         <v>38</v>
@@ -2597,13 +2726,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>430</v>
+        <v>116</v>
       </c>
       <c r="D39" s="1">
         <v>39</v>
@@ -2611,13 +2740,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>431</v>
+        <v>119</v>
       </c>
       <c r="D40" s="1">
         <v>40</v>
@@ -2625,13 +2754,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>432</v>
+        <v>122</v>
       </c>
       <c r="D41" s="1">
         <v>41</v>
@@ -2639,13 +2768,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>433</v>
+        <v>125</v>
       </c>
       <c r="D42" s="1">
         <v>42</v>
@@ -2653,13 +2782,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>434</v>
+        <v>128</v>
       </c>
       <c r="D43" s="1">
         <v>43</v>
@@ -2667,13 +2796,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>435</v>
+        <v>131</v>
       </c>
       <c r="D44" s="1">
         <v>44</v>
@@ -2681,13 +2810,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>436</v>
+        <v>134</v>
       </c>
       <c r="D45" s="1">
         <v>45</v>
@@ -2695,13 +2824,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>437</v>
+        <v>137</v>
       </c>
       <c r="D46" s="1">
         <v>46</v>
@@ -2709,13 +2838,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>438</v>
+        <v>140</v>
       </c>
       <c r="D47" s="1">
         <v>47</v>
@@ -2723,13 +2852,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>439</v>
+        <v>143</v>
       </c>
       <c r="D48" s="1">
         <v>48</v>
@@ -2737,13 +2866,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>440</v>
+        <v>146</v>
       </c>
       <c r="D49" s="1">
         <v>49</v>
@@ -2751,13 +2880,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>441</v>
+        <v>149</v>
       </c>
       <c r="D50" s="1">
         <v>50</v>
@@ -2765,13 +2894,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>442</v>
+        <v>152</v>
       </c>
       <c r="D51" s="1">
         <v>51</v>
@@ -2779,13 +2908,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>443</v>
+        <v>155</v>
       </c>
       <c r="D52" s="1">
         <v>52</v>
@@ -2793,13 +2922,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>444</v>
+        <v>158</v>
       </c>
       <c r="D53" s="1">
         <v>53</v>
@@ -2807,13 +2936,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>445</v>
+        <v>161</v>
       </c>
       <c r="D54" s="1">
         <v>54</v>
@@ -2821,13 +2950,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>446</v>
+        <v>164</v>
       </c>
       <c r="D55" s="1">
         <v>55</v>
@@ -2835,13 +2964,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>447</v>
+        <v>167</v>
       </c>
       <c r="D56" s="1">
         <v>56</v>
@@ -2849,13 +2978,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>448</v>
+        <v>170</v>
       </c>
       <c r="D57" s="1">
         <v>57</v>
@@ -2863,13 +2992,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>449</v>
+        <v>173</v>
       </c>
       <c r="D58" s="1">
         <v>58</v>
@@ -2877,13 +3006,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>450</v>
+        <v>176</v>
       </c>
       <c r="D59" s="1">
         <v>59</v>
@@ -2891,13 +3020,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>451</v>
+        <v>179</v>
       </c>
       <c r="D60" s="1">
         <v>60</v>
@@ -2905,13 +3034,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>452</v>
+        <v>182</v>
       </c>
       <c r="D61" s="1">
         <v>61</v>
@@ -2919,13 +3048,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>453</v>
+        <v>185</v>
       </c>
       <c r="D62" s="1">
         <v>62</v>
@@ -2933,13 +3062,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>454</v>
+        <v>188</v>
       </c>
       <c r="D63" s="1">
         <v>63</v>
@@ -2947,13 +3076,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>455</v>
+        <v>191</v>
       </c>
       <c r="D64" s="1">
         <v>64</v>
@@ -2961,13 +3090,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>129</v>
+        <v>193</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>456</v>
+        <v>194</v>
       </c>
       <c r="D65" s="1">
         <v>65</v>
@@ -2975,13 +3104,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>457</v>
+        <v>197</v>
       </c>
       <c r="D66" s="1">
         <v>66</v>
@@ -2989,13 +3118,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>458</v>
+        <v>200</v>
       </c>
       <c r="D67" s="1">
         <v>67</v>
@@ -3003,13 +3132,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>135</v>
+        <v>202</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>459</v>
+        <v>203</v>
       </c>
       <c r="D68" s="1">
         <v>68</v>
@@ -3017,13 +3146,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>460</v>
+        <v>206</v>
       </c>
       <c r="D69" s="1">
         <v>69</v>
@@ -3031,13 +3160,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>461</v>
+        <v>209</v>
       </c>
       <c r="D70" s="1">
         <v>70</v>
@@ -3045,13 +3174,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>462</v>
+        <v>212</v>
       </c>
       <c r="D71" s="1">
         <v>71</v>
@@ -3059,13 +3188,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>463</v>
+        <v>215</v>
       </c>
       <c r="D72" s="1">
         <v>72</v>
@@ -3073,13 +3202,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>464</v>
+        <v>218</v>
       </c>
       <c r="D73" s="1">
         <v>73</v>
@@ -3087,13 +3216,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>146</v>
+        <v>219</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>465</v>
+        <v>221</v>
       </c>
       <c r="D74" s="1">
         <v>74</v>
@@ -3101,13 +3230,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>466</v>
+        <v>224</v>
       </c>
       <c r="D75" s="1">
         <v>75</v>
@@ -3115,13 +3244,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>467</v>
+        <v>227</v>
       </c>
       <c r="D76" s="1">
         <v>76</v>
@@ -3129,13 +3258,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>468</v>
+        <v>230</v>
       </c>
       <c r="D77" s="1">
         <v>77</v>
@@ -3143,13 +3272,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>469</v>
+        <v>233</v>
       </c>
       <c r="D78" s="1">
         <v>78</v>
@@ -3157,13 +3286,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>470</v>
+        <v>236</v>
       </c>
       <c r="D79" s="1">
         <v>79</v>
@@ -3171,13 +3300,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>471</v>
+        <v>239</v>
       </c>
       <c r="D80" s="1">
         <v>80</v>
@@ -3185,13 +3314,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>472</v>
+        <v>242</v>
       </c>
       <c r="D81" s="1">
         <v>81</v>
@@ -3199,13 +3328,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>473</v>
+        <v>245</v>
       </c>
       <c r="D82" s="1">
         <v>82</v>
@@ -3213,13 +3342,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>165</v>
+        <v>247</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>474</v>
+        <v>248</v>
       </c>
       <c r="D83" s="1">
         <v>83</v>
@@ -3227,13 +3356,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>475</v>
+        <v>251</v>
       </c>
       <c r="D84" s="1">
         <v>84</v>
@@ -3241,13 +3370,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>476</v>
+        <v>254</v>
       </c>
       <c r="D85" s="1">
         <v>85</v>
@@ -3255,13 +3384,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>171</v>
+        <v>256</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>477</v>
+        <v>257</v>
       </c>
       <c r="D86" s="1">
         <v>86</v>
@@ -3269,13 +3398,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>172</v>
+        <v>258</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>478</v>
+        <v>260</v>
       </c>
       <c r="D87" s="1">
         <v>87</v>
@@ -3283,13 +3412,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>174</v>
+        <v>261</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>479</v>
+        <v>263</v>
       </c>
       <c r="D88" s="1">
         <v>88</v>
@@ -3297,13 +3426,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>176</v>
+        <v>264</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>177</v>
+        <v>265</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>480</v>
+        <v>266</v>
       </c>
       <c r="D89" s="1">
         <v>89</v>
@@ -3311,13 +3440,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>178</v>
+        <v>267</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>179</v>
+        <v>268</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>481</v>
+        <v>269</v>
       </c>
       <c r="D90" s="1">
         <v>90</v>
@@ -3325,13 +3454,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>482</v>
+        <v>272</v>
       </c>
       <c r="D91" s="1">
         <v>91</v>
@@ -3339,13 +3468,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>183</v>
+        <v>274</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>483</v>
+        <v>275</v>
       </c>
       <c r="D92" s="1">
         <v>92</v>
@@ -3353,13 +3482,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>185</v>
+        <v>277</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>484</v>
+        <v>278</v>
       </c>
       <c r="D93" s="1">
         <v>93</v>
@@ -3367,13 +3496,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>186</v>
+        <v>279</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>187</v>
+        <v>280</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>485</v>
+        <v>281</v>
       </c>
       <c r="D94" s="1">
         <v>94</v>
@@ -3381,13 +3510,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>486</v>
+        <v>284</v>
       </c>
       <c r="D95" s="1">
         <v>95</v>
@@ -3395,13 +3524,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>190</v>
+        <v>285</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>191</v>
+        <v>286</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>487</v>
+        <v>287</v>
       </c>
       <c r="D96" s="1">
         <v>96</v>
@@ -3409,13 +3538,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>192</v>
+        <v>288</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>193</v>
+        <v>289</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>488</v>
+        <v>290</v>
       </c>
       <c r="D97" s="1">
         <v>97</v>
@@ -3423,13 +3552,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>195</v>
+        <v>292</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>489</v>
+        <v>293</v>
       </c>
       <c r="D98" s="1">
         <v>98</v>
@@ -3437,13 +3566,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>196</v>
+        <v>294</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>490</v>
+        <v>296</v>
       </c>
       <c r="D99" s="1">
         <v>99</v>
@@ -3451,13 +3580,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>198</v>
+        <v>297</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>199</v>
+        <v>298</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>491</v>
+        <v>299</v>
       </c>
       <c r="D100" s="1">
         <v>100</v>
@@ -3465,13 +3594,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>492</v>
+        <v>302</v>
       </c>
       <c r="D101" s="1">
         <v>101</v>
@@ -3479,13 +3608,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>202</v>
+        <v>303</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>203</v>
+        <v>304</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>493</v>
+        <v>305</v>
       </c>
       <c r="D102" s="1">
         <v>102</v>
@@ -3493,13 +3622,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>204</v>
+        <v>306</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>205</v>
+        <v>307</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>494</v>
+        <v>308</v>
       </c>
       <c r="D103" s="1">
         <v>103</v>
@@ -3507,13 +3636,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>206</v>
+        <v>309</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>207</v>
+        <v>310</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>495</v>
+        <v>311</v>
       </c>
       <c r="D104" s="1">
         <v>104</v>
@@ -3521,13 +3650,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>208</v>
+        <v>312</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>209</v>
+        <v>313</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>496</v>
+        <v>314</v>
       </c>
       <c r="D105" s="1">
         <v>105</v>
@@ -3535,13 +3664,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>497</v>
+        <v>317</v>
       </c>
       <c r="D106" s="1">
         <v>106</v>
@@ -3549,13 +3678,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>212</v>
+        <v>318</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>213</v>
+        <v>319</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>498</v>
+        <v>320</v>
       </c>
       <c r="D107" s="1">
         <v>107</v>
@@ -3563,13 +3692,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>499</v>
+        <v>323</v>
       </c>
       <c r="D108" s="1">
         <v>108</v>
@@ -3577,13 +3706,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>217</v>
+        <v>325</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>500</v>
+        <v>326</v>
       </c>
       <c r="D109" s="1">
         <v>109</v>
@@ -3591,13 +3720,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>218</v>
+        <v>327</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>501</v>
+        <v>329</v>
       </c>
       <c r="D110" s="1">
         <v>110</v>
@@ -3605,13 +3734,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>221</v>
+        <v>331</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>502</v>
+        <v>332</v>
       </c>
       <c r="D111" s="1">
         <v>111</v>
@@ -3619,13 +3748,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>223</v>
+        <v>334</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>503</v>
+        <v>335</v>
       </c>
       <c r="D112" s="1">
         <v>112</v>
@@ -3633,13 +3762,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>224</v>
+        <v>336</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>225</v>
+        <v>337</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>504</v>
+        <v>338</v>
       </c>
       <c r="D113" s="1">
         <v>113</v>
@@ -3647,13 +3776,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>226</v>
+        <v>339</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>227</v>
+        <v>340</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>505</v>
+        <v>341</v>
       </c>
       <c r="D114" s="1">
         <v>114</v>
@@ -3661,13 +3790,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>228</v>
+        <v>342</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>229</v>
+        <v>343</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>506</v>
+        <v>344</v>
       </c>
       <c r="D115" s="1">
         <v>115</v>
@@ -3675,13 +3804,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>230</v>
+        <v>345</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>231</v>
+        <v>346</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>507</v>
+        <v>347</v>
       </c>
       <c r="D116" s="1">
         <v>116</v>
@@ -3689,13 +3818,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>232</v>
+        <v>348</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>233</v>
+        <v>349</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>508</v>
+        <v>350</v>
       </c>
       <c r="D117" s="1">
         <v>117</v>
@@ -3703,13 +3832,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>234</v>
+        <v>351</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>235</v>
+        <v>352</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>509</v>
+        <v>353</v>
       </c>
       <c r="D118" s="1">
         <v>118</v>
@@ -3717,13 +3846,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>236</v>
+        <v>354</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>510</v>
+        <v>356</v>
       </c>
       <c r="D119" s="1">
         <v>119</v>
@@ -3731,13 +3860,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>238</v>
+        <v>357</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>510</v>
+        <v>356</v>
       </c>
       <c r="D120" s="1">
         <v>120</v>
@@ -3745,13 +3874,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>239</v>
+        <v>358</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>510</v>
+        <v>356</v>
       </c>
       <c r="D121" s="1">
         <v>121</v>
@@ -3759,13 +3888,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>240</v>
+        <v>359</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>510</v>
+        <v>356</v>
       </c>
       <c r="D122" s="1">
         <v>122</v>
@@ -3773,13 +3902,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>241</v>
+        <v>360</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>510</v>
+        <v>356</v>
       </c>
       <c r="D123" s="1">
         <v>123</v>
@@ -3787,13 +3916,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>242</v>
+        <v>361</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>510</v>
+        <v>356</v>
       </c>
       <c r="D124" s="1">
         <v>124</v>
@@ -3801,13 +3930,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>243</v>
+        <v>362</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>510</v>
+        <v>356</v>
       </c>
       <c r="D125" s="1">
         <v>125</v>
@@ -3815,13 +3944,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>245</v>
+        <v>364</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>511</v>
+        <v>365</v>
       </c>
       <c r="D126" s="1">
         <v>126</v>
@@ -3829,13 +3958,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>246</v>
+        <v>366</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>247</v>
+        <v>367</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>512</v>
+        <v>368</v>
       </c>
       <c r="D127" s="1">
         <v>127</v>
@@ -3843,13 +3972,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>248</v>
+        <v>369</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>249</v>
+        <v>370</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>513</v>
+        <v>371</v>
       </c>
       <c r="D128" s="1">
         <v>128</v>
@@ -3857,13 +3986,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>250</v>
+        <v>372</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>251</v>
+        <v>373</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>514</v>
+        <v>374</v>
       </c>
       <c r="D129" s="1">
         <v>129</v>
@@ -3871,13 +4000,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>252</v>
+        <v>375</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>253</v>
+        <v>376</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>515</v>
+        <v>377</v>
       </c>
       <c r="D130" s="1">
         <v>130</v>
@@ -3885,13 +4014,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>254</v>
+        <v>378</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>255</v>
+        <v>379</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>516</v>
+        <v>380</v>
       </c>
       <c r="D131" s="1">
         <v>131</v>
@@ -3899,13 +4028,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>256</v>
+        <v>381</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>257</v>
+        <v>382</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>517</v>
+        <v>383</v>
       </c>
       <c r="D132" s="1">
         <v>132</v>
@@ -3913,13 +4042,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>258</v>
+        <v>384</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>510</v>
+        <v>356</v>
       </c>
       <c r="D133" s="1">
         <v>133</v>
@@ -3927,13 +4056,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>259</v>
+        <v>385</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>510</v>
+        <v>356</v>
       </c>
       <c r="D134" s="1">
         <v>134</v>
@@ -3941,13 +4070,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>260</v>
+        <v>386</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>510</v>
+        <v>356</v>
       </c>
       <c r="D135" s="1">
         <v>135</v>
@@ -3955,13 +4084,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>261</v>
+        <v>387</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>245</v>
+        <v>364</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>511</v>
+        <v>365</v>
       </c>
       <c r="D136" s="1">
         <v>136</v>
@@ -3969,13 +4098,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>262</v>
+        <v>388</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>247</v>
+        <v>367</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>512</v>
+        <v>368</v>
       </c>
       <c r="D137" s="1">
         <v>137</v>
@@ -3983,13 +4112,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>263</v>
+        <v>389</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>264</v>
+        <v>390</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>518</v>
+        <v>391</v>
       </c>
       <c r="D138" s="1">
         <v>138</v>
@@ -3997,13 +4126,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>265</v>
+        <v>392</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>266</v>
+        <v>393</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>519</v>
+        <v>394</v>
       </c>
       <c r="D139" s="1">
         <v>139</v>
@@ -4011,13 +4140,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>267</v>
+        <v>395</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>268</v>
+        <v>396</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>520</v>
+        <v>397</v>
       </c>
       <c r="D140" s="1">
         <v>140</v>
@@ -4025,13 +4154,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>269</v>
+        <v>398</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>270</v>
+        <v>399</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>521</v>
+        <v>400</v>
       </c>
       <c r="D141" s="1">
         <v>141</v>
@@ -4039,13 +4168,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>271</v>
+        <v>401</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>272</v>
+        <v>402</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>272</v>
+        <v>402</v>
       </c>
       <c r="D142" s="1">
         <v>142</v>
@@ -4053,13 +4182,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>273</v>
+        <v>403</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>274</v>
+        <v>404</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>274</v>
+        <v>404</v>
       </c>
       <c r="D143" s="1">
         <v>143</v>
@@ -4067,13 +4196,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>275</v>
+        <v>405</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>276</v>
+        <v>406</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>276</v>
+        <v>407</v>
       </c>
       <c r="D144" s="1">
         <v>144</v>
@@ -4081,13 +4210,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>277</v>
+        <v>408</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>278</v>
+        <v>409</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>278</v>
+        <v>410</v>
       </c>
       <c r="D145" s="1">
         <v>145</v>
@@ -4095,13 +4224,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>279</v>
+        <v>411</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>280</v>
+        <v>412</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>280</v>
+        <v>412</v>
       </c>
       <c r="D146" s="1">
         <v>146</v>
@@ -4109,13 +4238,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>281</v>
+        <v>413</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>282</v>
+        <v>414</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>282</v>
+        <v>415</v>
       </c>
       <c r="D147" s="1">
         <v>147</v>
@@ -4123,13 +4252,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>283</v>
+        <v>416</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>284</v>
+        <v>417</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>522</v>
+        <v>418</v>
       </c>
       <c r="D148" s="1">
         <v>148</v>
@@ -4137,13 +4266,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>285</v>
+        <v>419</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>286</v>
+        <v>420</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>523</v>
+        <v>421</v>
       </c>
       <c r="D149" s="1">
         <v>149</v>
@@ -4151,13 +4280,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>287</v>
+        <v>422</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>288</v>
+        <v>423</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>524</v>
+        <v>424</v>
       </c>
       <c r="D150" s="1">
         <v>150</v>
@@ -4165,13 +4294,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>289</v>
+        <v>425</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>290</v>
+        <v>426</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>525</v>
+        <v>427</v>
       </c>
       <c r="D151" s="1">
         <v>151</v>
@@ -4179,13 +4308,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>291</v>
+        <v>428</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>292</v>
+        <v>429</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>292</v>
+        <v>430</v>
       </c>
       <c r="D152" s="1">
         <v>152</v>
@@ -4193,13 +4322,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>293</v>
+        <v>431</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>294</v>
+        <v>432</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>526</v>
+        <v>433</v>
       </c>
       <c r="D153" s="1">
         <v>153</v>
@@ -4207,13 +4336,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>295</v>
+        <v>434</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>296</v>
+        <v>435</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>527</v>
+        <v>436</v>
       </c>
       <c r="D154" s="1">
         <v>154</v>
@@ -4221,13 +4350,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>297</v>
+        <v>437</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>298</v>
+        <v>438</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>298</v>
+        <v>439</v>
       </c>
       <c r="D155" s="1">
         <v>155</v>
@@ -4235,13 +4364,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>299</v>
+        <v>440</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>300</v>
+        <v>441</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>300</v>
+        <v>442</v>
       </c>
       <c r="D156" s="1">
         <v>156</v>
@@ -4249,13 +4378,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>301</v>
+        <v>443</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>302</v>
+        <v>444</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>302</v>
+        <v>445</v>
       </c>
       <c r="D157" s="1">
         <v>157</v>
@@ -4263,13 +4392,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>303</v>
+        <v>446</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>304</v>
+        <v>447</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>304</v>
+        <v>447</v>
       </c>
       <c r="D158" s="1">
         <v>158</v>
@@ -4277,13 +4406,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>305</v>
+        <v>448</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>306</v>
+        <v>449</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>306</v>
+        <v>449</v>
       </c>
       <c r="D159" s="1">
         <v>159</v>
@@ -4291,13 +4420,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>307</v>
+        <v>450</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>308</v>
+        <v>451</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>528</v>
+        <v>452</v>
       </c>
       <c r="D160" s="1">
         <v>160</v>
@@ -4305,13 +4434,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>309</v>
+        <v>453</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>310</v>
+        <v>454</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>529</v>
+        <v>455</v>
       </c>
       <c r="D161" s="1">
         <v>161</v>
@@ -4319,13 +4448,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>311</v>
+        <v>456</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>312</v>
+        <v>457</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>312</v>
+        <v>458</v>
       </c>
       <c r="D162" s="1">
         <v>162</v>
@@ -4333,13 +4462,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>313</v>
+        <v>459</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>314</v>
+        <v>460</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>314</v>
+        <v>461</v>
       </c>
       <c r="D163" s="1">
         <v>163</v>
@@ -4347,13 +4476,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>315</v>
+        <v>462</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>316</v>
+        <v>463</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>316</v>
+        <v>463</v>
       </c>
       <c r="D164" s="1">
         <v>164</v>
@@ -4361,13 +4490,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>317</v>
+        <v>464</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>318</v>
+        <v>465</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>530</v>
+        <v>466</v>
       </c>
       <c r="D165" s="1">
         <v>165</v>
@@ -4375,13 +4504,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>319</v>
+        <v>467</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>320</v>
+        <v>468</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>531</v>
+        <v>469</v>
       </c>
       <c r="D166" s="1">
         <v>166</v>
@@ -4389,13 +4518,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>321</v>
+        <v>470</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>322</v>
+        <v>471</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>532</v>
+        <v>472</v>
       </c>
       <c r="D167" s="1">
         <v>167</v>
@@ -4403,13 +4532,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>323</v>
+        <v>473</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>324</v>
+        <v>474</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>324</v>
+        <v>475</v>
       </c>
       <c r="D168" s="1">
         <v>168</v>
@@ -4417,13 +4546,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>325</v>
+        <v>476</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>326</v>
+        <v>477</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>533</v>
+        <v>478</v>
       </c>
       <c r="D169" s="1">
         <v>169</v>
@@ -4431,13 +4560,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>327</v>
+        <v>479</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>328</v>
+        <v>480</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>534</v>
+        <v>481</v>
       </c>
       <c r="D170" s="1">
         <v>170</v>
@@ -4445,13 +4574,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>329</v>
+        <v>482</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>330</v>
+        <v>483</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>535</v>
+        <v>484</v>
       </c>
       <c r="D171" s="1">
         <v>171</v>
@@ -4459,13 +4588,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>331</v>
+        <v>485</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>332</v>
+        <v>486</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>536</v>
+        <v>487</v>
       </c>
       <c r="D172" s="1">
         <v>172</v>
@@ -4473,13 +4602,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>333</v>
+        <v>488</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>334</v>
+        <v>489</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>537</v>
+        <v>490</v>
       </c>
       <c r="D173" s="1">
         <v>173</v>
@@ -4487,13 +4616,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>335</v>
+        <v>491</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>336</v>
+        <v>492</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>538</v>
+        <v>493</v>
       </c>
       <c r="D174" s="1">
         <v>174</v>
@@ -4501,13 +4630,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>337</v>
+        <v>494</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>338</v>
+        <v>495</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>539</v>
+        <v>496</v>
       </c>
       <c r="D175" s="1">
         <v>175</v>
@@ -4515,13 +4644,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>339</v>
+        <v>497</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>340</v>
+        <v>498</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>540</v>
+        <v>499</v>
       </c>
       <c r="D176" s="1">
         <v>176</v>
@@ -4529,13 +4658,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>341</v>
+        <v>500</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>342</v>
+        <v>501</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="D177" s="1">
         <v>177</v>
@@ -4543,13 +4672,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>343</v>
+        <v>503</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>344</v>
+        <v>504</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>542</v>
+        <v>505</v>
       </c>
       <c r="D178" s="1">
         <v>178</v>
@@ -4557,13 +4686,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>345</v>
+        <v>506</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>346</v>
+        <v>507</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>543</v>
+        <v>508</v>
       </c>
       <c r="D179" s="1">
         <v>179</v>
@@ -4571,13 +4700,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>347</v>
+        <v>509</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>348</v>
+        <v>510</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>544</v>
+        <v>511</v>
       </c>
       <c r="D180" s="1">
         <v>180</v>
@@ -4585,13 +4714,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>349</v>
+        <v>512</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>350</v>
+        <v>513</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
       <c r="D181" s="1">
         <v>181</v>
@@ -4599,13 +4728,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>351</v>
+        <v>515</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>352</v>
+        <v>516</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="D182" s="1">
         <v>182</v>
@@ -4613,13 +4742,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>353</v>
+        <v>518</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>354</v>
+        <v>519</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="D183" s="1">
         <v>183</v>
@@ -4627,13 +4756,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>355</v>
+        <v>521</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>356</v>
+        <v>522</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="D184" s="1">
         <v>184</v>
@@ -4641,13 +4770,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>357</v>
+        <v>524</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>358</v>
+        <v>525</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="D185" s="1">
         <v>185</v>
@@ -4655,13 +4784,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>359</v>
+        <v>527</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>360</v>
+        <v>528</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="D186" s="1">
         <v>186</v>
@@ -4669,13 +4798,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>361</v>
+        <v>530</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>362</v>
+        <v>531</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="D187" s="1">
         <v>187</v>
@@ -4683,13 +4812,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>363</v>
+        <v>533</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>364</v>
+        <v>534</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="D188" s="1">
         <v>188</v>
@@ -4697,13 +4826,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>365</v>
+        <v>536</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>366</v>
+        <v>537</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="D189" s="1">
         <v>189</v>
@@ -4711,13 +4840,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>367</v>
+        <v>539</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>368</v>
+        <v>540</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="D190" s="1">
         <v>190</v>
@@ -4725,13 +4854,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>369</v>
+        <v>542</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>370</v>
+        <v>543</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="D191" s="1">
         <v>191</v>
@@ -4739,13 +4868,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>371</v>
+        <v>545</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>372</v>
+        <v>546</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="D192" s="1">
         <v>192</v>
@@ -4753,13 +4882,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>373</v>
+        <v>548</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>372</v>
+        <v>546</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="D193" s="1">
         <v>193</v>
@@ -4767,13 +4896,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>374</v>
+        <v>549</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>372</v>
+        <v>546</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="D194" s="1">
         <v>194</v>
@@ -4781,13 +4910,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>375</v>
+        <v>550</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>372</v>
+        <v>546</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="D195" s="1">
         <v>195</v>
@@ -4795,13 +4924,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>376</v>
+        <v>551</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>377</v>
+        <v>552</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D196" s="1">
         <v>196</v>
@@ -4809,13 +4938,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>378</v>
+        <v>554</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>379</v>
+        <v>555</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D197" s="1">
         <v>197</v>
@@ -4823,10 +4952,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>380</v>
+        <v>557</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>381</v>
+        <v>558</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>559</v>
@@ -4837,13 +4966,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>382</v>
+        <v>560</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>383</v>
+        <v>561</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D199" s="1">
         <v>199</v>
@@ -4851,13 +4980,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>384</v>
+        <v>563</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>385</v>
+        <v>564</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D200" s="1">
         <v>200</v>
@@ -4865,13 +4994,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>386</v>
+        <v>566</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>387</v>
+        <v>567</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D201" s="1">
         <v>201</v>
@@ -4879,13 +5008,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>388</v>
+        <v>569</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>389</v>
+        <v>570</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>389</v>
+        <v>570</v>
       </c>
       <c r="D202" s="1">
         <v>202</v>
@@ -4893,16 +5022,338 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>390</v>
+        <v>571</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>391</v>
+        <v>572</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>391</v>
+        <v>572</v>
       </c>
       <c r="D203" s="1">
         <v>203</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D204" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D205" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D206" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D207" s="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D208" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D209" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D210" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D211" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D212" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D213" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D214" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D215" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D216" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D217" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D218" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D219" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D220" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D221" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D222" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D223" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D224" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D225" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D226" s="1">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
